--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -1087,10 +1087,10 @@
         <v>4822.65</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9">

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -1007,10 +1007,10 @@
         <v>1747.95</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8">

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -626,8 +626,12 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>60000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -476,22 +476,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Book_Value</t>
+          <t>Book Value</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Fair_value_less_cost_to_sale</t>
+          <t>Fair value less cost to sale</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Value_in_use</t>
+          <t>Value in use</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Recoverable Amount</t>
+          <t>Recoverable Value</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0001</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -587,7 +587,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0002</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -640,7 +640,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0003</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0004</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0005</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0006</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0007</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0008</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0009</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FRC-7-C-17-0000</t>
+          <t>FRC-HQ-SLM-C-17-0010</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>FRC-7-C-17-0000</t>
+          <t>FRC-HQ-SLM-C-17-0011</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0012</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0013</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0014</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0015</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0016</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0017</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0018</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0019</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0020</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0021</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0022</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0023</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0024</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0025</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0026</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0027</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0028</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0029</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0030</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0031</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0032</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0033</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0034</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0035</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0036</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0037</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0038</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0039</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0040</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0041</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0042</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0043</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0044</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>FRC-7-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0045</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FRC-7-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0046</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0047</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0048</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0049</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>FRC-7-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0050</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0051</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0052</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>FRC-7-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0053</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0054</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0055</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0056</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0057</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0058</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0059</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0060</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0061</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0062</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0063</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0064</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0065</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0066</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0067</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0068</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0069</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0070</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0071</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0072</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0073</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0074</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0075</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>FRC-7-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0076</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0000</t>
+          <t>FRC-HQ-SLM-F-19-0077</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0078</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0079</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0080</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0081</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0082</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0083</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0084</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0085</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0086</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0087</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0088</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0089</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>FRC-7-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0090</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0091</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0092</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0093</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0000</t>
+          <t>FRC-HQ-SLM-O-19-0094</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>FRC-7-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0095</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0000</t>
+          <t>FRC-HQ-SLM-O-19-0096</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>FRC-7-T-19-0000</t>
+          <t>FRC-HQ-SLM-T-19-0097</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>FRC-7-M-19-0000</t>
+          <t>FRC-HQ-SLM-M-19-0098</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>FRC-7-M-19-0000</t>
+          <t>FRC-HQ-SLM-M-19-0099</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0100</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0101</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0102</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0103</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0104</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0105</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>FRC-7-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0106</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0107</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0108</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0109</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0110</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0111</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>FRC-7-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0112</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0113</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0114</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0115</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0116</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0117</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0118</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0119</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>FRC-7-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0120</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>FRC-7-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0121</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>FRC-7-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0122</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>FRC-7-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0123</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>FRC-7-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0124</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>FRC-7-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0125</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>FRC-7-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0126</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>FRC-7-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0127</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>FRC-7-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0128</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>FRC-7-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0129</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>FRC-7-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0130</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>FRC-7-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0131</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>FRC-7-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0132</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>FRC-7-T-20-0001</t>
+          <t>FRC-HQ-SLM-T-20-0133</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0134</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0135</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0136</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0137</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>FRC-7-F-21-0001</t>
+          <t>FRC-HQ-SLM-F-21-0138</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0139</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>FRC-7-F-21-0001</t>
+          <t>FRC-HQ-SLM-F-21-0140</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0141</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>FRC-7-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0142</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>FRC-7-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0143</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>FRC-7-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0144</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>FRC-7-O-22-0001</t>
+          <t>FRC-HQ-SLM-O-22-0145</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0146</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0147</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>FRC-7-M-22-0001</t>
+          <t>FRC-HQ-SLM-M-22-0148</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0001</t>
+          <t>FRC-HQ-SLM-F-22-0149</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>FRC-7-O-22-0001</t>
+          <t>FRC-HQ-SLM-O-22-0150</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0152</t>
         </is>
       </c>
       <c r="I152" t="n">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0153</t>
         </is>
       </c>
       <c r="I153" t="n">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0154</t>
         </is>
       </c>
       <c r="I154" t="n">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0155</t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0156</t>
         </is>
       </c>
       <c r="I156" t="n">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0157</t>
         </is>
       </c>
       <c r="I157" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0158</t>
         </is>
       </c>
       <c r="I158" t="n">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0159</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0160</t>
         </is>
       </c>
       <c r="I160" t="n">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>FRC-7-C-22-0001</t>
+          <t>FRC-HQ-SLM-C-22-0161</t>
         </is>
       </c>
       <c r="I161" t="n">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0162</t>
         </is>
       </c>
       <c r="I162" t="n">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0163</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0164</t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0165</t>
         </is>
       </c>
       <c r="I165" t="n">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0166</t>
         </is>
       </c>
       <c r="I166" t="n">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0167</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0168</t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0169</t>
         </is>
       </c>
       <c r="I169" t="n">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0170</t>
         </is>
       </c>
       <c r="I170" t="n">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0171</t>
         </is>
       </c>
       <c r="I171" t="n">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0001</t>
+          <t>FRC-HQ-SLM-I-22-0172</t>
         </is>
       </c>
       <c r="I172" t="n">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0173</t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0174</t>
         </is>
       </c>
       <c r="I174" t="n">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0175</t>
         </is>
       </c>
       <c r="I175" t="n">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0176</t>
         </is>
       </c>
       <c r="I176" t="n">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0177</t>
         </is>
       </c>
       <c r="I177" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0178</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0179</t>
         </is>
       </c>
       <c r="I179" t="n">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0180</t>
         </is>
       </c>
       <c r="I180" t="n">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0181</t>
         </is>
       </c>
       <c r="I181" t="n">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0182</t>
         </is>
       </c>
       <c r="I182" t="n">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0183</t>
         </is>
       </c>
       <c r="I183" t="n">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0184</t>
         </is>
       </c>
       <c r="I184" t="n">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0185</t>
         </is>
       </c>
       <c r="I185" t="n">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0186</t>
         </is>
       </c>
       <c r="I186" t="n">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0187</t>
         </is>
       </c>
       <c r="I187" t="n">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0188</t>
         </is>
       </c>
       <c r="I188" t="n">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0189</t>
         </is>
       </c>
       <c r="I189" t="n">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0190</t>
         </is>
       </c>
       <c r="I190" t="n">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0191</t>
         </is>
       </c>
       <c r="I191" t="n">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0192</t>
         </is>
       </c>
       <c r="I192" t="n">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0193</t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0194</t>
         </is>
       </c>
       <c r="I194" t="n">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0195</t>
         </is>
       </c>
       <c r="I195" t="n">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0196</t>
         </is>
       </c>
       <c r="I196" t="n">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>FRC-7-S-22-0001</t>
+          <t>FRC-HQ-SLM-S-22-0197</t>
         </is>
       </c>
       <c r="I197" t="n">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0001</t>
+          <t>FRC-HQ-SLM-E-22-0198</t>
         </is>
       </c>
       <c r="I198" t="n">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0001</t>
+          <t>FRC-HQ-SLM-E-22-0199</t>
         </is>
       </c>
       <c r="I199" t="n">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0200</t>
         </is>
       </c>
       <c r="I200" t="n">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0201</t>
         </is>
       </c>
       <c r="I201" t="n">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0202</t>
         </is>
       </c>
       <c r="I202" t="n">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0203</t>
         </is>
       </c>
       <c r="I203" t="n">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0204</t>
         </is>
       </c>
       <c r="I204" t="n">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0205</t>
         </is>
       </c>
       <c r="I205" t="n">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0206</t>
         </is>
       </c>
       <c r="I206" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0207</t>
         </is>
       </c>
       <c r="I207" t="n">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0208</t>
         </is>
       </c>
       <c r="I208" t="n">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0209</t>
         </is>
       </c>
       <c r="I209" t="n">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0210</t>
         </is>
       </c>
       <c r="I210" t="n">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0211</t>
         </is>
       </c>
       <c r="I211" t="n">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0212</t>
         </is>
       </c>
       <c r="I212" t="n">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0213</t>
         </is>
       </c>
       <c r="I213" t="n">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0214</t>
         </is>
       </c>
       <c r="I214" t="n">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0215</t>
         </is>
       </c>
       <c r="I215" t="n">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0216</t>
         </is>
       </c>
       <c r="I216" t="n">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0217</t>
         </is>
       </c>
       <c r="I217" t="n">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0218</t>
         </is>
       </c>
       <c r="I218" t="n">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0219</t>
         </is>
       </c>
       <c r="I219" t="n">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0220</t>
         </is>
       </c>
       <c r="I220" t="n">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0221</t>
         </is>
       </c>
       <c r="I221" t="n">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0222</t>
         </is>
       </c>
       <c r="I222" t="n">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0223</t>
         </is>
       </c>
       <c r="I223" t="n">
@@ -12160,7 +12160,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0224</t>
         </is>
       </c>
       <c r="I224" t="n">
@@ -12211,7 +12211,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0225</t>
         </is>
       </c>
       <c r="I225" t="n">
@@ -12262,7 +12262,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0226</t>
         </is>
       </c>
       <c r="I226" t="n">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0227</t>
         </is>
       </c>
       <c r="I227" t="n">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0228</t>
         </is>
       </c>
       <c r="I228" t="n">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0229</t>
         </is>
       </c>
       <c r="I229" t="n">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0230</t>
         </is>
       </c>
       <c r="I230" t="n">
@@ -12519,7 +12519,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0231</t>
         </is>
       </c>
       <c r="I231" t="n">
@@ -12570,7 +12570,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0232</t>
         </is>
       </c>
       <c r="I232" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0233</t>
         </is>
       </c>
       <c r="I233" t="n">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0234</t>
         </is>
       </c>
       <c r="I234" t="n">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0235</t>
         </is>
       </c>
       <c r="I235" t="n">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>FRC-7-E-22-0002</t>
+          <t>FRC-HQ-SLM-E-22-0236</t>
         </is>
       </c>
       <c r="I236" t="n">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>FRC-7-P-22-0002</t>
+          <t>FRC-HQ-SLM-P-22-0237</t>
         </is>
       </c>
       <c r="I237" t="n">
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>FRC-7-P-22-0002</t>
+          <t>FRC-HQ-SLM-P-22-0238</t>
         </is>
       </c>
       <c r="I238" t="n">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>FRC-7-P-22-0002</t>
+          <t>FRC-HQ-SLM-P-22-0239</t>
         </is>
       </c>
       <c r="I239" t="n">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>FRC-7-P-22-0002</t>
+          <t>FRC-HQ-SLM-P-22-0240</t>
         </is>
       </c>
       <c r="I240" t="n">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>FRC-7-P-22-0002</t>
+          <t>FRC-HQ-SLM-P-22-0241</t>
         </is>
       </c>
       <c r="I241" t="n">
@@ -13080,7 +13080,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0242</t>
         </is>
       </c>
       <c r="I242" t="n">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0243</t>
         </is>
       </c>
       <c r="I243" t="n">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0244</t>
         </is>
       </c>
       <c r="I244" t="n">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0245</t>
         </is>
       </c>
       <c r="I245" t="n">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0246</t>
         </is>
       </c>
       <c r="I246" t="n">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0247</t>
         </is>
       </c>
       <c r="I247" t="n">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0248</t>
         </is>
       </c>
       <c r="I248" t="n">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0249</t>
         </is>
       </c>
       <c r="I249" t="n">
@@ -13488,7 +13488,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0250</t>
         </is>
       </c>
       <c r="I250" t="n">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0251</t>
         </is>
       </c>
       <c r="I251" t="n">
@@ -13590,7 +13590,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0252</t>
         </is>
       </c>
       <c r="I252" t="n">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0253</t>
         </is>
       </c>
       <c r="I253" t="n">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0254</t>
         </is>
       </c>
       <c r="I254" t="n">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0255</t>
         </is>
       </c>
       <c r="I255" t="n">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0256</t>
         </is>
       </c>
       <c r="I256" t="n">
@@ -13845,7 +13845,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0257</t>
         </is>
       </c>
       <c r="I257" t="n">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0258</t>
         </is>
       </c>
       <c r="I258" t="n">
@@ -13947,7 +13947,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0259</t>
         </is>
       </c>
       <c r="I259" t="n">
@@ -13998,7 +13998,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0260</t>
         </is>
       </c>
       <c r="I260" t="n">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0261</t>
         </is>
       </c>
       <c r="I261" t="n">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0262</t>
         </is>
       </c>
       <c r="I262" t="n">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0263</t>
         </is>
       </c>
       <c r="I263" t="n">
@@ -14202,7 +14202,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0264</t>
         </is>
       </c>
       <c r="I264" t="n">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0265</t>
         </is>
       </c>
       <c r="I265" t="n">
@@ -14304,7 +14304,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0266</t>
         </is>
       </c>
       <c r="I266" t="n">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0267</t>
         </is>
       </c>
       <c r="I267" t="n">
@@ -14406,7 +14406,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0268</t>
         </is>
       </c>
       <c r="I268" t="n">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0269</t>
         </is>
       </c>
       <c r="I269" t="n">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0270</t>
         </is>
       </c>
       <c r="I270" t="n">
@@ -14559,7 +14559,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0271</t>
         </is>
       </c>
       <c r="I271" t="n">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0272</t>
         </is>
       </c>
       <c r="I272" t="n">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0273</t>
         </is>
       </c>
       <c r="I273" t="n">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>FRC-7-I-22-0002</t>
+          <t>FRC-HQ-SLM-I-22-0274</t>
         </is>
       </c>
       <c r="I274" t="n">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0275</t>
         </is>
       </c>
       <c r="I275" t="n">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0276</t>
         </is>
       </c>
       <c r="I276" t="n">
@@ -14865,7 +14865,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0277</t>
         </is>
       </c>
       <c r="I277" t="n">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0278</t>
         </is>
       </c>
       <c r="I278" t="n">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0279</t>
         </is>
       </c>
       <c r="I279" t="n">
@@ -15018,7 +15018,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0280</t>
         </is>
       </c>
       <c r="I280" t="n">
@@ -15069,7 +15069,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0281</t>
         </is>
       </c>
       <c r="I281" t="n">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0282</t>
         </is>
       </c>
       <c r="I282" t="n">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0283</t>
         </is>
       </c>
       <c r="I283" t="n">
@@ -15224,7 +15224,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0284</t>
         </is>
       </c>
       <c r="I284" t="n">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0285</t>
         </is>
       </c>
       <c r="I285" t="n">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0286</t>
         </is>
       </c>
       <c r="I286" t="n">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0287</t>
         </is>
       </c>
       <c r="I287" t="n">
@@ -15434,7 +15434,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0288</t>
         </is>
       </c>
       <c r="I288" t="n">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0289</t>
         </is>
       </c>
       <c r="I289" t="n">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0290</t>
         </is>
       </c>
       <c r="I290" t="n">
@@ -15593,7 +15593,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0291</t>
         </is>
       </c>
       <c r="I291" t="n">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0292</t>
         </is>
       </c>
       <c r="I292" t="n">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0293</t>
         </is>
       </c>
       <c r="I293" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0294</t>
         </is>
       </c>
       <c r="I294" t="n">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0295</t>
         </is>
       </c>
       <c r="I295" t="n">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0296</t>
         </is>
       </c>
       <c r="I296" t="n">
@@ -15907,7 +15907,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0297</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0298</t>
         </is>
       </c>
       <c r="I298" t="n">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0002</t>
+          <t>FRC-HQ-SLM-F-22-0299</t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0003</t>
+          <t>FRC-HQ-SLM-F-22-0300</t>
         </is>
       </c>
       <c r="I300" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>FRC-7-F-22-0003</t>
+          <t>FRC-HQ-SLM-F-22-0301</t>
         </is>
       </c>
       <c r="I301" t="n">

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0001</t>
+          <t>FRC-SLM-7.0-4-17-01.0</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -587,7 +587,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0002</t>
+          <t>FRC-SLM-7.0-4-17-02.0</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -640,7 +640,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0003</t>
+          <t>FRC-SLM-7.0-4-17-03.0</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0004</t>
+          <t>FRC-SLM-7.0-4-17-04.0</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0005</t>
+          <t>FRC-SLM-7.0-4-17-05.0</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0006</t>
+          <t>FRC-SLM-7.0-4-17-06.0</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0007</t>
+          <t>FRC-SLM-7.0-4-17-07.0</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0008</t>
+          <t>FRC-SLM-7.0-4-17-08.0</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0009</t>
+          <t>FRC-SLM-7.0-4-17-09.0</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0010</t>
+          <t>FRC-SLM-7.0-4-17-10.0</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0011</t>
+          <t>FRC-SLM-7.0-4-17-11.0</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0012</t>
+          <t>FRC-SLM-7.0-4-17-12.0</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0013</t>
+          <t>FRC-SLM-7.0-4-17-13.0</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0014</t>
+          <t>FRC-SLM-7.0-4-17-14.0</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0015</t>
+          <t>FRC-SLM-7.0-4-17-15.0</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0016</t>
+          <t>FRC-SLM-7.0-4-17-16.0</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0017</t>
+          <t>FRC-SLM-7.0-4-18-17.0</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0018</t>
+          <t>FRC-SLM-7.0-4-17-18.0</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0019</t>
+          <t>FRC-SLM-7.0-4-17-19.0</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0020</t>
+          <t>FRC-SLM-7.0-4-17-20.0</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0021</t>
+          <t>FRC-SLM-7.0-4-17-21.0</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0022</t>
+          <t>FRC-SLM-7.0-4-17-22.0</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0023</t>
+          <t>FRC-SLM-7.0-4-17-23.0</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0024</t>
+          <t>FRC-SLM-7.0-4-17-24.0</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0025</t>
+          <t>FRC-SLM-7.0-4-17-25.0</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0026</t>
+          <t>FRC-SLM-7.0-4-17-26.0</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0027</t>
+          <t>FRC-SLM-7.0-4-17-27.0</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0028</t>
+          <t>FRC-SLM-7.0-4-17-28.0</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0029</t>
+          <t>FRC-SLM-7.0-4-17-29.0</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0030</t>
+          <t>FRC-SLM-7.0-4-17-30.0</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0031</t>
+          <t>FRC-SLM-7.0-4-17-31.0</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0032</t>
+          <t>FRC-SLM-7.0-4-18-32.0</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0033</t>
+          <t>FRC-SLM-7.0-4-18-33.0</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0034</t>
+          <t>FRC-SLM-7.0-4-18-34.0</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0035</t>
+          <t>FRC-SLM-7.0-4-18-35.0</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0036</t>
+          <t>FRC-SLM-7.0-4-18-36.0</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0037</t>
+          <t>FRC-SLM-7.0-4-17-37.0</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0038</t>
+          <t>FRC-SLM-7.0-4-18-38.0</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0039</t>
+          <t>FRC-SLM-7.0-4-18-39.0</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0040</t>
+          <t>FRC-SLM-7.0-4-18-40.0</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0041</t>
+          <t>FRC-SLM-7.0-4-18-41.0</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0042</t>
+          <t>FRC-SLM-7.0-4-17-42.0</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0043</t>
+          <t>FRC-SLM-7.0-4-18-43.0</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0044</t>
+          <t>FRC-SLM-7.0-4-18-44.0</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0045</t>
+          <t>FRC-SLM-7.0-4-18-45.0</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0046</t>
+          <t>FRC-SLM-7.0-4-18-46.0</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0047</t>
+          <t>FRC-SLM-7.0-4-17-47.0</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0048</t>
+          <t>FRC-SLM-7.0-4-17-48.0</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0049</t>
+          <t>FRC-SLM-7.0-4-18-49.0</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0050</t>
+          <t>FRC-SLM-7.0-4-17-50.0</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0051</t>
+          <t>FRC-SLM-7.0-4-18-51.0</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0052</t>
+          <t>FRC-SLM-7.0-4-17-52.0</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0053</t>
+          <t>FRC-SLM-7.0-4-17-53.0</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0054</t>
+          <t>FRC-SLM-7.0-4-18-54.0</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0055</t>
+          <t>FRC-SLM-7.0-4-18-55.0</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0056</t>
+          <t>FRC-SLM-7.0-4-18-56.0</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0057</t>
+          <t>FRC-SLM-7.0-4-18-57.0</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0058</t>
+          <t>FRC-SLM-7.0-4-18-58.0</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0059</t>
+          <t>FRC-SLM-7.0-4-18-59.0</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0060</t>
+          <t>FRC-SLM-7.0-4-18-60.0</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0061</t>
+          <t>FRC-SLM-7.0-4-18-61.0</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0062</t>
+          <t>FRC-SLM-7.0-4-18-62.0</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0063</t>
+          <t>FRC-SLM-7.0-4-18-63.0</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0064</t>
+          <t>FRC-SLM-7.0-4-18-64.0</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0065</t>
+          <t>FRC-SLM-7.0-4-18-65.0</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0066</t>
+          <t>FRC-SLM-7.0-4-18-66.0</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0067</t>
+          <t>FRC-SLM-7.0-4-18-67.0</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0068</t>
+          <t>FRC-SLM-7.0-4-18-68.0</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0069</t>
+          <t>FRC-SLM-7.0-4-18-69.0</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0070</t>
+          <t>FRC-SLM-7.0-4-18-70.0</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0071</t>
+          <t>FRC-SLM-7.0-4-18-71.0</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0072</t>
+          <t>FRC-SLM-7.0-4-18-72.0</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0073</t>
+          <t>FRC-SLM-7.0-4-18-73.0</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0074</t>
+          <t>FRC-SLM-7.0-4-18-74.0</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0075</t>
+          <t>FRC-SLM-7.0-4-18-75.0</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0076</t>
+          <t>FRC-SLM-7.0-4-18-76.0</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0077</t>
+          <t>FRC-SLM-7.0-4-19-77.0</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0078</t>
+          <t>FRC-SLM-7.0-4-18-78.0</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0079</t>
+          <t>FRC-SLM-7.0-4-18-79.0</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0080</t>
+          <t>FRC-SLM-7.0-4-18-80.0</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0081</t>
+          <t>FRC-SLM-7.0-4-18-81.0</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0082</t>
+          <t>FRC-SLM-7.0-4-18-82.0</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0083</t>
+          <t>FRC-SLM-7.0-4-18-83.0</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0084</t>
+          <t>FRC-SLM-7.0-4-18-84.0</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0085</t>
+          <t>FRC-SLM-7.0-4-18-85.0</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0086</t>
+          <t>FRC-SLM-7.0-4-18-86.0</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0087</t>
+          <t>FRC-SLM-7.0-4-18-87.0</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0088</t>
+          <t>FRC-SLM-7.0-4-18-88.0</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0089</t>
+          <t>FRC-SLM-7.0-4-18-89.0</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0090</t>
+          <t>FRC-SLM-7.0-4-18-90.0</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0091</t>
+          <t>FRC-SLM-7.0-4-18-91.0</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0092</t>
+          <t>FRC-SLM-7.0-4-18-92.0</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0093</t>
+          <t>FRC-SLM-7.0-4-18-93.0</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0094</t>
+          <t>FRC-SLM-7.0-4-19-94.0</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0095</t>
+          <t>FRC-SLM-7.0-4-18-95.0</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0096</t>
+          <t>FRC-SLM-7.0-4-19-96.0</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-19-0097</t>
+          <t>FRC-SLM-7.0-4-19-97.0</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-19-0098</t>
+          <t>FRC-SLM-7.0-4-19-98.0</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-19-0099</t>
+          <t>FRC-SLM-7.0-4-19-99.0</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0100</t>
+          <t>FRC-SLM-7.0-4-19-100.0</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0101</t>
+          <t>FRC-SLM-7.0-4-19-101.0</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0102</t>
+          <t>FRC-SLM-7.0-4-19-102.0</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0103</t>
+          <t>FRC-SLM-7.0-4-19-103.0</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0104</t>
+          <t>FRC-SLM-7.0-4-19-104.0</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0105</t>
+          <t>FRC-SLM-7.0-4-19-105.0</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0106</t>
+          <t>FRC-SLM-7.0-4-18-106.0</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0107</t>
+          <t>FRC-SLM-7.0-4-19-107.0</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0108</t>
+          <t>FRC-SLM-7.0-4-19-108.0</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0109</t>
+          <t>FRC-SLM-7.0-4-19-109.0</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0110</t>
+          <t>FRC-SLM-7.0-4-19-110.0</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0111</t>
+          <t>FRC-SLM-7.0-4-19-111.0</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0112</t>
+          <t>FRC-SLM-7.0-4-20-112.0</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0113</t>
+          <t>FRC-SLM-7.0-4-19-113.0</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0114</t>
+          <t>FRC-SLM-7.0-4-19-114.0</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0115</t>
+          <t>FRC-SLM-7.0-4-19-115.0</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0116</t>
+          <t>FRC-SLM-7.0-4-19-116.0</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0117</t>
+          <t>FRC-SLM-7.0-4-19-117.0</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0118</t>
+          <t>FRC-SLM-7.0-4-19-118.0</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0119</t>
+          <t>FRC-SLM-7.0-4-19-119.0</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0120</t>
+          <t>FRC-SLM-7.0-4-19-120.0</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0121</t>
+          <t>FRC-SLM-7.0-4-19-121.0</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0122</t>
+          <t>FRC-SLM-7.0-4-19-122.0</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0123</t>
+          <t>FRC-SLM-7.0-4-19-123.0</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0124</t>
+          <t>FRC-SLM-7.0-4-19-124.0</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0125</t>
+          <t>FRC-SLM-7.0-4-19-125.0</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0126</t>
+          <t>FRC-SLM-7.0-4-20-126.0</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0127</t>
+          <t>FRC-SLM-7.0-4-20-127.0</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0128</t>
+          <t>FRC-SLM-7.0-4-20-128.0</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0129</t>
+          <t>FRC-SLM-7.0-4-20-129.0</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0130</t>
+          <t>FRC-SLM-7.0-4-20-130.0</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0131</t>
+          <t>FRC-SLM-7.0-4-20-131.0</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0132</t>
+          <t>FRC-SLM-7.0-4-20-132.0</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0133</t>
+          <t>FRC-SLM-7.0-4-20-133.0</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0134</t>
+          <t>FRC-SLM-7.0-4-21-134.0</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0135</t>
+          <t>FRC-SLM-7.0-4-21-135.0</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0136</t>
+          <t>FRC-SLM-7.0-4-21-136.0</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0137</t>
+          <t>FRC-SLM-7.0-4-21-137.0</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0138</t>
+          <t>FRC-SLM-7.0-4-21-138.0</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0139</t>
+          <t>FRC-SLM-7.0-4-21-139.0</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0140</t>
+          <t>FRC-SLM-7.0-4-21-140.0</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0141</t>
+          <t>FRC-SLM-7.0-4-21-141.0</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0142</t>
+          <t>FRC-SLM-7.0-4-21-142.0</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0143</t>
+          <t>FRC-SLM-7.0-4-21-143.0</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0144</t>
+          <t>FRC-SLM-7.0-4-21-144.0</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-22-0145</t>
+          <t>FRC-SLM-7.0-4-22-145.0</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0146</t>
+          <t>FRC-SLM-7.0-4-22-146.0</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0147</t>
+          <t>FRC-SLM-7.0-4-22-147.0</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-22-0148</t>
+          <t>FRC-SLM-7.0-4-22-148.0</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0149</t>
+          <t>FRC-SLM-7.0-4-22-149.0</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-22-0150</t>
+          <t>FRC-SLM-7.0-4-22-150.0</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0152</t>
+          <t>FRC-SLM-7.0-n-22-152.0</t>
         </is>
       </c>
       <c r="I152" t="n">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0153</t>
+          <t>FRC-SLM-7.0-n-22-153.0</t>
         </is>
       </c>
       <c r="I153" t="n">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0154</t>
+          <t>FRC-SLM-7.0-n-22-154.0</t>
         </is>
       </c>
       <c r="I154" t="n">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0155</t>
+          <t>FRC-SLM-7.0-n-22-155.0</t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0156</t>
+          <t>FRC-SLM-7.0-n-22-156.0</t>
         </is>
       </c>
       <c r="I156" t="n">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0157</t>
+          <t>FRC-SLM-7.0-n-22-157.0</t>
         </is>
       </c>
       <c r="I157" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0158</t>
+          <t>FRC-SLM-7.0-n-22-158.0</t>
         </is>
       </c>
       <c r="I158" t="n">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0159</t>
+          <t>FRC-SLM-7.0-n-22-159.0</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0160</t>
+          <t>FRC-SLM-7.0-n-22-160.0</t>
         </is>
       </c>
       <c r="I160" t="n">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0161</t>
+          <t>FRC-SLM-7.0-n-22-161.0</t>
         </is>
       </c>
       <c r="I161" t="n">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0162</t>
+          <t>FRC-SLM-7.0-n-22-162.0</t>
         </is>
       </c>
       <c r="I162" t="n">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0163</t>
+          <t>FRC-SLM-7.0-n-22-163.0</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0164</t>
+          <t>FRC-SLM-7.0-n-22-164.0</t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0165</t>
+          <t>FRC-SLM-7.0-n-22-165.0</t>
         </is>
       </c>
       <c r="I165" t="n">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0166</t>
+          <t>FRC-SLM-7.0-n-22-166.0</t>
         </is>
       </c>
       <c r="I166" t="n">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0167</t>
+          <t>FRC-SLM-7.0-n-22-167.0</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0168</t>
+          <t>FRC-SLM-7.0-n-22-168.0</t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0169</t>
+          <t>FRC-SLM-7.0-n-22-169.0</t>
         </is>
       </c>
       <c r="I169" t="n">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0170</t>
+          <t>FRC-SLM-7.0-n-22-170.0</t>
         </is>
       </c>
       <c r="I170" t="n">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0171</t>
+          <t>FRC-SLM-7.0-n-22-171.0</t>
         </is>
       </c>
       <c r="I171" t="n">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0172</t>
+          <t>FRC-SLM-7.0-n-22-172.0</t>
         </is>
       </c>
       <c r="I172" t="n">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0173</t>
+          <t>FRC-SLM-7.0-n-22-173.0</t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0174</t>
+          <t>FRC-SLM-7.0-n-22-174.0</t>
         </is>
       </c>
       <c r="I174" t="n">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0175</t>
+          <t>FRC-SLM-7.0-n-22-175.0</t>
         </is>
       </c>
       <c r="I175" t="n">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0176</t>
+          <t>FRC-SLM-7.0-n-22-176.0</t>
         </is>
       </c>
       <c r="I176" t="n">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0177</t>
+          <t>FRC-SLM-7.0-n-22-177.0</t>
         </is>
       </c>
       <c r="I177" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0178</t>
+          <t>FRC-SLM-7.0-n-22-178.0</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0179</t>
+          <t>FRC-SLM-7.0-n-22-179.0</t>
         </is>
       </c>
       <c r="I179" t="n">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0180</t>
+          <t>FRC-SLM-7.0-n-22-180.0</t>
         </is>
       </c>
       <c r="I180" t="n">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0181</t>
+          <t>FRC-SLM-7.0-n-22-181.0</t>
         </is>
       </c>
       <c r="I181" t="n">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0182</t>
+          <t>FRC-SLM-7.0-n-22-182.0</t>
         </is>
       </c>
       <c r="I182" t="n">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0183</t>
+          <t>FRC-SLM-7.0-n-22-183.0</t>
         </is>
       </c>
       <c r="I183" t="n">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0184</t>
+          <t>FRC-SLM-7.0-n-22-184.0</t>
         </is>
       </c>
       <c r="I184" t="n">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0185</t>
+          <t>FRC-SLM-7.0-n-22-185.0</t>
         </is>
       </c>
       <c r="I185" t="n">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0186</t>
+          <t>FRC-SLM-7.0-n-22-186.0</t>
         </is>
       </c>
       <c r="I186" t="n">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0187</t>
+          <t>FRC-SLM-7.0-n-22-187.0</t>
         </is>
       </c>
       <c r="I187" t="n">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0188</t>
+          <t>FRC-SLM-7.0-n-22-188.0</t>
         </is>
       </c>
       <c r="I188" t="n">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0189</t>
+          <t>FRC-SLM-7.0-n-22-189.0</t>
         </is>
       </c>
       <c r="I189" t="n">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0190</t>
+          <t>FRC-SLM-7.0-n-22-190.0</t>
         </is>
       </c>
       <c r="I190" t="n">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0191</t>
+          <t>FRC-SLM-7.0-n-22-191.0</t>
         </is>
       </c>
       <c r="I191" t="n">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0192</t>
+          <t>FRC-SLM-7.0-n-22-192.0</t>
         </is>
       </c>
       <c r="I192" t="n">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0193</t>
+          <t>FRC-SLM-7.0-n-22-193.0</t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0194</t>
+          <t>FRC-SLM-7.0-n-22-194.0</t>
         </is>
       </c>
       <c r="I194" t="n">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0195</t>
+          <t>FRC-SLM-7.0-n-22-195.0</t>
         </is>
       </c>
       <c r="I195" t="n">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0196</t>
+          <t>FRC-SLM-7.0-n-22-196.0</t>
         </is>
       </c>
       <c r="I196" t="n">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-22-0197</t>
+          <t>FRC-SLM-7.0-n-22-197.0</t>
         </is>
       </c>
       <c r="I197" t="n">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0198</t>
+          <t>FRC-SLM-7.0-n-22-198.0</t>
         </is>
       </c>
       <c r="I198" t="n">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0199</t>
+          <t>FRC-SLM-7.0-n-22-199.0</t>
         </is>
       </c>
       <c r="I199" t="n">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0200</t>
+          <t>FRC-SLM-7.0-n-22-200.0</t>
         </is>
       </c>
       <c r="I200" t="n">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0201</t>
+          <t>FRC-SLM-7.0-n-22-201.0</t>
         </is>
       </c>
       <c r="I201" t="n">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0202</t>
+          <t>FRC-SLM-7.0-n-22-202.0</t>
         </is>
       </c>
       <c r="I202" t="n">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0203</t>
+          <t>FRC-SLM-7.0-n-22-203.0</t>
         </is>
       </c>
       <c r="I203" t="n">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0204</t>
+          <t>FRC-SLM-7.0-n-22-204.0</t>
         </is>
       </c>
       <c r="I204" t="n">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0205</t>
+          <t>FRC-SLM-7.0-n-22-205.0</t>
         </is>
       </c>
       <c r="I205" t="n">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0206</t>
+          <t>FRC-SLM-7.0-n-22-206.0</t>
         </is>
       </c>
       <c r="I206" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0207</t>
+          <t>FRC-SLM-7.0-n-22-207.0</t>
         </is>
       </c>
       <c r="I207" t="n">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0208</t>
+          <t>FRC-SLM-7.0-n-22-208.0</t>
         </is>
       </c>
       <c r="I208" t="n">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0209</t>
+          <t>FRC-SLM-7.0-n-22-209.0</t>
         </is>
       </c>
       <c r="I209" t="n">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0210</t>
+          <t>FRC-SLM-7.0-n-22-210.0</t>
         </is>
       </c>
       <c r="I210" t="n">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0211</t>
+          <t>FRC-SLM-7.0-n-22-211.0</t>
         </is>
       </c>
       <c r="I211" t="n">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0212</t>
+          <t>FRC-SLM-7.0-n-22-212.0</t>
         </is>
       </c>
       <c r="I212" t="n">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0213</t>
+          <t>FRC-SLM-7.0-n-22-213.0</t>
         </is>
       </c>
       <c r="I213" t="n">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0214</t>
+          <t>FRC-SLM-7.0-n-22-214.0</t>
         </is>
       </c>
       <c r="I214" t="n">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0215</t>
+          <t>FRC-SLM-7.0-n-22-215.0</t>
         </is>
       </c>
       <c r="I215" t="n">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0216</t>
+          <t>FRC-SLM-7.0-n-22-216.0</t>
         </is>
       </c>
       <c r="I216" t="n">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0217</t>
+          <t>FRC-SLM-7.0-n-22-217.0</t>
         </is>
       </c>
       <c r="I217" t="n">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0218</t>
+          <t>FRC-SLM-7.0-n-22-218.0</t>
         </is>
       </c>
       <c r="I218" t="n">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0219</t>
+          <t>FRC-SLM-7.0-n-22-219.0</t>
         </is>
       </c>
       <c r="I219" t="n">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0220</t>
+          <t>FRC-SLM-7.0-n-22-220.0</t>
         </is>
       </c>
       <c r="I220" t="n">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0221</t>
+          <t>FRC-SLM-7.0-n-22-221.0</t>
         </is>
       </c>
       <c r="I221" t="n">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0222</t>
+          <t>FRC-SLM-7.0-n-22-222.0</t>
         </is>
       </c>
       <c r="I222" t="n">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0223</t>
+          <t>FRC-SLM-7.0-n-22-223.0</t>
         </is>
       </c>
       <c r="I223" t="n">
@@ -12160,7 +12160,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0224</t>
+          <t>FRC-SLM-7.0-n-22-224.0</t>
         </is>
       </c>
       <c r="I224" t="n">
@@ -12211,7 +12211,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0225</t>
+          <t>FRC-SLM-7.0-n-22-225.0</t>
         </is>
       </c>
       <c r="I225" t="n">
@@ -12262,7 +12262,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0226</t>
+          <t>FRC-SLM-7.0-n-22-226.0</t>
         </is>
       </c>
       <c r="I226" t="n">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0227</t>
+          <t>FRC-SLM-7.0-n-22-227.0</t>
         </is>
       </c>
       <c r="I227" t="n">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0228</t>
+          <t>FRC-SLM-7.0-n-22-228.0</t>
         </is>
       </c>
       <c r="I228" t="n">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0229</t>
+          <t>FRC-SLM-7.0-n-22-229.0</t>
         </is>
       </c>
       <c r="I229" t="n">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0230</t>
+          <t>FRC-SLM-7.0-n-22-230.0</t>
         </is>
       </c>
       <c r="I230" t="n">
@@ -12519,7 +12519,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0231</t>
+          <t>FRC-SLM-7.0-n-22-231.0</t>
         </is>
       </c>
       <c r="I231" t="n">
@@ -12570,7 +12570,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0232</t>
+          <t>FRC-SLM-7.0-n-22-232.0</t>
         </is>
       </c>
       <c r="I232" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0233</t>
+          <t>FRC-SLM-7.0-n-22-233.0</t>
         </is>
       </c>
       <c r="I233" t="n">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0234</t>
+          <t>FRC-SLM-7.0-n-22-234.0</t>
         </is>
       </c>
       <c r="I234" t="n">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0235</t>
+          <t>FRC-SLM-7.0-n-22-235.0</t>
         </is>
       </c>
       <c r="I235" t="n">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-22-0236</t>
+          <t>FRC-SLM-7.0-n-22-236.0</t>
         </is>
       </c>
       <c r="I236" t="n">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-22-0237</t>
+          <t>FRC-SLM-7.0-n-22-237.0</t>
         </is>
       </c>
       <c r="I237" t="n">
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-22-0238</t>
+          <t>FRC-SLM-7.0-n-22-238.0</t>
         </is>
       </c>
       <c r="I238" t="n">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-22-0239</t>
+          <t>FRC-SLM-7.0-n-22-239.0</t>
         </is>
       </c>
       <c r="I239" t="n">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-22-0240</t>
+          <t>FRC-SLM-7.0-n-22-240.0</t>
         </is>
       </c>
       <c r="I240" t="n">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-22-0241</t>
+          <t>FRC-SLM-7.0-n-22-241.0</t>
         </is>
       </c>
       <c r="I241" t="n">
@@ -13080,7 +13080,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0242</t>
+          <t>FRC-SLM-7.0-n-22-242.0</t>
         </is>
       </c>
       <c r="I242" t="n">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0243</t>
+          <t>FRC-SLM-7.0-n-22-243.0</t>
         </is>
       </c>
       <c r="I243" t="n">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0244</t>
+          <t>FRC-SLM-7.0-n-22-244.0</t>
         </is>
       </c>
       <c r="I244" t="n">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0245</t>
+          <t>FRC-SLM-7.0-n-22-245.0</t>
         </is>
       </c>
       <c r="I245" t="n">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0246</t>
+          <t>FRC-SLM-7.0-n-22-246.0</t>
         </is>
       </c>
       <c r="I246" t="n">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0247</t>
+          <t>FRC-SLM-7.0-n-22-247.0</t>
         </is>
       </c>
       <c r="I247" t="n">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0248</t>
+          <t>FRC-SLM-7.0-n-22-248.0</t>
         </is>
       </c>
       <c r="I248" t="n">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0249</t>
+          <t>FRC-SLM-7.0-n-22-249.0</t>
         </is>
       </c>
       <c r="I249" t="n">
@@ -13488,7 +13488,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0250</t>
+          <t>FRC-SLM-7.0-n-22-250.0</t>
         </is>
       </c>
       <c r="I250" t="n">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0251</t>
+          <t>FRC-SLM-7.0-n-22-251.0</t>
         </is>
       </c>
       <c r="I251" t="n">
@@ -13590,7 +13590,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0252</t>
+          <t>FRC-SLM-7.0-n-22-252.0</t>
         </is>
       </c>
       <c r="I252" t="n">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0253</t>
+          <t>FRC-SLM-7.0-n-22-253.0</t>
         </is>
       </c>
       <c r="I253" t="n">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0254</t>
+          <t>FRC-SLM-7.0-n-22-254.0</t>
         </is>
       </c>
       <c r="I254" t="n">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0255</t>
+          <t>FRC-SLM-7.0-n-22-255.0</t>
         </is>
       </c>
       <c r="I255" t="n">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0256</t>
+          <t>FRC-SLM-7.0-n-22-256.0</t>
         </is>
       </c>
       <c r="I256" t="n">
@@ -13845,7 +13845,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0257</t>
+          <t>FRC-SLM-7.0-n-22-257.0</t>
         </is>
       </c>
       <c r="I257" t="n">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0258</t>
+          <t>FRC-SLM-7.0-n-22-258.0</t>
         </is>
       </c>
       <c r="I258" t="n">
@@ -13947,7 +13947,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0259</t>
+          <t>FRC-SLM-7.0-n-22-259.0</t>
         </is>
       </c>
       <c r="I259" t="n">
@@ -13998,7 +13998,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0260</t>
+          <t>FRC-SLM-7.0-n-22-260.0</t>
         </is>
       </c>
       <c r="I260" t="n">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0261</t>
+          <t>FRC-SLM-7.0-n-22-261.0</t>
         </is>
       </c>
       <c r="I261" t="n">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0262</t>
+          <t>FRC-SLM-7.0-n-22-262.0</t>
         </is>
       </c>
       <c r="I262" t="n">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0263</t>
+          <t>FRC-SLM-7.0-n-22-263.0</t>
         </is>
       </c>
       <c r="I263" t="n">
@@ -14202,7 +14202,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0264</t>
+          <t>FRC-SLM-7.0-n-22-264.0</t>
         </is>
       </c>
       <c r="I264" t="n">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0265</t>
+          <t>FRC-SLM-7.0-n-22-265.0</t>
         </is>
       </c>
       <c r="I265" t="n">
@@ -14304,7 +14304,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0266</t>
+          <t>FRC-SLM-7.0-n-22-266.0</t>
         </is>
       </c>
       <c r="I266" t="n">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0267</t>
+          <t>FRC-SLM-7.0-n-22-267.0</t>
         </is>
       </c>
       <c r="I267" t="n">
@@ -14406,7 +14406,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0268</t>
+          <t>FRC-SLM-7.0-n-22-268.0</t>
         </is>
       </c>
       <c r="I268" t="n">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0269</t>
+          <t>FRC-SLM-7.0-n-22-269.0</t>
         </is>
       </c>
       <c r="I269" t="n">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0270</t>
+          <t>FRC-SLM-7.0-n-22-270.0</t>
         </is>
       </c>
       <c r="I270" t="n">
@@ -14559,7 +14559,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0271</t>
+          <t>FRC-SLM-7.0-n-22-271.0</t>
         </is>
       </c>
       <c r="I271" t="n">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0272</t>
+          <t>FRC-SLM-7.0-n-22-272.0</t>
         </is>
       </c>
       <c r="I272" t="n">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0273</t>
+          <t>FRC-SLM-7.0-n-22-273.0</t>
         </is>
       </c>
       <c r="I273" t="n">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-22-0274</t>
+          <t>FRC-SLM-7.0-n-22-274.0</t>
         </is>
       </c>
       <c r="I274" t="n">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0275</t>
+          <t>FRC-SLM-7.0-n-22-275.0</t>
         </is>
       </c>
       <c r="I275" t="n">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0276</t>
+          <t>FRC-SLM-7.0-n-22-276.0</t>
         </is>
       </c>
       <c r="I276" t="n">
@@ -14865,7 +14865,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0277</t>
+          <t>FRC-SLM-7.0-n-22-277.0</t>
         </is>
       </c>
       <c r="I277" t="n">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0278</t>
+          <t>FRC-SLM-7.0-n-22-278.0</t>
         </is>
       </c>
       <c r="I278" t="n">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0279</t>
+          <t>FRC-SLM-7.0-n-22-279.0</t>
         </is>
       </c>
       <c r="I279" t="n">
@@ -15018,7 +15018,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0280</t>
+          <t>FRC-SLM-7.0-n-22-280.0</t>
         </is>
       </c>
       <c r="I280" t="n">
@@ -15069,7 +15069,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0281</t>
+          <t>FRC-SLM-7.0-n-22-281.0</t>
         </is>
       </c>
       <c r="I281" t="n">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0282</t>
+          <t>FRC-SLM-7.0-n-22-282.0</t>
         </is>
       </c>
       <c r="I282" t="n">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0283</t>
+          <t>FRC-SLM-7.0-n-22-283.0</t>
         </is>
       </c>
       <c r="I283" t="n">
@@ -15224,7 +15224,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0284</t>
+          <t>FRC-SLM-7.0-n-22-284.0</t>
         </is>
       </c>
       <c r="I284" t="n">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0285</t>
+          <t>FRC-SLM-7.0-n-22-285.0</t>
         </is>
       </c>
       <c r="I285" t="n">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0286</t>
+          <t>FRC-SLM-7.0-n-22-286.0</t>
         </is>
       </c>
       <c r="I286" t="n">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0287</t>
+          <t>FRC-SLM-7.0-n-22-287.0</t>
         </is>
       </c>
       <c r="I287" t="n">
@@ -15434,7 +15434,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0288</t>
+          <t>FRC-SLM-7.0-n-22-288.0</t>
         </is>
       </c>
       <c r="I288" t="n">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0289</t>
+          <t>FRC-SLM-7.0-n-22-289.0</t>
         </is>
       </c>
       <c r="I289" t="n">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0290</t>
+          <t>FRC-SLM-7.0-n-22-290.0</t>
         </is>
       </c>
       <c r="I290" t="n">
@@ -15593,7 +15593,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0291</t>
+          <t>FRC-SLM-7.0-n-22-291.0</t>
         </is>
       </c>
       <c r="I291" t="n">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0292</t>
+          <t>FRC-SLM-7.0-n-22-292.0</t>
         </is>
       </c>
       <c r="I292" t="n">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0293</t>
+          <t>FRC-SLM-7.0-n-22-293.0</t>
         </is>
       </c>
       <c r="I293" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0294</t>
+          <t>FRC-SLM-7.0-n-22-294.0</t>
         </is>
       </c>
       <c r="I294" t="n">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0295</t>
+          <t>FRC-SLM-7.0-n-22-295.0</t>
         </is>
       </c>
       <c r="I295" t="n">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0296</t>
+          <t>FRC-SLM-7.0-n-22-296.0</t>
         </is>
       </c>
       <c r="I296" t="n">
@@ -15907,7 +15907,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0297</t>
+          <t>FRC-SLM-7.0-n-22-297.0</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0298</t>
+          <t>FRC-SLM-7.0-n-22-298.0</t>
         </is>
       </c>
       <c r="I298" t="n">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0299</t>
+          <t>FRC-SLM-7.0-n-22-299.0</t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0300</t>
+          <t>FRC-SLM-7.0-n-22-300.0</t>
         </is>
       </c>
       <c r="I300" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-22-0301</t>
+          <t>FRC-SLM-7.0-n-22-301.0</t>
         </is>
       </c>
       <c r="I301" t="n">

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-01.0</t>
+          <t>FRC-HQ-SLM-O-17-0001</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -587,7 +587,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-02.0</t>
+          <t>FRC-HQ-SLM-O-17-0002</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -640,7 +640,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-03.0</t>
+          <t>FRC-HQ-SLM-O-17-0003</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-04.0</t>
+          <t>FRC-HQ-SLM-O-17-0004</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-05.0</t>
+          <t>FRC-HQ-SLM-O-17-0005</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-06.0</t>
+          <t>FRC-HQ-SLM-O-17-0006</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-07.0</t>
+          <t>FRC-HQ-SLM-O-17-0007</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-08.0</t>
+          <t>FRC-HQ-SLM-O-17-0008</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-09.0</t>
+          <t>FRC-HQ-SLM-O-17-0009</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-10.0</t>
+          <t>FRC-HQ-SLM-C-17-0010</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-11.0</t>
+          <t>FRC-HQ-SLM-C-17-0011</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-12.0</t>
+          <t>FRC-HQ-SLM-O-17-0012</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-13.0</t>
+          <t>FRC-HQ-SLM-O-17-0013</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-14.0</t>
+          <t>FRC-HQ-SLM-F-17-0014</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-15.0</t>
+          <t>FRC-HQ-SLM-O-17-0015</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-16.0</t>
+          <t>FRC-HQ-SLM-O-17-0016</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-17.0</t>
+          <t>FRC-HQ-SLM-F-17-0017</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-18.0</t>
+          <t>FRC-HQ-SLM-O-17-0018</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-19.0</t>
+          <t>FRC-HQ-SLM-F-17-0019</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-20.0</t>
+          <t>FRC-HQ-SLM-F-17-0020</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-21.0</t>
+          <t>FRC-HQ-SLM-O-17-0021</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-22.0</t>
+          <t>FRC-HQ-SLM-O-17-0022</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-23.0</t>
+          <t>FRC-HQ-SLM-O-17-0023</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-24.0</t>
+          <t>FRC-HQ-SLM-F-17-0024</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-25.0</t>
+          <t>FRC-HQ-SLM-F-17-0025</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-26.0</t>
+          <t>FRC-HQ-SLM-F-17-0026</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-27.0</t>
+          <t>FRC-HQ-SLM-F-17-0027</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-28.0</t>
+          <t>FRC-HQ-SLM-O-17-0028</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-29.0</t>
+          <t>FRC-HQ-SLM-F-17-0029</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-30.0</t>
+          <t>FRC-HQ-SLM-F-17-0030</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-31.0</t>
+          <t>FRC-HQ-SLM-F-17-0031</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-32.0</t>
+          <t>FRC-HQ-SLM-O-17-0032</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-33.0</t>
+          <t>FRC-HQ-SLM-F-17-0033</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-34.0</t>
+          <t>FRC-HQ-SLM-O-17-0034</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-35.0</t>
+          <t>FRC-HQ-SLM-F-17-0035</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-36.0</t>
+          <t>FRC-HQ-SLM-O-17-0036</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-37.0</t>
+          <t>FRC-HQ-SLM-O-17-0037</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-38.0</t>
+          <t>FRC-HQ-SLM-O-17-0038</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-39.0</t>
+          <t>FRC-HQ-SLM-F-17-0039</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-40.0</t>
+          <t>FRC-HQ-SLM-F-17-0040</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-41.0</t>
+          <t>FRC-HQ-SLM-O-17-0041</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-42.0</t>
+          <t>FRC-HQ-SLM-F-17-0042</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-43.0</t>
+          <t>FRC-HQ-SLM-F-17-0043</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-44.0</t>
+          <t>FRC-HQ-SLM-F-17-0044</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-45.0</t>
+          <t>FRC-HQ-SLM-T-17-0045</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-46.0</t>
+          <t>FRC-HQ-SLM-T-17-0046</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-47.0</t>
+          <t>FRC-HQ-SLM-F-17-0047</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-48.0</t>
+          <t>FRC-HQ-SLM-O-17-0048</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-49.0</t>
+          <t>FRC-HQ-SLM-F-17-0049</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-50.0</t>
+          <t>FRC-HQ-SLM-O-17-0050</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-51.0</t>
+          <t>FRC-HQ-SLM-O-17-0051</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-52.0</t>
+          <t>FRC-HQ-SLM-F-17-0052</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-17-53.0</t>
+          <t>FRC-HQ-SLM-F-17-0053</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-54.0</t>
+          <t>FRC-HQ-SLM-F-18-0054</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-55.0</t>
+          <t>FRC-HQ-SLM-F-18-0055</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-56.0</t>
+          <t>FRC-HQ-SLM-F-18-0056</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-57.0</t>
+          <t>FRC-HQ-SLM-F-18-0057</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-58.0</t>
+          <t>FRC-HQ-SLM-F-18-0058</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-59.0</t>
+          <t>FRC-HQ-SLM-F-18-0059</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-60.0</t>
+          <t>FRC-HQ-SLM-C-18-0060</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-61.0</t>
+          <t>FRC-HQ-SLM-C-18-0061</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-62.0</t>
+          <t>FRC-HQ-SLM-O-18-0062</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-63.0</t>
+          <t>FRC-HQ-SLM-F-18-0063</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-64.0</t>
+          <t>FRC-HQ-SLM-F-18-0064</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-65.0</t>
+          <t>FRC-HQ-SLM-C-18-0065</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-66.0</t>
+          <t>FRC-HQ-SLM-C-18-0066</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-67.0</t>
+          <t>FRC-HQ-SLM-F-18-0067</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-68.0</t>
+          <t>FRC-HQ-SLM-F-18-0068</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-69.0</t>
+          <t>FRC-HQ-SLM-F-18-0069</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-70.0</t>
+          <t>FRC-HQ-SLM-F-18-0070</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-71.0</t>
+          <t>FRC-HQ-SLM-C-18-0071</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-72.0</t>
+          <t>FRC-HQ-SLM-F-18-0072</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-73.0</t>
+          <t>FRC-HQ-SLM-F-18-0073</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-74.0</t>
+          <t>FRC-HQ-SLM-F-18-0074</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-75.0</t>
+          <t>FRC-HQ-SLM-F-18-0075</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-76.0</t>
+          <t>FRC-HQ-SLM-T-18-0076</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-77.0</t>
+          <t>FRC-HQ-SLM-F-18-0077</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-78.0</t>
+          <t>FRC-HQ-SLM-F-18-0078</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-79.0</t>
+          <t>FRC-HQ-SLM-F-18-0079</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-80.0</t>
+          <t>FRC-HQ-SLM-C-18-0080</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-81.0</t>
+          <t>FRC-HQ-SLM-C-18-0081</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-82.0</t>
+          <t>FRC-HQ-SLM-C-18-0082</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-83.0</t>
+          <t>FRC-HQ-SLM-C-18-0083</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-84.0</t>
+          <t>FRC-HQ-SLM-O-18-0084</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-85.0</t>
+          <t>FRC-HQ-SLM-C-18-0085</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-86.0</t>
+          <t>FRC-HQ-SLM-C-18-0086</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-87.0</t>
+          <t>FRC-HQ-SLM-O-18-0087</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-88.0</t>
+          <t>FRC-HQ-SLM-C-18-0088</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-89.0</t>
+          <t>FRC-HQ-SLM-C-18-0089</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-90.0</t>
+          <t>FRC-HQ-SLM-C-18-0090</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-91.0</t>
+          <t>FRC-HQ-SLM-F-18-0091</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-92.0</t>
+          <t>FRC-HQ-SLM-F-18-0092</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-93.0</t>
+          <t>FRC-HQ-SLM-F-18-0093</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-94.0</t>
+          <t>FRC-HQ-SLM-O-18-0094</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-95.0</t>
+          <t>FRC-HQ-SLM-F-18-0095</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-96.0</t>
+          <t>FRC-HQ-SLM-O-18-0096</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-97.0</t>
+          <t>FRC-HQ-SLM-T-18-0097</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-98.0</t>
+          <t>FRC-HQ-SLM-M-18-0098</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-99.0</t>
+          <t>FRC-HQ-SLM-M-18-0099</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-100.0</t>
+          <t>FRC-HQ-SLM-O-18-0100</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-101.0</t>
+          <t>FRC-HQ-SLM-O-18-0101</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-102.0</t>
+          <t>FRC-HQ-SLM-O-18-0102</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-103.0</t>
+          <t>FRC-HQ-SLM-O-18-0103</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-104.0</t>
+          <t>FRC-HQ-SLM-O-18-0104</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-105.0</t>
+          <t>FRC-HQ-SLM-O-18-0105</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-106.0</t>
+          <t>FRC-HQ-SLM-O-18-0106</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-107.0</t>
+          <t>FRC-HQ-SLM-O-18-0107</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-108.0</t>
+          <t>FRC-HQ-SLM-O-18-0108</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-109.0</t>
+          <t>FRC-HQ-SLM-O-18-0109</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-18-110.0</t>
+          <t>FRC-HQ-SLM-F-18-0110</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-111.0</t>
+          <t>FRC-HQ-SLM-F-19-0111</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-112.0</t>
+          <t>FRC-HQ-SLM-F-19-0112</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-113.0</t>
+          <t>FRC-HQ-SLM-F-19-0113</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-114.0</t>
+          <t>FRC-HQ-SLM-F-19-0114</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-115.0</t>
+          <t>FRC-HQ-SLM-F-19-0115</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-116.0</t>
+          <t>FRC-HQ-SLM-O-19-0116</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-117.0</t>
+          <t>FRC-HQ-SLM-F-19-0117</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-118.0</t>
+          <t>FRC-HQ-SLM-F-19-0118</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-119.0</t>
+          <t>FRC-HQ-SLM-O-19-0119</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-120.0</t>
+          <t>FRC-HQ-SLM-O-19-0120</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-121.0</t>
+          <t>FRC-HQ-SLM-F-19-0121</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-122.0</t>
+          <t>FRC-HQ-SLM-C-19-0122</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-123.0</t>
+          <t>FRC-HQ-SLM-C-19-0123</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-124.0</t>
+          <t>FRC-HQ-SLM-C-19-0124</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-125.0</t>
+          <t>FRC-HQ-SLM-C-19-0125</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-126.0</t>
+          <t>FRC-HQ-SLM-F-19-0126</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-127.0</t>
+          <t>FRC-HQ-SLM-F-19-0127</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-19-128.0</t>
+          <t>FRC-HQ-SLM-F-19-0128</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-129.0</t>
+          <t>FRC-HQ-SLM-C-20-0129</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-130.0</t>
+          <t>FRC-HQ-SLM-C-20-0130</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-131.0</t>
+          <t>FRC-HQ-SLM-C-20-0131</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-132.0</t>
+          <t>FRC-HQ-SLM-C-20-0132</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-133.0</t>
+          <t>FRC-HQ-SLM-T-20-0133</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-134.0</t>
+          <t>FRC-HQ-SLM-C-20-0134</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-135.0</t>
+          <t>FRC-HQ-SLM-C-20-0135</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-136.0</t>
+          <t>FRC-HQ-SLM-C-20-0136</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-137.0</t>
+          <t>FRC-HQ-SLM-C-20-0137</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-138.0</t>
+          <t>FRC-HQ-SLM-F-20-0138</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-139.0</t>
+          <t>FRC-HQ-SLM-C-20-0139</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-140.0</t>
+          <t>FRC-HQ-SLM-F-20-0140</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-141.0</t>
+          <t>FRC-HQ-SLM-C-20-0141</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-20-142.0</t>
+          <t>FRC-HQ-SLM-C-20-0142</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-143.0</t>
+          <t>FRC-HQ-SLM-M-21-0143</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-144.0</t>
+          <t>FRC-HQ-SLM-M-21-0144</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-145.0</t>
+          <t>FRC-HQ-SLM-O-21-0145</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-146.0</t>
+          <t>FRC-HQ-SLM-C-21-0146</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-147.0</t>
+          <t>FRC-HQ-SLM-C-21-0147</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-148.0</t>
+          <t>FRC-HQ-SLM-M-21-0148</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-149.0</t>
+          <t>FRC-HQ-SLM-F-21-0149</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-150.0</t>
+          <t>FRC-HQ-SLM-O-21-0150</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-152.0</t>
+          <t>FRC-HQ-SLM-C-21-0152</t>
         </is>
       </c>
       <c r="I152" t="n">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-153.0</t>
+          <t>FRC-HQ-SLM-C-21-0153</t>
         </is>
       </c>
       <c r="I153" t="n">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-154.0</t>
+          <t>FRC-HQ-SLM-C-21-0154</t>
         </is>
       </c>
       <c r="I154" t="n">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-155.0</t>
+          <t>FRC-HQ-SLM-C-21-0155</t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-156.0</t>
+          <t>FRC-HQ-SLM-C-21-0156</t>
         </is>
       </c>
       <c r="I156" t="n">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-157.0</t>
+          <t>FRC-HQ-SLM-C-21-0157</t>
         </is>
       </c>
       <c r="I157" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-158.0</t>
+          <t>FRC-HQ-SLM-C-21-0158</t>
         </is>
       </c>
       <c r="I158" t="n">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-159.0</t>
+          <t>FRC-HQ-SLM-C-21-0159</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-160.0</t>
+          <t>FRC-HQ-SLM-C-21-0160</t>
         </is>
       </c>
       <c r="I160" t="n">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-161.0</t>
+          <t>FRC-HQ-SLM-C-21-0161</t>
         </is>
       </c>
       <c r="I161" t="n">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-162.0</t>
+          <t>FRC-HQ-SLM-I-21-0162</t>
         </is>
       </c>
       <c r="I162" t="n">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-163.0</t>
+          <t>FRC-HQ-SLM-I-21-0163</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-164.0</t>
+          <t>FRC-HQ-SLM-I-21-0164</t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-165.0</t>
+          <t>FRC-HQ-SLM-I-21-0165</t>
         </is>
       </c>
       <c r="I165" t="n">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-166.0</t>
+          <t>FRC-HQ-SLM-I-21-0166</t>
         </is>
       </c>
       <c r="I166" t="n">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-167.0</t>
+          <t>FRC-HQ-SLM-I-21-0167</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-168.0</t>
+          <t>FRC-HQ-SLM-I-21-0168</t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-169.0</t>
+          <t>FRC-HQ-SLM-I-21-0169</t>
         </is>
       </c>
       <c r="I169" t="n">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-170.0</t>
+          <t>FRC-HQ-SLM-I-21-0170</t>
         </is>
       </c>
       <c r="I170" t="n">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-171.0</t>
+          <t>FRC-HQ-SLM-I-21-0171</t>
         </is>
       </c>
       <c r="I171" t="n">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-172.0</t>
+          <t>FRC-HQ-SLM-I-21-0172</t>
         </is>
       </c>
       <c r="I172" t="n">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-173.0</t>
+          <t>FRC-HQ-SLM-S-21-0173</t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-174.0</t>
+          <t>FRC-HQ-SLM-S-21-0174</t>
         </is>
       </c>
       <c r="I174" t="n">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-175.0</t>
+          <t>FRC-HQ-SLM-S-21-0175</t>
         </is>
       </c>
       <c r="I175" t="n">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-176.0</t>
+          <t>FRC-HQ-SLM-S-21-0176</t>
         </is>
       </c>
       <c r="I176" t="n">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-177.0</t>
+          <t>FRC-HQ-SLM-S-21-0177</t>
         </is>
       </c>
       <c r="I177" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-178.0</t>
+          <t>FRC-HQ-SLM-S-21-0178</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-179.0</t>
+          <t>FRC-HQ-SLM-S-21-0179</t>
         </is>
       </c>
       <c r="I179" t="n">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-180.0</t>
+          <t>FRC-HQ-SLM-S-21-0180</t>
         </is>
       </c>
       <c r="I180" t="n">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-181.0</t>
+          <t>FRC-HQ-SLM-S-21-0181</t>
         </is>
       </c>
       <c r="I181" t="n">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-182.0</t>
+          <t>FRC-HQ-SLM-S-21-0182</t>
         </is>
       </c>
       <c r="I182" t="n">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-183.0</t>
+          <t>FRC-HQ-SLM-S-21-0183</t>
         </is>
       </c>
       <c r="I183" t="n">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-184.0</t>
+          <t>FRC-HQ-SLM-S-21-0184</t>
         </is>
       </c>
       <c r="I184" t="n">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-185.0</t>
+          <t>FRC-HQ-SLM-S-21-0185</t>
         </is>
       </c>
       <c r="I185" t="n">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-186.0</t>
+          <t>FRC-HQ-SLM-S-21-0186</t>
         </is>
       </c>
       <c r="I186" t="n">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-187.0</t>
+          <t>FRC-HQ-SLM-S-21-0187</t>
         </is>
       </c>
       <c r="I187" t="n">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-188.0</t>
+          <t>FRC-HQ-SLM-S-21-0188</t>
         </is>
       </c>
       <c r="I188" t="n">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-189.0</t>
+          <t>FRC-HQ-SLM-S-21-0189</t>
         </is>
       </c>
       <c r="I189" t="n">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-190.0</t>
+          <t>FRC-HQ-SLM-S-21-0190</t>
         </is>
       </c>
       <c r="I190" t="n">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-191.0</t>
+          <t>FRC-HQ-SLM-S-21-0191</t>
         </is>
       </c>
       <c r="I191" t="n">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-192.0</t>
+          <t>FRC-HQ-SLM-S-21-0192</t>
         </is>
       </c>
       <c r="I192" t="n">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-193.0</t>
+          <t>FRC-HQ-SLM-S-21-0193</t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-194.0</t>
+          <t>FRC-HQ-SLM-S-21-0194</t>
         </is>
       </c>
       <c r="I194" t="n">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-195.0</t>
+          <t>FRC-HQ-SLM-S-21-0195</t>
         </is>
       </c>
       <c r="I195" t="n">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-196.0</t>
+          <t>FRC-HQ-SLM-S-21-0196</t>
         </is>
       </c>
       <c r="I196" t="n">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-197.0</t>
+          <t>FRC-HQ-SLM-S-21-0197</t>
         </is>
       </c>
       <c r="I197" t="n">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-198.0</t>
+          <t>FRC-HQ-SLM-E-21-0198</t>
         </is>
       </c>
       <c r="I198" t="n">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-199.0</t>
+          <t>FRC-HQ-SLM-E-21-0199</t>
         </is>
       </c>
       <c r="I199" t="n">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-200.0</t>
+          <t>FRC-HQ-SLM-E-21-0200</t>
         </is>
       </c>
       <c r="I200" t="n">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-201.0</t>
+          <t>FRC-HQ-SLM-E-21-0201</t>
         </is>
       </c>
       <c r="I201" t="n">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-202.0</t>
+          <t>FRC-HQ-SLM-E-21-0202</t>
         </is>
       </c>
       <c r="I202" t="n">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-203.0</t>
+          <t>FRC-HQ-SLM-E-21-0203</t>
         </is>
       </c>
       <c r="I203" t="n">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-204.0</t>
+          <t>FRC-HQ-SLM-E-21-0204</t>
         </is>
       </c>
       <c r="I204" t="n">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-205.0</t>
+          <t>FRC-HQ-SLM-E-21-0205</t>
         </is>
       </c>
       <c r="I205" t="n">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-206.0</t>
+          <t>FRC-HQ-SLM-E-21-0206</t>
         </is>
       </c>
       <c r="I206" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-207.0</t>
+          <t>FRC-HQ-SLM-E-21-0207</t>
         </is>
       </c>
       <c r="I207" t="n">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-208.0</t>
+          <t>FRC-HQ-SLM-E-21-0208</t>
         </is>
       </c>
       <c r="I208" t="n">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-209.0</t>
+          <t>FRC-HQ-SLM-E-21-0209</t>
         </is>
       </c>
       <c r="I209" t="n">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-210.0</t>
+          <t>FRC-HQ-SLM-E-21-0210</t>
         </is>
       </c>
       <c r="I210" t="n">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-211.0</t>
+          <t>FRC-HQ-SLM-E-21-0211</t>
         </is>
       </c>
       <c r="I211" t="n">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-212.0</t>
+          <t>FRC-HQ-SLM-E-21-0212</t>
         </is>
       </c>
       <c r="I212" t="n">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-213.0</t>
+          <t>FRC-HQ-SLM-E-21-0213</t>
         </is>
       </c>
       <c r="I213" t="n">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-214.0</t>
+          <t>FRC-HQ-SLM-E-21-0214</t>
         </is>
       </c>
       <c r="I214" t="n">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-215.0</t>
+          <t>FRC-HQ-SLM-E-21-0215</t>
         </is>
       </c>
       <c r="I215" t="n">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-216.0</t>
+          <t>FRC-HQ-SLM-E-21-0216</t>
         </is>
       </c>
       <c r="I216" t="n">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-217.0</t>
+          <t>FRC-HQ-SLM-E-21-0217</t>
         </is>
       </c>
       <c r="I217" t="n">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-218.0</t>
+          <t>FRC-HQ-SLM-E-21-0218</t>
         </is>
       </c>
       <c r="I218" t="n">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-219.0</t>
+          <t>FRC-HQ-SLM-E-21-0219</t>
         </is>
       </c>
       <c r="I219" t="n">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-220.0</t>
+          <t>FRC-HQ-SLM-E-21-0220</t>
         </is>
       </c>
       <c r="I220" t="n">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-221.0</t>
+          <t>FRC-HQ-SLM-E-21-0221</t>
         </is>
       </c>
       <c r="I221" t="n">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-222.0</t>
+          <t>FRC-HQ-SLM-E-21-0222</t>
         </is>
       </c>
       <c r="I222" t="n">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-223.0</t>
+          <t>FRC-HQ-SLM-E-21-0223</t>
         </is>
       </c>
       <c r="I223" t="n">
@@ -12160,7 +12160,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-224.0</t>
+          <t>FRC-HQ-SLM-E-21-0224</t>
         </is>
       </c>
       <c r="I224" t="n">
@@ -12211,7 +12211,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-225.0</t>
+          <t>FRC-HQ-SLM-E-21-0225</t>
         </is>
       </c>
       <c r="I225" t="n">
@@ -12262,7 +12262,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-226.0</t>
+          <t>FRC-HQ-SLM-E-21-0226</t>
         </is>
       </c>
       <c r="I226" t="n">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-227.0</t>
+          <t>FRC-HQ-SLM-E-21-0227</t>
         </is>
       </c>
       <c r="I227" t="n">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-228.0</t>
+          <t>FRC-HQ-SLM-E-21-0228</t>
         </is>
       </c>
       <c r="I228" t="n">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-229.0</t>
+          <t>FRC-HQ-SLM-E-21-0229</t>
         </is>
       </c>
       <c r="I229" t="n">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-230.0</t>
+          <t>FRC-HQ-SLM-E-21-0230</t>
         </is>
       </c>
       <c r="I230" t="n">
@@ -12519,7 +12519,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-231.0</t>
+          <t>FRC-HQ-SLM-E-21-0231</t>
         </is>
       </c>
       <c r="I231" t="n">
@@ -12570,7 +12570,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-232.0</t>
+          <t>FRC-HQ-SLM-E-21-0232</t>
         </is>
       </c>
       <c r="I232" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-233.0</t>
+          <t>FRC-HQ-SLM-E-21-0233</t>
         </is>
       </c>
       <c r="I233" t="n">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-234.0</t>
+          <t>FRC-HQ-SLM-E-21-0234</t>
         </is>
       </c>
       <c r="I234" t="n">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-235.0</t>
+          <t>FRC-HQ-SLM-E-21-0235</t>
         </is>
       </c>
       <c r="I235" t="n">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-236.0</t>
+          <t>FRC-HQ-SLM-E-21-0236</t>
         </is>
       </c>
       <c r="I236" t="n">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-237.0</t>
+          <t>FRC-HQ-SLM-P-21-0237</t>
         </is>
       </c>
       <c r="I237" t="n">
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-238.0</t>
+          <t>FRC-HQ-SLM-P-21-0238</t>
         </is>
       </c>
       <c r="I238" t="n">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-239.0</t>
+          <t>FRC-HQ-SLM-P-21-0239</t>
         </is>
       </c>
       <c r="I239" t="n">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-240.0</t>
+          <t>FRC-HQ-SLM-P-21-0240</t>
         </is>
       </c>
       <c r="I240" t="n">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-241.0</t>
+          <t>FRC-HQ-SLM-P-21-0241</t>
         </is>
       </c>
       <c r="I241" t="n">
@@ -13080,7 +13080,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-242.0</t>
+          <t>FRC-HQ-SLM-I-21-0242</t>
         </is>
       </c>
       <c r="I242" t="n">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-243.0</t>
+          <t>FRC-HQ-SLM-I-21-0243</t>
         </is>
       </c>
       <c r="I243" t="n">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-244.0</t>
+          <t>FRC-HQ-SLM-I-21-0244</t>
         </is>
       </c>
       <c r="I244" t="n">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-245.0</t>
+          <t>FRC-HQ-SLM-I-21-0245</t>
         </is>
       </c>
       <c r="I245" t="n">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-246.0</t>
+          <t>FRC-HQ-SLM-I-21-0246</t>
         </is>
       </c>
       <c r="I246" t="n">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-247.0</t>
+          <t>FRC-HQ-SLM-I-21-0247</t>
         </is>
       </c>
       <c r="I247" t="n">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-248.0</t>
+          <t>FRC-HQ-SLM-I-21-0248</t>
         </is>
       </c>
       <c r="I248" t="n">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-249.0</t>
+          <t>FRC-HQ-SLM-I-21-0249</t>
         </is>
       </c>
       <c r="I249" t="n">
@@ -13488,7 +13488,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-250.0</t>
+          <t>FRC-HQ-SLM-I-21-0250</t>
         </is>
       </c>
       <c r="I250" t="n">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-251.0</t>
+          <t>FRC-HQ-SLM-I-21-0251</t>
         </is>
       </c>
       <c r="I251" t="n">
@@ -13590,7 +13590,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-252.0</t>
+          <t>FRC-HQ-SLM-I-21-0252</t>
         </is>
       </c>
       <c r="I252" t="n">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-253.0</t>
+          <t>FRC-HQ-SLM-I-21-0253</t>
         </is>
       </c>
       <c r="I253" t="n">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-254.0</t>
+          <t>FRC-HQ-SLM-I-21-0254</t>
         </is>
       </c>
       <c r="I254" t="n">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-255.0</t>
+          <t>FRC-HQ-SLM-I-21-0255</t>
         </is>
       </c>
       <c r="I255" t="n">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-256.0</t>
+          <t>FRC-HQ-SLM-I-21-0256</t>
         </is>
       </c>
       <c r="I256" t="n">
@@ -13845,7 +13845,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-257.0</t>
+          <t>FRC-HQ-SLM-I-21-0257</t>
         </is>
       </c>
       <c r="I257" t="n">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-258.0</t>
+          <t>FRC-HQ-SLM-I-21-0258</t>
         </is>
       </c>
       <c r="I258" t="n">
@@ -13947,7 +13947,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-259.0</t>
+          <t>FRC-HQ-SLM-I-21-0259</t>
         </is>
       </c>
       <c r="I259" t="n">
@@ -13998,7 +13998,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-260.0</t>
+          <t>FRC-HQ-SLM-I-21-0260</t>
         </is>
       </c>
       <c r="I260" t="n">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-261.0</t>
+          <t>FRC-HQ-SLM-I-21-0261</t>
         </is>
       </c>
       <c r="I261" t="n">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-262.0</t>
+          <t>FRC-HQ-SLM-I-21-0262</t>
         </is>
       </c>
       <c r="I262" t="n">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-263.0</t>
+          <t>FRC-HQ-SLM-I-21-0263</t>
         </is>
       </c>
       <c r="I263" t="n">
@@ -14202,7 +14202,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-264.0</t>
+          <t>FRC-HQ-SLM-I-21-0264</t>
         </is>
       </c>
       <c r="I264" t="n">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-265.0</t>
+          <t>FRC-HQ-SLM-I-21-0265</t>
         </is>
       </c>
       <c r="I265" t="n">
@@ -14304,7 +14304,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-266.0</t>
+          <t>FRC-HQ-SLM-I-21-0266</t>
         </is>
       </c>
       <c r="I266" t="n">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-267.0</t>
+          <t>FRC-HQ-SLM-I-21-0267</t>
         </is>
       </c>
       <c r="I267" t="n">
@@ -14406,7 +14406,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-268.0</t>
+          <t>FRC-HQ-SLM-I-21-0268</t>
         </is>
       </c>
       <c r="I268" t="n">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-269.0</t>
+          <t>FRC-HQ-SLM-I-21-0269</t>
         </is>
       </c>
       <c r="I269" t="n">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-270.0</t>
+          <t>FRC-HQ-SLM-I-21-0270</t>
         </is>
       </c>
       <c r="I270" t="n">
@@ -14559,7 +14559,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-271.0</t>
+          <t>FRC-HQ-SLM-I-21-0271</t>
         </is>
       </c>
       <c r="I271" t="n">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-272.0</t>
+          <t>FRC-HQ-SLM-I-21-0272</t>
         </is>
       </c>
       <c r="I272" t="n">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-273.0</t>
+          <t>FRC-HQ-SLM-I-21-0273</t>
         </is>
       </c>
       <c r="I273" t="n">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-274.0</t>
+          <t>FRC-HQ-SLM-I-21-0274</t>
         </is>
       </c>
       <c r="I274" t="n">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-275.0</t>
+          <t>FRC-HQ-SLM-F-21-0275</t>
         </is>
       </c>
       <c r="I275" t="n">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-276.0</t>
+          <t>FRC-HQ-SLM-F-21-0276</t>
         </is>
       </c>
       <c r="I276" t="n">
@@ -14865,7 +14865,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-277.0</t>
+          <t>FRC-HQ-SLM-F-21-0277</t>
         </is>
       </c>
       <c r="I277" t="n">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-278.0</t>
+          <t>FRC-HQ-SLM-F-21-0278</t>
         </is>
       </c>
       <c r="I278" t="n">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-279.0</t>
+          <t>FRC-HQ-SLM-F-21-0279</t>
         </is>
       </c>
       <c r="I279" t="n">
@@ -15018,7 +15018,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-280.0</t>
+          <t>FRC-HQ-SLM-F-21-0280</t>
         </is>
       </c>
       <c r="I280" t="n">
@@ -15069,7 +15069,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-281.0</t>
+          <t>FRC-HQ-SLM-F-21-0281</t>
         </is>
       </c>
       <c r="I281" t="n">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-282.0</t>
+          <t>FRC-HQ-SLM-F-21-0282</t>
         </is>
       </c>
       <c r="I282" t="n">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-283.0</t>
+          <t>FRC-HQ-SLM-F-21-0283</t>
         </is>
       </c>
       <c r="I283" t="n">
@@ -15224,7 +15224,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-284.0</t>
+          <t>FRC-HQ-SLM-F-21-0284</t>
         </is>
       </c>
       <c r="I284" t="n">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-285.0</t>
+          <t>FRC-HQ-SLM-F-21-0285</t>
         </is>
       </c>
       <c r="I285" t="n">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-286.0</t>
+          <t>FRC-HQ-SLM-F-21-0286</t>
         </is>
       </c>
       <c r="I286" t="n">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-287.0</t>
+          <t>FRC-HQ-SLM-F-21-0287</t>
         </is>
       </c>
       <c r="I287" t="n">
@@ -15434,7 +15434,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-288.0</t>
+          <t>FRC-HQ-SLM-F-21-0288</t>
         </is>
       </c>
       <c r="I288" t="n">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-289.0</t>
+          <t>FRC-HQ-SLM-F-21-0289</t>
         </is>
       </c>
       <c r="I289" t="n">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-290.0</t>
+          <t>FRC-HQ-SLM-F-21-0290</t>
         </is>
       </c>
       <c r="I290" t="n">
@@ -15593,7 +15593,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-291.0</t>
+          <t>FRC-HQ-SLM-F-21-0291</t>
         </is>
       </c>
       <c r="I291" t="n">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-292.0</t>
+          <t>FRC-HQ-SLM-F-21-0292</t>
         </is>
       </c>
       <c r="I292" t="n">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-293.0</t>
+          <t>FRC-HQ-SLM-F-21-0293</t>
         </is>
       </c>
       <c r="I293" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-294.0</t>
+          <t>FRC-HQ-SLM-F-21-0294</t>
         </is>
       </c>
       <c r="I294" t="n">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-295.0</t>
+          <t>FRC-HQ-SLM-F-21-0295</t>
         </is>
       </c>
       <c r="I295" t="n">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-296.0</t>
+          <t>FRC-HQ-SLM-F-21-0296</t>
         </is>
       </c>
       <c r="I296" t="n">
@@ -15907,7 +15907,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-297.0</t>
+          <t>FRC-HQ-SLM-F-21-0297</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-298.0</t>
+          <t>FRC-HQ-SLM-F-21-0298</t>
         </is>
       </c>
       <c r="I298" t="n">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-299.0</t>
+          <t>FRC-HQ-SLM-F-21-0299</t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-300.0</t>
+          <t>FRC-HQ-SLM-F-21-0300</t>
         </is>
       </c>
       <c r="I300" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-0-21-301.0</t>
+          <t>FRC-HQ-SLM-F-21-0301</t>
         </is>
       </c>
       <c r="I301" t="n">

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -476,27 +476,27 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Book Value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fair value less cost to sale</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Value in use</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Recoverable Value</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Accumulated Impairment</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Book Value</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Fair value less cost to sale</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Value in use</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Recoverable Value</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N301"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,9 @@
           <t>2024-2025</t>
         </is>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -560,6 +563,9 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -616,6 +622,9 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -672,6 +681,9 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -728,6 +740,9 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -784,6 +799,9 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -840,6 +858,9 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -896,6 +917,9 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -950,6 +974,9 @@
       <c r="N9" t="n">
         <v>0</v>
       </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1004,6 +1031,9 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1058,6 +1088,9 @@
       <c r="N11" t="n">
         <v>0</v>
       </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1112,6 +1145,9 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1166,6 +1202,9 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1222,6 +1261,9 @@
       <c r="N14" t="n">
         <v>0</v>
       </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1278,6 +1320,9 @@
       <c r="N15" t="n">
         <v>0</v>
       </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1334,6 +1379,9 @@
       <c r="N16" t="n">
         <v>0</v>
       </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1388,6 +1436,9 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1444,6 +1495,9 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1500,6 +1554,9 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1556,6 +1613,9 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1612,6 +1672,9 @@
       <c r="N21" t="n">
         <v>0</v>
       </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1666,6 +1729,9 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1720,6 +1786,9 @@
       <c r="N23" t="n">
         <v>0</v>
       </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1774,6 +1843,9 @@
       <c r="N24" t="n">
         <v>0</v>
       </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1830,6 +1902,9 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1886,6 +1961,9 @@
       <c r="N26" t="n">
         <v>0</v>
       </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1942,6 +2020,9 @@
       <c r="N27" t="n">
         <v>0</v>
       </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1998,6 +2079,9 @@
       <c r="N28" t="n">
         <v>0</v>
       </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2054,6 +2138,9 @@
       <c r="N29" t="n">
         <v>0</v>
       </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2110,6 +2197,9 @@
       <c r="N30" t="n">
         <v>0</v>
       </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2166,6 +2256,9 @@
       <c r="N31" t="n">
         <v>0</v>
       </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2222,6 +2315,9 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2278,6 +2374,9 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2334,6 +2433,9 @@
       <c r="N34" t="n">
         <v>0</v>
       </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2388,6 +2490,9 @@
       <c r="N35" t="n">
         <v>0</v>
       </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2444,6 +2549,9 @@
       <c r="N36" t="n">
         <v>0</v>
       </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2498,6 +2606,9 @@
       <c r="N37" t="n">
         <v>0</v>
       </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2554,6 +2665,9 @@
       <c r="N38" t="n">
         <v>0</v>
       </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2610,6 +2724,9 @@
       <c r="N39" t="n">
         <v>0</v>
       </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2666,6 +2783,9 @@
       <c r="N40" t="n">
         <v>0</v>
       </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2722,6 +2842,9 @@
       <c r="N41" t="n">
         <v>0</v>
       </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2776,6 +2899,9 @@
       <c r="N42" t="n">
         <v>0</v>
       </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2832,6 +2958,9 @@
       <c r="N43" t="n">
         <v>0</v>
       </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2888,6 +3017,9 @@
       <c r="N44" t="n">
         <v>0</v>
       </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2944,6 +3076,9 @@
       <c r="N45" t="n">
         <v>0</v>
       </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2998,6 +3133,9 @@
       <c r="N46" t="n">
         <v>0</v>
       </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3052,6 +3190,9 @@
       <c r="N47" t="n">
         <v>0</v>
       </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3108,6 +3249,9 @@
       <c r="N48" t="n">
         <v>0</v>
       </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3164,6 +3308,9 @@
       <c r="N49" t="n">
         <v>0</v>
       </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3220,6 +3367,9 @@
       <c r="N50" t="n">
         <v>0</v>
       </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3276,6 +3426,9 @@
       <c r="N51" t="n">
         <v>0</v>
       </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3332,6 +3485,9 @@
       <c r="N52" t="n">
         <v>0</v>
       </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3388,6 +3544,9 @@
       <c r="N53" t="n">
         <v>0</v>
       </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3444,6 +3603,9 @@
       <c r="N54" t="n">
         <v>0</v>
       </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3500,6 +3662,9 @@
       <c r="N55" t="n">
         <v>0</v>
       </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3556,6 +3721,9 @@
       <c r="N56" t="n">
         <v>0</v>
       </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3612,6 +3780,9 @@
       <c r="N57" t="n">
         <v>0</v>
       </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3668,6 +3839,9 @@
       <c r="N58" t="n">
         <v>0</v>
       </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3724,6 +3898,9 @@
       <c r="N59" t="n">
         <v>0</v>
       </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3780,6 +3957,9 @@
       <c r="N60" t="n">
         <v>0</v>
       </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3834,6 +4014,9 @@
       <c r="N61" t="n">
         <v>0</v>
       </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3888,6 +4071,9 @@
       <c r="N62" t="n">
         <v>0</v>
       </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3944,6 +4130,9 @@
       <c r="N63" t="n">
         <v>0</v>
       </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4000,6 +4189,9 @@
       <c r="N64" t="n">
         <v>0</v>
       </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4056,6 +4248,9 @@
       <c r="N65" t="n">
         <v>0</v>
       </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4112,6 +4307,9 @@
       <c r="N66" t="n">
         <v>0</v>
       </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4166,6 +4364,9 @@
       <c r="N67" t="n">
         <v>0</v>
       </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4222,6 +4423,9 @@
       <c r="N68" t="n">
         <v>0</v>
       </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4278,6 +4482,9 @@
       <c r="N69" t="n">
         <v>0</v>
       </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4334,6 +4541,9 @@
       <c r="N70" t="n">
         <v>0</v>
       </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4390,6 +4600,9 @@
       <c r="N71" t="n">
         <v>0</v>
       </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4444,6 +4657,9 @@
       <c r="N72" t="n">
         <v>0</v>
       </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4500,6 +4716,9 @@
       <c r="N73" t="n">
         <v>0</v>
       </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4556,6 +4775,9 @@
       <c r="N74" t="n">
         <v>0</v>
       </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4612,6 +4834,9 @@
       <c r="N75" t="n">
         <v>0</v>
       </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4668,6 +4893,9 @@
       <c r="N76" t="n">
         <v>0</v>
       </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4724,6 +4952,9 @@
       <c r="N77" t="n">
         <v>0</v>
       </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4780,6 +5011,9 @@
       <c r="N78" t="n">
         <v>0</v>
       </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4836,6 +5070,9 @@
       <c r="N79" t="n">
         <v>0</v>
       </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4890,6 +5127,9 @@
       <c r="N80" t="n">
         <v>0</v>
       </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4946,6 +5186,9 @@
       <c r="N81" t="n">
         <v>0</v>
       </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5002,6 +5245,9 @@
       <c r="N82" t="n">
         <v>0</v>
       </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5058,6 +5304,9 @@
       <c r="N83" t="n">
         <v>0</v>
       </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5114,6 +5363,9 @@
       <c r="N84" t="n">
         <v>0</v>
       </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5168,6 +5420,9 @@
       <c r="N85" t="n">
         <v>0</v>
       </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5224,6 +5479,9 @@
       <c r="N86" t="n">
         <v>0</v>
       </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5280,6 +5538,9 @@
       <c r="N87" t="n">
         <v>0</v>
       </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5334,6 +5595,9 @@
       <c r="N88" t="n">
         <v>0</v>
       </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5388,6 +5652,9 @@
       <c r="N89" t="n">
         <v>0</v>
       </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5444,6 +5711,9 @@
       <c r="N90" t="n">
         <v>0</v>
       </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5500,6 +5770,9 @@
       <c r="N91" t="n">
         <v>0</v>
       </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5556,6 +5829,9 @@
       <c r="N92" t="n">
         <v>0</v>
       </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5612,6 +5888,9 @@
       <c r="N93" t="n">
         <v>0</v>
       </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5668,6 +5947,9 @@
       <c r="N94" t="n">
         <v>0</v>
       </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5724,6 +6006,9 @@
       <c r="N95" t="n">
         <v>0</v>
       </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5780,6 +6065,9 @@
       <c r="N96" t="n">
         <v>0</v>
       </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5834,6 +6122,9 @@
       <c r="N97" t="n">
         <v>0</v>
       </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5890,6 +6181,9 @@
       <c r="N98" t="n">
         <v>0</v>
       </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5946,6 +6240,9 @@
       <c r="N99" t="n">
         <v>0</v>
       </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6002,6 +6299,9 @@
       <c r="N100" t="n">
         <v>0</v>
       </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6056,6 +6356,9 @@
       <c r="N101" t="n">
         <v>0</v>
       </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6110,6 +6413,9 @@
       <c r="N102" t="n">
         <v>0</v>
       </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6164,6 +6470,9 @@
       <c r="N103" t="n">
         <v>0</v>
       </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6220,6 +6529,9 @@
       <c r="N104" t="n">
         <v>0</v>
       </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6274,6 +6586,9 @@
       <c r="N105" t="n">
         <v>0</v>
       </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6330,6 +6645,9 @@
       <c r="N106" t="n">
         <v>0</v>
       </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6386,6 +6704,9 @@
       <c r="N107" t="n">
         <v>0</v>
       </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6442,6 +6763,9 @@
       <c r="N108" t="n">
         <v>0</v>
       </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6498,6 +6822,9 @@
       <c r="N109" t="n">
         <v>0</v>
       </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6552,6 +6879,9 @@
       <c r="N110" t="n">
         <v>0</v>
       </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6608,6 +6938,9 @@
       <c r="N111" t="n">
         <v>0</v>
       </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6664,6 +6997,9 @@
       <c r="N112" t="n">
         <v>0</v>
       </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6720,6 +7056,9 @@
       <c r="N113" t="n">
         <v>0</v>
       </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6776,6 +7115,9 @@
       <c r="N114" t="n">
         <v>0</v>
       </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6832,6 +7174,9 @@
       <c r="N115" t="n">
         <v>0</v>
       </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6888,6 +7233,9 @@
       <c r="N116" t="n">
         <v>0</v>
       </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6944,6 +7292,9 @@
       <c r="N117" t="n">
         <v>0</v>
       </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7000,6 +7351,9 @@
       <c r="N118" t="n">
         <v>0</v>
       </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7056,6 +7410,9 @@
       <c r="N119" t="n">
         <v>0</v>
       </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7112,6 +7469,9 @@
       <c r="N120" t="n">
         <v>0</v>
       </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7168,6 +7528,9 @@
       <c r="N121" t="n">
         <v>0</v>
       </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7224,6 +7587,9 @@
       <c r="N122" t="n">
         <v>0</v>
       </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7280,6 +7646,9 @@
       <c r="N123" t="n">
         <v>0</v>
       </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7336,6 +7705,9 @@
       <c r="N124" t="n">
         <v>0</v>
       </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7392,6 +7764,9 @@
       <c r="N125" t="n">
         <v>0</v>
       </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7446,6 +7821,9 @@
       <c r="N126" t="n">
         <v>0</v>
       </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7502,6 +7880,9 @@
       <c r="N127" t="n">
         <v>0</v>
       </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7558,6 +7939,9 @@
       <c r="N128" t="n">
         <v>0</v>
       </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7614,6 +7998,9 @@
       <c r="N129" t="n">
         <v>0</v>
       </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7670,6 +8057,9 @@
       <c r="N130" t="n">
         <v>0</v>
       </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7726,6 +8116,9 @@
       <c r="N131" t="n">
         <v>0</v>
       </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7782,6 +8175,9 @@
       <c r="N132" t="n">
         <v>0</v>
       </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7838,6 +8234,9 @@
       <c r="N133" t="n">
         <v>0</v>
       </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7894,6 +8293,9 @@
       <c r="N134" t="n">
         <v>0</v>
       </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7950,6 +8352,9 @@
       <c r="N135" t="n">
         <v>0</v>
       </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8006,6 +8411,9 @@
       <c r="N136" t="n">
         <v>0</v>
       </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8060,6 +8468,9 @@
       <c r="N137" t="n">
         <v>0</v>
       </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8116,6 +8527,9 @@
       <c r="N138" t="n">
         <v>0</v>
       </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8172,6 +8586,9 @@
       <c r="N139" t="n">
         <v>0</v>
       </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8228,6 +8645,9 @@
       <c r="N140" t="n">
         <v>0</v>
       </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8284,6 +8704,9 @@
       <c r="N141" t="n">
         <v>0</v>
       </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8340,6 +8763,9 @@
       <c r="N142" t="n">
         <v>0</v>
       </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8396,6 +8822,9 @@
       <c r="N143" t="n">
         <v>0</v>
       </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8452,6 +8881,9 @@
       <c r="N144" t="n">
         <v>0</v>
       </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8506,6 +8938,9 @@
       <c r="N145" t="n">
         <v>0</v>
       </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8562,6 +8997,9 @@
       <c r="N146" t="n">
         <v>0</v>
       </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8618,6 +9056,9 @@
       <c r="N147" t="n">
         <v>0</v>
       </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8674,6 +9115,9 @@
       <c r="N148" t="n">
         <v>0</v>
       </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8728,6 +9172,9 @@
       <c r="N149" t="n">
         <v>0</v>
       </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8784,6 +9231,9 @@
       <c r="N150" t="n">
         <v>0</v>
       </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8840,6 +9290,9 @@
       <c r="N151" t="n">
         <v>0</v>
       </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8894,6 +9347,9 @@
       <c r="N152" t="n">
         <v>0</v>
       </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8948,6 +9404,9 @@
       <c r="N153" t="n">
         <v>0</v>
       </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9002,6 +9461,9 @@
       <c r="N154" t="n">
         <v>0</v>
       </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9056,6 +9518,9 @@
       <c r="N155" t="n">
         <v>0</v>
       </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9110,6 +9575,9 @@
       <c r="N156" t="n">
         <v>0</v>
       </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9164,6 +9632,9 @@
       <c r="N157" t="n">
         <v>0</v>
       </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9218,6 +9689,9 @@
       <c r="N158" t="n">
         <v>0</v>
       </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9272,6 +9746,9 @@
       <c r="N159" t="n">
         <v>0</v>
       </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9326,6 +9803,9 @@
       <c r="N160" t="n">
         <v>0</v>
       </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9380,6 +9860,9 @@
       <c r="N161" t="n">
         <v>0</v>
       </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9434,6 +9917,9 @@
       <c r="N162" t="n">
         <v>0</v>
       </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9488,6 +9974,9 @@
       <c r="N163" t="n">
         <v>0</v>
       </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9542,6 +10031,9 @@
       <c r="N164" t="n">
         <v>0</v>
       </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9596,6 +10088,9 @@
       <c r="N165" t="n">
         <v>0</v>
       </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9650,6 +10145,9 @@
       <c r="N166" t="n">
         <v>0</v>
       </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9704,6 +10202,9 @@
       <c r="N167" t="n">
         <v>0</v>
       </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9758,6 +10259,9 @@
       <c r="N168" t="n">
         <v>0</v>
       </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9813,6 +10317,9 @@
       <c r="N169" t="n">
         <v>0</v>
       </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9869,6 +10376,9 @@
       <c r="N170" t="n">
         <v>0</v>
       </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9923,6 +10433,9 @@
       <c r="N171" t="n">
         <v>0</v>
       </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9979,6 +10492,9 @@
       <c r="N172" t="n">
         <v>0</v>
       </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10035,6 +10551,9 @@
       <c r="N173" t="n">
         <v>0</v>
       </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10091,6 +10610,9 @@
       <c r="N174" t="n">
         <v>0</v>
       </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10147,6 +10669,9 @@
       <c r="N175" t="n">
         <v>0</v>
       </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10201,6 +10726,9 @@
       <c r="N176" t="n">
         <v>0</v>
       </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10255,6 +10783,9 @@
       <c r="N177" t="n">
         <v>0</v>
       </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10309,6 +10840,9 @@
       <c r="N178" t="n">
         <v>0</v>
       </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10363,6 +10897,9 @@
       <c r="N179" t="n">
         <v>0</v>
       </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10419,6 +10956,9 @@
       <c r="N180" t="n">
         <v>0</v>
       </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10473,6 +11013,9 @@
       <c r="N181" t="n">
         <v>0</v>
       </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10527,6 +11070,9 @@
       <c r="N182" t="n">
         <v>0</v>
       </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10581,6 +11127,9 @@
       <c r="N183" t="n">
         <v>0</v>
       </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10636,6 +11185,9 @@
       <c r="N184" t="n">
         <v>0</v>
       </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10690,6 +11242,9 @@
       <c r="N185" t="n">
         <v>0</v>
       </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10744,6 +11299,9 @@
       <c r="N186" t="n">
         <v>0</v>
       </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10798,6 +11356,9 @@
       <c r="N187" t="n">
         <v>0</v>
       </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10852,6 +11413,9 @@
       <c r="N188" t="n">
         <v>0</v>
       </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10906,6 +11470,9 @@
       <c r="N189" t="n">
         <v>0</v>
       </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10962,6 +11529,9 @@
       <c r="N190" t="n">
         <v>0</v>
       </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11018,6 +11588,9 @@
       <c r="N191" t="n">
         <v>0</v>
       </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11072,6 +11645,9 @@
       <c r="N192" t="n">
         <v>0</v>
       </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11128,6 +11704,9 @@
       <c r="N193" t="n">
         <v>0</v>
       </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11184,6 +11763,9 @@
       <c r="N194" t="n">
         <v>0</v>
       </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11240,6 +11822,9 @@
       <c r="N195" t="n">
         <v>0</v>
       </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11294,6 +11879,9 @@
       <c r="N196" t="n">
         <v>0</v>
       </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11348,6 +11936,9 @@
       <c r="N197" t="n">
         <v>0</v>
       </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11404,6 +11995,9 @@
       <c r="N198" t="n">
         <v>0</v>
       </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11460,6 +12054,9 @@
       <c r="N199" t="n">
         <v>0</v>
       </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11516,6 +12113,9 @@
       <c r="N200" t="n">
         <v>0</v>
       </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11572,6 +12172,9 @@
       <c r="N201" t="n">
         <v>0</v>
       </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11628,6 +12231,9 @@
       <c r="N202" t="n">
         <v>0</v>
       </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11684,6 +12290,9 @@
       <c r="N203" t="n">
         <v>0</v>
       </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11740,6 +12349,9 @@
       <c r="N204" t="n">
         <v>0</v>
       </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11796,6 +12408,9 @@
       <c r="N205" t="n">
         <v>0</v>
       </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11852,6 +12467,9 @@
       <c r="N206" t="n">
         <v>0</v>
       </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11908,6 +12526,9 @@
       <c r="N207" t="n">
         <v>0</v>
       </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11964,6 +12585,9 @@
       <c r="N208" t="n">
         <v>0</v>
       </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12020,6 +12644,9 @@
       <c r="N209" t="n">
         <v>0</v>
       </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12076,6 +12703,9 @@
       <c r="N210" t="n">
         <v>0</v>
       </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12132,6 +12762,9 @@
       <c r="N211" t="n">
         <v>0</v>
       </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12188,6 +12821,9 @@
       <c r="N212" t="n">
         <v>0</v>
       </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12244,6 +12880,9 @@
       <c r="N213" t="n">
         <v>0</v>
       </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -12300,6 +12939,9 @@
       <c r="N214" t="n">
         <v>0</v>
       </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12356,6 +12998,9 @@
       <c r="N215" t="n">
         <v>0</v>
       </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12412,6 +13057,9 @@
       <c r="N216" t="n">
         <v>0</v>
       </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12468,6 +13116,9 @@
       <c r="N217" t="n">
         <v>0</v>
       </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12524,6 +13175,9 @@
       <c r="N218" t="n">
         <v>0</v>
       </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12580,6 +13234,9 @@
       <c r="N219" t="n">
         <v>0</v>
       </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12636,6 +13293,9 @@
       <c r="N220" t="n">
         <v>0</v>
       </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12690,6 +13350,9 @@
       <c r="N221" t="n">
         <v>0</v>
       </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12744,6 +13407,9 @@
       <c r="N222" t="n">
         <v>0</v>
       </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12798,6 +13464,9 @@
       <c r="N223" t="n">
         <v>0</v>
       </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12852,6 +13521,9 @@
       <c r="N224" t="n">
         <v>0</v>
       </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12906,6 +13578,9 @@
       <c r="N225" t="n">
         <v>0</v>
       </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12960,6 +13635,9 @@
       <c r="N226" t="n">
         <v>0</v>
       </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13016,6 +13694,9 @@
       <c r="N227" t="n">
         <v>0</v>
       </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13070,6 +13751,9 @@
       <c r="N228" t="n">
         <v>0</v>
       </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -13124,6 +13808,9 @@
       <c r="N229" t="n">
         <v>0</v>
       </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -13178,6 +13865,9 @@
       <c r="N230" t="n">
         <v>0</v>
       </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -13232,6 +13922,9 @@
       <c r="N231" t="n">
         <v>0</v>
       </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -13286,6 +13979,9 @@
       <c r="N232" t="n">
         <v>0</v>
       </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13340,6 +14036,9 @@
       <c r="N233" t="n">
         <v>0</v>
       </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13394,6 +14093,9 @@
       <c r="N234" t="n">
         <v>0</v>
       </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13448,6 +14150,9 @@
       <c r="N235" t="n">
         <v>0</v>
       </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13502,6 +14207,9 @@
       <c r="N236" t="n">
         <v>0</v>
       </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13556,6 +14264,9 @@
       <c r="N237" t="n">
         <v>0</v>
       </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13610,6 +14321,9 @@
       <c r="N238" t="n">
         <v>0</v>
       </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13664,6 +14378,9 @@
       <c r="N239" t="n">
         <v>0</v>
       </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13718,6 +14435,9 @@
       <c r="N240" t="n">
         <v>0</v>
       </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13772,6 +14492,9 @@
       <c r="N241" t="n">
         <v>0</v>
       </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13826,6 +14549,9 @@
       <c r="N242" t="n">
         <v>0</v>
       </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13880,6 +14606,9 @@
       <c r="N243" t="n">
         <v>0</v>
       </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13934,6 +14663,9 @@
       <c r="N244" t="n">
         <v>0</v>
       </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13988,6 +14720,9 @@
       <c r="N245" t="n">
         <v>0</v>
       </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -14042,6 +14777,9 @@
       <c r="N246" t="n">
         <v>0</v>
       </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -14096,6 +14834,9 @@
       <c r="N247" t="n">
         <v>0</v>
       </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -14150,6 +14891,9 @@
       <c r="N248" t="n">
         <v>0</v>
       </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -14204,6 +14948,9 @@
       <c r="N249" t="n">
         <v>0</v>
       </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -14258,6 +15005,9 @@
       <c r="N250" t="n">
         <v>0</v>
       </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -14312,6 +15062,9 @@
       <c r="N251" t="n">
         <v>0</v>
       </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14366,6 +15119,9 @@
       <c r="N252" t="n">
         <v>0</v>
       </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14420,6 +15176,9 @@
       <c r="N253" t="n">
         <v>0</v>
       </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14474,6 +15233,9 @@
       <c r="N254" t="n">
         <v>0</v>
       </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14528,6 +15290,9 @@
       <c r="N255" t="n">
         <v>0</v>
       </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14582,6 +15347,9 @@
       <c r="N256" t="n">
         <v>0</v>
       </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14636,6 +15404,9 @@
       <c r="N257" t="n">
         <v>0</v>
       </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14690,6 +15461,9 @@
       <c r="N258" t="n">
         <v>0</v>
       </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14744,6 +15518,9 @@
       <c r="N259" t="n">
         <v>0</v>
       </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14798,6 +15575,9 @@
       <c r="N260" t="n">
         <v>0</v>
       </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14852,6 +15632,9 @@
       <c r="N261" t="n">
         <v>0</v>
       </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14906,6 +15689,9 @@
       <c r="N262" t="n">
         <v>0</v>
       </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14960,6 +15746,9 @@
       <c r="N263" t="n">
         <v>0</v>
       </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -15014,6 +15803,9 @@
       <c r="N264" t="n">
         <v>0</v>
       </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -15068,6 +15860,9 @@
       <c r="N265" t="n">
         <v>0</v>
       </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -15122,6 +15917,9 @@
       <c r="N266" t="n">
         <v>0</v>
       </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -15176,6 +15974,9 @@
       <c r="N267" t="n">
         <v>0</v>
       </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -15230,6 +16031,9 @@
       <c r="N268" t="n">
         <v>0</v>
       </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -15284,6 +16088,9 @@
       <c r="N269" t="n">
         <v>0</v>
       </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15338,6 +16145,9 @@
       <c r="N270" t="n">
         <v>0</v>
       </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15392,6 +16202,9 @@
       <c r="N271" t="n">
         <v>0</v>
       </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15446,6 +16259,9 @@
       <c r="N272" t="n">
         <v>0</v>
       </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15500,6 +16316,9 @@
       <c r="N273" t="n">
         <v>0</v>
       </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15554,6 +16373,9 @@
       <c r="N274" t="n">
         <v>0</v>
       </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15608,6 +16430,9 @@
       <c r="N275" t="n">
         <v>0</v>
       </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15662,6 +16487,9 @@
       <c r="N276" t="n">
         <v>0</v>
       </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15716,6 +16544,9 @@
       <c r="N277" t="n">
         <v>0</v>
       </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15770,6 +16601,9 @@
       <c r="N278" t="n">
         <v>0</v>
       </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15824,6 +16658,9 @@
       <c r="N279" t="n">
         <v>0</v>
       </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15878,6 +16715,9 @@
       <c r="N280" t="n">
         <v>0</v>
       </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15932,6 +16772,9 @@
       <c r="N281" t="n">
         <v>0</v>
       </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15986,6 +16829,9 @@
       <c r="N282" t="n">
         <v>0</v>
       </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -16040,6 +16886,9 @@
       <c r="N283" t="n">
         <v>0</v>
       </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -16096,6 +16945,9 @@
       <c r="N284" t="n">
         <v>0</v>
       </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -16152,6 +17004,9 @@
       <c r="N285" t="n">
         <v>0</v>
       </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -16208,6 +17063,9 @@
       <c r="N286" t="n">
         <v>0</v>
       </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -16262,6 +17120,9 @@
       <c r="N287" t="n">
         <v>0</v>
       </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -16318,6 +17179,9 @@
       <c r="N288" t="n">
         <v>0</v>
       </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16374,6 +17238,9 @@
       <c r="N289" t="n">
         <v>0</v>
       </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16430,6 +17297,9 @@
       <c r="N290" t="n">
         <v>0</v>
       </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -16486,6 +17356,9 @@
       <c r="N291" t="n">
         <v>0</v>
       </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -16542,6 +17415,9 @@
       <c r="N292" t="n">
         <v>0</v>
       </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16598,6 +17474,9 @@
       <c r="N293" t="n">
         <v>0</v>
       </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16654,6 +17533,9 @@
       <c r="N294" t="n">
         <v>0</v>
       </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16710,6 +17592,9 @@
       <c r="N295" t="n">
         <v>0</v>
       </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16764,6 +17649,9 @@
       <c r="N296" t="n">
         <v>0</v>
       </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16818,6 +17706,9 @@
       <c r="N297" t="n">
         <v>0</v>
       </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16872,6 +17763,9 @@
       <c r="N298" t="n">
         <v>0</v>
       </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16926,6 +17820,9 @@
       <c r="N299" t="n">
         <v>0</v>
       </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16980,6 +17877,9 @@
       <c r="N300" t="n">
         <v>0</v>
       </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -17032,6 +17932,9 @@
         <v>0</v>
       </c>
       <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
         <v>0</v>
       </c>
     </row>

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,21 +491,13 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Recoverable Value</t>
+          <t>Recoverable Amount</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Accumulated Impairment</t>
         </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -542,11 +534,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0001</t>
+          <t>FRC-SLM-7.0-O-17-0001</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-12184.71428571428</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -555,15 +547,9 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-12184.71428571428</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -601,7 +587,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0002</t>
+          <t>FRC-SLM-7.0-O-17-0002</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -617,12 +603,6 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,11 +640,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0003</t>
+          <t>FRC-SLM-7.0-O-17-0003</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -676,12 +656,6 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -719,7 +693,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0004</t>
+          <t>FRC-SLM-7.0-O-17-0004</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -735,12 +709,6 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -778,7 +746,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0005</t>
+          <t>FRC-SLM-7.0-O-17-0005</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -794,12 +762,6 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -837,7 +799,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0006</t>
+          <t>FRC-SLM-7.0-O-17-0006</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -853,12 +815,6 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -896,7 +852,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0007</t>
+          <t>FRC-SLM-7.0-O-17-0007</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -912,12 +868,6 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -953,7 +903,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0008</t>
+          <t>FRC-SLM-7.0-O-17-0008</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -969,12 +919,6 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1010,11 +954,11 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0009</t>
+          <t>FRC-SLM-7.0-O-17-0009</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7.275957614183426e-12</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1026,12 +970,6 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1067,11 +1005,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0010</t>
+          <t>FRC-SLM-7.0-C-17-0010</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1083,12 +1021,6 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1124,7 +1056,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0011</t>
+          <t>FRC-SLM-7.0-C-17-0011</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1140,12 +1072,6 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1181,7 +1107,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0012</t>
+          <t>FRC-SLM-7.0-O-17-0012</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1197,12 +1123,6 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,7 +1160,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0013</t>
+          <t>FRC-SLM-7.0-O-17-0013</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1256,12 +1176,6 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1299,11 +1213,11 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0014</t>
+          <t>FRC-SLM-7.0-F-17-0014</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-11520</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1315,12 +1229,6 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1358,7 +1266,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0015</t>
+          <t>FRC-SLM-7.0-O-17-0015</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1374,12 +1282,6 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1415,7 +1317,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0016</t>
+          <t>FRC-SLM-7.0-O-17-0016</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1431,12 +1333,6 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,11 +1370,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0017</t>
+          <t>FRC-SLM-7.0-F-17-0017</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-9043.739635514017</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1490,12 +1386,6 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1533,11 +1423,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0018</t>
+          <t>FRC-SLM-7.0-O-17-0018</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-8100</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1549,12 +1439,6 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1592,11 +1476,11 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0019</t>
+          <t>FRC-SLM-7.0-F-17-0019</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-4050</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1608,12 +1492,6 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1651,11 +1529,11 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0020</t>
+          <t>FRC-SLM-7.0-F-17-0020</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9135</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1667,12 +1545,6 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,7 +1580,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0021</t>
+          <t>FRC-SLM-7.0-O-17-0021</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1724,12 +1596,6 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1765,11 +1631,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0022</t>
+          <t>FRC-SLM-7.0-O-17-0022</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>7.275957614183426e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1781,12 +1647,6 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1822,11 +1682,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0023</t>
+          <t>FRC-SLM-7.0-O-17-0023</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1838,12 +1698,6 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1881,11 +1735,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0024</t>
+          <t>FRC-SLM-7.0-F-17-0024</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>16531.8</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1897,12 +1751,6 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1940,11 +1788,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0025</t>
+          <t>FRC-SLM-7.0-F-17-0025</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1956,12 +1804,6 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1999,11 +1841,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0026</t>
+          <t>FRC-SLM-7.0-F-17-0026</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7776</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2015,12 +1857,6 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,11 +1894,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0027</t>
+          <t>FRC-SLM-7.0-F-17-0027</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>76608</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2074,12 +1910,6 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2117,11 +1947,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0028</t>
+          <t>FRC-SLM-7.0-O-17-0028</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-12064.28571428572</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2133,12 +1963,6 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,11 +2000,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0029</t>
+          <t>FRC-SLM-7.0-F-17-0029</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2192,12 +2016,6 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2235,11 +2053,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0030</t>
+          <t>FRC-SLM-7.0-F-17-0030</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2251,12 +2069,6 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2294,11 +2106,11 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0031</t>
+          <t>FRC-SLM-7.0-F-17-0031</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8640</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2310,12 +2122,6 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2353,7 +2159,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0032</t>
+          <t>FRC-SLM-7.0-O-17-0032</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2369,12 +2175,6 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2412,11 +2212,11 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0033</t>
+          <t>FRC-SLM-7.0-F-17-0033</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4012.5</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2428,12 +2228,6 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2469,7 +2263,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0034</t>
+          <t>FRC-SLM-7.0-O-17-0034</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2485,12 +2279,6 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2528,11 +2316,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0035</t>
+          <t>FRC-SLM-7.0-F-17-0035</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>29190</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2544,12 +2332,6 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2585,7 +2367,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0036</t>
+          <t>FRC-SLM-7.0-O-17-0036</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2601,12 +2383,6 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,11 +2420,11 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0037</t>
+          <t>FRC-SLM-7.0-O-17-0037</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-45642.85714285713</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2660,12 +2436,6 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2703,7 +2473,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0038</t>
+          <t>FRC-SLM-7.0-O-17-0038</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2719,12 +2489,6 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2762,11 +2526,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0039</t>
+          <t>FRC-SLM-7.0-F-17-0039</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2778,12 +2542,6 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2821,11 +2579,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0040</t>
+          <t>FRC-SLM-7.0-F-17-0040</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1912.5</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2837,12 +2595,6 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +2630,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0041</t>
+          <t>FRC-SLM-7.0-O-17-0041</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2894,12 +2646,6 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2937,11 +2683,11 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0042</t>
+          <t>FRC-SLM-7.0-F-17-0042</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-3870</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2953,12 +2699,6 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2996,11 +2736,11 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0043</t>
+          <t>FRC-SLM-7.0-F-17-0043</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3517.008</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -3012,12 +2752,6 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3055,11 +2789,11 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0044</t>
+          <t>FRC-SLM-7.0-F-17-0044</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>879.252</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -3071,12 +2805,6 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,7 +2840,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0045</t>
+          <t>FRC-SLM-7.0-T-17-0045</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3128,12 +2856,6 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3169,11 +2891,11 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0046</t>
+          <t>FRC-SLM-7.0-T-17-0046</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1.455191522836685e-11</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -3185,12 +2907,6 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,11 +2944,11 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0047</t>
+          <t>FRC-SLM-7.0-F-17-0047</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>-14464.5</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3244,12 +2960,6 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3287,11 +2997,11 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0048</t>
+          <t>FRC-SLM-7.0-O-17-0048</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>-23196</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3303,12 +3013,6 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,7 +3050,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0049</t>
+          <t>FRC-SLM-7.0-F-17-0049</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3362,12 +3066,6 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3405,11 +3103,11 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0050</t>
+          <t>FRC-SLM-7.0-O-17-0050</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>-71571.42857142858</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3421,12 +3119,6 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3464,11 +3156,11 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0051</t>
+          <t>FRC-SLM-7.0-O-17-0051</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>-165021.4285714285</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3480,12 +3172,6 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3523,11 +3209,11 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0052</t>
+          <t>FRC-SLM-7.0-F-17-0052</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>-35970</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3539,12 +3225,6 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3582,11 +3262,11 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0053</t>
+          <t>FRC-SLM-7.0-F-17-0053</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>-17106.3</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3598,12 +3278,6 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3641,11 +3315,11 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0054</t>
+          <t>FRC-SLM-7.0-F-18-0054</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>-4136.937142857145</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3657,12 +3331,6 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3700,11 +3368,11 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0055</t>
+          <t>FRC-SLM-7.0-F-18-0055</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>-1965</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3716,12 +3384,6 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3759,11 +3421,11 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0056</t>
+          <t>FRC-SLM-7.0-F-18-0056</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>-8213.700000000001</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3775,12 +3437,6 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3818,11 +3474,11 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0057</t>
+          <t>FRC-SLM-7.0-F-18-0057</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>-17220</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3834,12 +3490,6 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3877,11 +3527,11 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0058</t>
+          <t>FRC-SLM-7.0-F-18-0058</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>-10866</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3893,12 +3543,6 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3936,11 +3580,11 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0059</t>
+          <t>FRC-SLM-7.0-F-18-0059</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>-2020.839999999997</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3952,12 +3596,6 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3993,7 +3631,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0060</t>
+          <t>FRC-SLM-7.0-C-18-0060</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4009,12 +3647,6 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4050,7 +3682,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0061</t>
+          <t>FRC-SLM-7.0-C-18-0061</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -4066,12 +3698,6 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4109,11 +3735,11 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0062</t>
+          <t>FRC-SLM-7.0-O-18-0062</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2624</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -4125,12 +3751,6 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4168,11 +3788,11 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0063</t>
+          <t>FRC-SLM-7.0-F-18-0063</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>6828.856</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -4184,12 +3804,6 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4227,11 +3841,11 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0064</t>
+          <t>FRC-SLM-7.0-F-18-0064</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>-27000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -4243,12 +3857,6 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4286,7 +3894,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0065</t>
+          <t>FRC-SLM-7.0-C-18-0065</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4302,12 +3910,6 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4343,7 +3945,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0066</t>
+          <t>FRC-SLM-7.0-C-18-0066</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4359,12 +3961,6 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4402,11 +3998,11 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0067</t>
+          <t>FRC-SLM-7.0-F-18-0067</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -4418,12 +4014,6 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4461,11 +4051,11 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0068</t>
+          <t>FRC-SLM-7.0-F-18-0068</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -4477,12 +4067,6 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4520,11 +4104,11 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0069</t>
+          <t>FRC-SLM-7.0-F-18-0069</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>-14094</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -4536,12 +4120,6 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4579,11 +4157,11 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0070</t>
+          <t>FRC-SLM-7.0-F-18-0070</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2932</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -4595,12 +4173,6 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4636,7 +4208,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0071</t>
+          <t>FRC-SLM-7.0-C-18-0071</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4652,12 +4224,6 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4695,11 +4261,11 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0072</t>
+          <t>FRC-SLM-7.0-F-18-0072</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4711,12 +4277,6 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4754,11 +4314,11 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0073</t>
+          <t>FRC-SLM-7.0-F-18-0073</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4770,12 +4330,6 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4813,11 +4367,11 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0074</t>
+          <t>FRC-SLM-7.0-F-18-0074</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4829,12 +4383,6 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4872,11 +4420,11 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0075</t>
+          <t>FRC-SLM-7.0-F-18-0075</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4888,12 +4436,6 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4931,11 +4473,11 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0076</t>
+          <t>FRC-SLM-7.0-T-18-0076</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2951.714285714286</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -4947,12 +4489,6 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4990,11 +4526,11 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0077</t>
+          <t>FRC-SLM-7.0-F-18-0077</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>6785.200000000001</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -5006,12 +4542,6 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5049,11 +4579,11 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0078</t>
+          <t>FRC-SLM-7.0-F-18-0078</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -5065,12 +4595,6 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5106,11 +4630,11 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0079</t>
+          <t>FRC-SLM-7.0-F-18-0079</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -5122,12 +4646,6 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5165,7 +4683,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0080</t>
+          <t>FRC-SLM-7.0-C-18-0080</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -5181,12 +4699,6 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5224,7 +4736,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0081</t>
+          <t>FRC-SLM-7.0-C-18-0081</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -5240,12 +4752,6 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5283,7 +4789,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0082</t>
+          <t>FRC-SLM-7.0-C-18-0082</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -5299,12 +4805,6 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5342,7 +4842,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0083</t>
+          <t>FRC-SLM-7.0-C-18-0083</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -5358,12 +4858,6 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5399,11 +4893,11 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0084</t>
+          <t>FRC-SLM-7.0-O-18-0084</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>5625.71428571429</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -5415,12 +4909,6 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5458,7 +4946,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0085</t>
+          <t>FRC-SLM-7.0-C-18-0085</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -5474,12 +4962,6 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5517,7 +4999,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0086</t>
+          <t>FRC-SLM-7.0-C-18-0086</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5533,12 +5015,6 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5574,11 +5050,11 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0087</t>
+          <t>FRC-SLM-7.0-O-18-0087</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>8928.571428571435</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -5590,12 +5066,6 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5631,7 +5101,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0088</t>
+          <t>FRC-SLM-7.0-C-18-0088</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -5647,12 +5117,6 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5690,11 +5154,11 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0089</t>
+          <t>FRC-SLM-7.0-C-18-0089</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>-2.91038304567337e-11</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -5706,12 +5170,6 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5749,7 +5207,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0090</t>
+          <t>FRC-SLM-7.0-C-18-0090</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -5765,12 +5223,6 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5808,11 +5260,11 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0091</t>
+          <t>FRC-SLM-7.0-F-18-0091</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>-93350.39999999998</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -5824,12 +5276,6 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5867,11 +5313,11 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0092</t>
+          <t>FRC-SLM-7.0-F-18-0092</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>-18144</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -5883,12 +5329,6 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5926,11 +5366,11 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0093</t>
+          <t>FRC-SLM-7.0-F-18-0093</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>-4200</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -5942,12 +5382,6 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5985,11 +5419,11 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0094</t>
+          <t>FRC-SLM-7.0-O-18-0094</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>-144672</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -6001,12 +5435,6 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6044,11 +5472,11 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0095</t>
+          <t>FRC-SLM-7.0-F-18-0095</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -6060,12 +5488,6 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6101,11 +5523,11 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0096</t>
+          <t>FRC-SLM-7.0-O-18-0096</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>5242.857142857149</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -6117,12 +5539,6 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6160,11 +5576,11 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0097</t>
+          <t>FRC-SLM-7.0-T-18-0097</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>30590.85714285716</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -6176,12 +5592,6 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6219,11 +5629,11 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0098</t>
+          <t>FRC-SLM-7.0-M-18-0098</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>3710586</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -6235,12 +5645,6 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6278,11 +5682,11 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0099</t>
+          <t>FRC-SLM-7.0-M-18-0099</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>3618760</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6294,12 +5698,6 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6335,11 +5733,11 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0100</t>
+          <t>FRC-SLM-7.0-O-18-0100</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>6114.428571428572</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -6351,12 +5749,6 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6392,11 +5784,11 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0101</t>
+          <t>FRC-SLM-7.0-O-18-0101</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2871.428571428572</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -6408,12 +5800,6 @@
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6449,11 +5835,11 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0102</t>
+          <t>FRC-SLM-7.0-O-18-0102</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>617.1428571428578</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -6465,12 +5851,6 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6508,11 +5888,11 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0103</t>
+          <t>FRC-SLM-7.0-O-18-0103</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>-79878.85714285714</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -6524,12 +5904,6 @@
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6565,11 +5939,11 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0104</t>
+          <t>FRC-SLM-7.0-O-18-0104</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1414.285714285716</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -6581,12 +5955,6 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6624,11 +5992,11 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0105</t>
+          <t>FRC-SLM-7.0-O-18-0105</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>8257.142857142862</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -6640,12 +6008,6 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6683,11 +6045,11 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0106</t>
+          <t>FRC-SLM-7.0-O-18-0106</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>-160317.8571428571</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -6699,12 +6061,6 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6742,11 +6098,11 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0107</t>
+          <t>FRC-SLM-7.0-O-18-0107</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>26133.85714285716</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -6758,12 +6114,6 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6801,11 +6151,11 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0108</t>
+          <t>FRC-SLM-7.0-O-18-0108</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1306.571428571429</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -6817,12 +6167,6 @@
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6858,11 +6202,11 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0109</t>
+          <t>FRC-SLM-7.0-O-18-0109</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>10394.28571428572</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -6874,12 +6218,6 @@
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6917,11 +6255,11 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0110</t>
+          <t>FRC-SLM-7.0-F-18-0110</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>-20534.4</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -6933,12 +6271,6 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6976,11 +6308,11 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0111</t>
+          <t>FRC-SLM-7.0-F-19-0111</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>-10773</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -6992,12 +6324,6 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7035,11 +6361,11 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0112</t>
+          <t>FRC-SLM-7.0-F-19-0112</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>-6750</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -7051,12 +6377,6 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7094,11 +6414,11 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0113</t>
+          <t>FRC-SLM-7.0-F-19-0113</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>-29400</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -7110,12 +6430,6 @@
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7153,11 +6467,11 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0114</t>
+          <t>FRC-SLM-7.0-F-19-0114</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>147000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -7169,12 +6483,6 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7212,11 +6520,11 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0115</t>
+          <t>FRC-SLM-7.0-F-19-0115</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -7228,12 +6536,6 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7271,11 +6573,11 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0116</t>
+          <t>FRC-SLM-7.0-O-19-0116</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>14839.71428571429</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -7287,12 +6589,6 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7330,11 +6626,11 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0117</t>
+          <t>FRC-SLM-7.0-F-19-0117</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>-14661</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -7346,12 +6642,6 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7389,11 +6679,11 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0118</t>
+          <t>FRC-SLM-7.0-F-19-0118</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>11260</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -7405,12 +6695,6 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7448,11 +6732,11 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0119</t>
+          <t>FRC-SLM-7.0-O-19-0119</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>7114.285714285717</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -7464,12 +6748,6 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7507,11 +6785,11 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0120</t>
+          <t>FRC-SLM-7.0-O-19-0120</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>13852.85714285714</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -7523,12 +6801,6 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0</v>
-      </c>
-      <c r="O121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7566,11 +6838,11 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0121</t>
+          <t>FRC-SLM-7.0-F-19-0121</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>16586</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -7582,12 +6854,6 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0</v>
-      </c>
-      <c r="O122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7625,7 +6891,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0122</t>
+          <t>FRC-SLM-7.0-C-19-0122</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -7641,12 +6907,6 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0</v>
-      </c>
-      <c r="O123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7684,11 +6944,11 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0123</t>
+          <t>FRC-SLM-7.0-C-19-0123</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -7700,12 +6960,6 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7743,7 +6997,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0124</t>
+          <t>FRC-SLM-7.0-C-19-0124</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -7759,12 +7013,6 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7800,7 +7048,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0125</t>
+          <t>FRC-SLM-7.0-C-19-0125</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -7816,12 +7064,6 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0</v>
-      </c>
-      <c r="O126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7859,11 +7101,11 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0126</t>
+          <t>FRC-SLM-7.0-F-19-0126</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -7875,12 +7117,6 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0</v>
-      </c>
-      <c r="O127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7918,11 +7154,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0127</t>
+          <t>FRC-SLM-7.0-F-19-0127</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>58500</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -7934,12 +7170,6 @@
         <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0</v>
-      </c>
-      <c r="O128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7977,11 +7207,11 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0128</t>
+          <t>FRC-SLM-7.0-F-19-0128</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -7993,12 +7223,6 @@
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0</v>
-      </c>
-      <c r="O129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8036,11 +7260,11 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0129</t>
+          <t>FRC-SLM-7.0-C-20-0129</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>4088.4</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -8052,12 +7276,6 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8095,11 +7313,11 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0130</t>
+          <t>FRC-SLM-7.0-C-20-0130</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>11270.8</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -8111,12 +7329,6 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0</v>
-      </c>
-      <c r="O131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8154,11 +7366,11 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0131</t>
+          <t>FRC-SLM-7.0-C-20-0131</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>8397.799999999996</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -8170,12 +7382,6 @@
         <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0</v>
-      </c>
-      <c r="O132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8213,11 +7419,11 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0132</t>
+          <t>FRC-SLM-7.0-C-20-0132</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>397.8</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -8229,12 +7435,6 @@
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0</v>
-      </c>
-      <c r="O133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8272,11 +7472,11 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0133</t>
+          <t>FRC-SLM-7.0-T-20-0133</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>3889.285714285715</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -8288,12 +7488,6 @@
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0</v>
-      </c>
-      <c r="O134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8331,11 +7525,11 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0134</t>
+          <t>FRC-SLM-7.0-C-20-0134</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>16280</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -8347,12 +7541,6 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0</v>
-      </c>
-      <c r="O135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8390,11 +7578,11 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0135</t>
+          <t>FRC-SLM-7.0-C-20-0135</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -8406,12 +7594,6 @@
         <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0</v>
-      </c>
-      <c r="O136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8447,11 +7629,11 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0136</t>
+          <t>FRC-SLM-7.0-C-20-0136</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -8463,12 +7645,6 @@
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8506,11 +7682,11 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0137</t>
+          <t>FRC-SLM-7.0-C-20-0137</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>26667</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -8522,12 +7698,6 @@
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0</v>
-      </c>
-      <c r="O138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8565,11 +7735,11 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0138</t>
+          <t>FRC-SLM-7.0-F-20-0138</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>10688.4</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -8581,12 +7751,6 @@
         <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0</v>
-      </c>
-      <c r="O139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8624,11 +7788,11 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0139</t>
+          <t>FRC-SLM-7.0-C-20-0139</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>11823.2</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -8640,12 +7804,6 @@
         <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0</v>
-      </c>
-      <c r="O140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8683,11 +7841,11 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0140</t>
+          <t>FRC-SLM-7.0-F-20-0140</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -8699,12 +7857,6 @@
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0</v>
-      </c>
-      <c r="O141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8742,11 +7894,11 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0141</t>
+          <t>FRC-SLM-7.0-C-20-0141</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>55801</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -8758,12 +7910,6 @@
         <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0</v>
-      </c>
-      <c r="O142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8801,11 +7947,11 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0142</t>
+          <t>FRC-SLM-7.0-C-20-0142</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>26077.39999999999</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -8817,12 +7963,6 @@
         <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0</v>
-      </c>
-      <c r="O143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8860,11 +8000,11 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0143</t>
+          <t>FRC-SLM-7.0-M-21-0143</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2307550</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -8876,12 +8016,6 @@
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8917,11 +8051,11 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0144</t>
+          <t>FRC-SLM-7.0-M-21-0144</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>21231.7</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -8933,12 +8067,6 @@
         <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8976,11 +8104,11 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0145</t>
+          <t>FRC-SLM-7.0-O-21-0145</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>92000</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -8992,12 +8120,6 @@
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9035,11 +8157,11 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0146</t>
+          <t>FRC-SLM-7.0-C-21-0146</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>32849.208</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -9051,12 +8173,6 @@
         <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0</v>
-      </c>
-      <c r="O147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9094,11 +8210,11 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0147</t>
+          <t>FRC-SLM-7.0-C-21-0147</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>12960.912</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -9110,12 +8226,6 @@
         <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9151,11 +8261,11 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0148</t>
+          <t>FRC-SLM-7.0-M-21-0148</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>15015</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -9167,12 +8277,6 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0</v>
-      </c>
-      <c r="O149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9210,11 +8314,11 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0149</t>
+          <t>FRC-SLM-7.0-F-21-0149</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>13639.5</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -9226,12 +8330,6 @@
         <v>0</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9269,11 +8367,11 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0150</t>
+          <t>FRC-SLM-7.0-O-21-0150</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>2571.428571428572</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -9285,12 +8383,6 @@
         <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0</v>
-      </c>
-      <c r="O151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9326,11 +8418,11 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0152</t>
+          <t>FRC-SLM-7.0-C-21-0152</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -9342,12 +8434,6 @@
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0</v>
-      </c>
-      <c r="O152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9383,11 +8469,11 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0153</t>
+          <t>FRC-SLM-7.0-C-21-0153</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -9399,12 +8485,6 @@
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0</v>
-      </c>
-      <c r="O153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9440,11 +8520,11 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0154</t>
+          <t>FRC-SLM-7.0-C-21-0154</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>67370.95749999999</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -9456,12 +8536,6 @@
         <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0</v>
-      </c>
-      <c r="O154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9497,11 +8571,11 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0155</t>
+          <t>FRC-SLM-7.0-C-21-0155</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>22429.375</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -9513,12 +8587,6 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0</v>
-      </c>
-      <c r="O155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9554,11 +8622,11 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0156</t>
+          <t>FRC-SLM-7.0-C-21-0156</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>3382.3625</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -9570,12 +8638,6 @@
         <v>0</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0</v>
-      </c>
-      <c r="O156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9611,11 +8673,11 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0157</t>
+          <t>FRC-SLM-7.0-C-21-0157</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>212500</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -9627,12 +8689,6 @@
         <v>0</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9668,11 +8724,11 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0158</t>
+          <t>FRC-SLM-7.0-C-21-0158</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>32725</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -9684,12 +8740,6 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0</v>
-      </c>
-      <c r="O158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9725,11 +8775,11 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0159</t>
+          <t>FRC-SLM-7.0-C-21-0159</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1187.025</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -9741,12 +8791,6 @@
         <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0</v>
-      </c>
-      <c r="O159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9782,11 +8826,11 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0160</t>
+          <t>FRC-SLM-7.0-C-21-0160</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>105655</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -9798,12 +8842,6 @@
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0</v>
-      </c>
-      <c r="O160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9839,11 +8877,11 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0161</t>
+          <t>FRC-SLM-7.0-C-21-0161</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>4653.75</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -9855,12 +8893,6 @@
         <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0</v>
-      </c>
-      <c r="O161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9896,11 +8928,11 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0162</t>
+          <t>FRC-SLM-7.0-I-21-0162</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>263088</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -9912,12 +8944,6 @@
         <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0</v>
-      </c>
-      <c r="O162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9953,11 +8979,11 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0163</t>
+          <t>FRC-SLM-7.0-I-21-0163</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>30520</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -9969,12 +8995,6 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>0</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0</v>
-      </c>
-      <c r="O163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10010,11 +9030,11 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0164</t>
+          <t>FRC-SLM-7.0-I-21-0164</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -10026,12 +9046,6 @@
         <v>0</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0</v>
-      </c>
-      <c r="O164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10067,11 +9081,11 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0165</t>
+          <t>FRC-SLM-7.0-I-21-0165</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>30520</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -10083,12 +9097,6 @@
         <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0</v>
-      </c>
-      <c r="O165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10124,11 +9132,11 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0166</t>
+          <t>FRC-SLM-7.0-I-21-0166</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -10140,12 +9148,6 @@
         <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0</v>
-      </c>
-      <c r="O166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10181,11 +9183,11 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0167</t>
+          <t>FRC-SLM-7.0-I-21-0167</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -10197,12 +9199,6 @@
         <v>0</v>
       </c>
       <c r="M167" t="n">
-        <v>0</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0</v>
-      </c>
-      <c r="O167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10238,11 +9234,11 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0168</t>
+          <t>FRC-SLM-7.0-I-21-0168</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>24804</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -10254,12 +9250,6 @@
         <v>0</v>
       </c>
       <c r="M168" t="n">
-        <v>0</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0</v>
-      </c>
-      <c r="O168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10296,11 +9286,11 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0169</t>
+          <t>FRC-SLM-7.0-I-21-0169</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -10312,12 +9302,6 @@
         <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0</v>
-      </c>
-      <c r="O169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10355,11 +9339,11 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0170</t>
+          <t>FRC-SLM-7.0-I-21-0170</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -10371,12 +9355,6 @@
         <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>0</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10412,11 +9390,11 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0171</t>
+          <t>FRC-SLM-7.0-I-21-0171</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>107200</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -10428,12 +9406,6 @@
         <v>0</v>
       </c>
       <c r="M171" t="n">
-        <v>0</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0</v>
-      </c>
-      <c r="O171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10471,11 +9443,11 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0172</t>
+          <t>FRC-SLM-7.0-I-21-0172</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -10487,12 +9459,6 @@
         <v>0</v>
       </c>
       <c r="M172" t="n">
-        <v>0</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0</v>
-      </c>
-      <c r="O172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10530,11 +9496,11 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0173</t>
+          <t>FRC-SLM-7.0-S-21-0173</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>124950</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -10546,12 +9512,6 @@
         <v>0</v>
       </c>
       <c r="M173" t="n">
-        <v>0</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0</v>
-      </c>
-      <c r="O173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10589,11 +9549,11 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0174</t>
+          <t>FRC-SLM-7.0-S-21-0174</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>179010</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -10605,12 +9565,6 @@
         <v>0</v>
       </c>
       <c r="M174" t="n">
-        <v>0</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0</v>
-      </c>
-      <c r="O174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10648,11 +9602,11 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0175</t>
+          <t>FRC-SLM-7.0-S-21-0175</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>6103</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -10664,12 +9618,6 @@
         <v>0</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0</v>
-      </c>
-      <c r="O175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10705,11 +9653,11 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0176</t>
+          <t>FRC-SLM-7.0-S-21-0176</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>4972.5</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -10721,12 +9669,6 @@
         <v>0</v>
       </c>
       <c r="M176" t="n">
-        <v>0</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0</v>
-      </c>
-      <c r="O176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10762,11 +9704,11 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0177</t>
+          <t>FRC-SLM-7.0-S-21-0177</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>7650</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -10778,12 +9720,6 @@
         <v>0</v>
       </c>
       <c r="M177" t="n">
-        <v>0</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0</v>
-      </c>
-      <c r="O177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10819,11 +9755,11 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0178</t>
+          <t>FRC-SLM-7.0-S-21-0178</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>3230</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -10835,12 +9771,6 @@
         <v>0</v>
       </c>
       <c r="M178" t="n">
-        <v>0</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0</v>
-      </c>
-      <c r="O178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10876,11 +9806,11 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0179</t>
+          <t>FRC-SLM-7.0-S-21-0179</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>3740</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -10892,12 +9822,6 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0</v>
-      </c>
-      <c r="O179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10935,11 +9859,11 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0180</t>
+          <t>FRC-SLM-7.0-S-21-0180</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -10951,12 +9875,6 @@
         <v>0</v>
       </c>
       <c r="M180" t="n">
-        <v>0</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0</v>
-      </c>
-      <c r="O180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10992,11 +9910,11 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0181</t>
+          <t>FRC-SLM-7.0-S-21-0181</t>
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>16294.5</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -11008,12 +9926,6 @@
         <v>0</v>
       </c>
       <c r="M181" t="n">
-        <v>0</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0</v>
-      </c>
-      <c r="O181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11049,11 +9961,11 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0182</t>
+          <t>FRC-SLM-7.0-S-21-0182</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1381.25</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -11065,12 +9977,6 @@
         <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>0</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0</v>
-      </c>
-      <c r="O182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11106,11 +10012,11 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0183</t>
+          <t>FRC-SLM-7.0-S-21-0183</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>3038.75</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -11122,12 +10028,6 @@
         <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>0</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0</v>
-      </c>
-      <c r="O183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11164,11 +10064,11 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0184</t>
+          <t>FRC-SLM-7.0-S-21-0184</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>3867.5</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -11180,12 +10080,6 @@
         <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0</v>
-      </c>
-      <c r="O184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11221,11 +10115,11 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0185</t>
+          <t>FRC-SLM-7.0-S-21-0185</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1491.75</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
@@ -11237,12 +10131,6 @@
         <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>0</v>
-      </c>
-      <c r="N185" t="n">
-        <v>0</v>
-      </c>
-      <c r="O185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11278,11 +10166,11 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0186</t>
+          <t>FRC-SLM-7.0-S-21-0186</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>5950</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
@@ -11294,12 +10182,6 @@
         <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>0</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0</v>
-      </c>
-      <c r="O186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11335,11 +10217,11 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0187</t>
+          <t>FRC-SLM-7.0-S-21-0187</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
@@ -11351,12 +10233,6 @@
         <v>0</v>
       </c>
       <c r="M187" t="n">
-        <v>0</v>
-      </c>
-      <c r="N187" t="n">
-        <v>0</v>
-      </c>
-      <c r="O187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11392,11 +10268,11 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0188</t>
+          <t>FRC-SLM-7.0-S-21-0188</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>3213</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -11408,12 +10284,6 @@
         <v>0</v>
       </c>
       <c r="M188" t="n">
-        <v>0</v>
-      </c>
-      <c r="N188" t="n">
-        <v>0</v>
-      </c>
-      <c r="O188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11449,11 +10319,11 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0189</t>
+          <t>FRC-SLM-7.0-S-21-0189</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>106250</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
@@ -11465,12 +10335,6 @@
         <v>0</v>
       </c>
       <c r="M189" t="n">
-        <v>0</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0</v>
-      </c>
-      <c r="O189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11508,11 +10372,11 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0190</t>
+          <t>FRC-SLM-7.0-S-21-0190</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>21165</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -11524,12 +10388,6 @@
         <v>0</v>
       </c>
       <c r="M190" t="n">
-        <v>0</v>
-      </c>
-      <c r="N190" t="n">
-        <v>0</v>
-      </c>
-      <c r="O190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11567,11 +10425,11 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0191</t>
+          <t>FRC-SLM-7.0-S-21-0191</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>5525</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -11583,12 +10441,6 @@
         <v>0</v>
       </c>
       <c r="M191" t="n">
-        <v>0</v>
-      </c>
-      <c r="N191" t="n">
-        <v>0</v>
-      </c>
-      <c r="O191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11624,11 +10476,11 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0192</t>
+          <t>FRC-SLM-7.0-S-21-0192</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>3187.5</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
@@ -11640,12 +10492,6 @@
         <v>0</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
-      </c>
-      <c r="N192" t="n">
-        <v>0</v>
-      </c>
-      <c r="O192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11683,11 +10529,11 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0193</t>
+          <t>FRC-SLM-7.0-S-21-0193</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>8880</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
@@ -11699,12 +10545,6 @@
         <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>0</v>
-      </c>
-      <c r="N193" t="n">
-        <v>0</v>
-      </c>
-      <c r="O193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11742,11 +10582,11 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0194</t>
+          <t>FRC-SLM-7.0-S-21-0194</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>23920</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
@@ -11758,12 +10598,6 @@
         <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>0</v>
-      </c>
-      <c r="N194" t="n">
-        <v>0</v>
-      </c>
-      <c r="O194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11801,11 +10635,11 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0195</t>
+          <t>FRC-SLM-7.0-S-21-0195</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -11817,12 +10651,6 @@
         <v>0</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11858,11 +10686,11 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0196</t>
+          <t>FRC-SLM-7.0-S-21-0196</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>9720</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -11874,12 +10702,6 @@
         <v>0</v>
       </c>
       <c r="M196" t="n">
-        <v>0</v>
-      </c>
-      <c r="N196" t="n">
-        <v>0</v>
-      </c>
-      <c r="O196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11915,11 +10737,11 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0197</t>
+          <t>FRC-SLM-7.0-S-21-0197</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -11931,12 +10753,6 @@
         <v>0</v>
       </c>
       <c r="M197" t="n">
-        <v>0</v>
-      </c>
-      <c r="N197" t="n">
-        <v>0</v>
-      </c>
-      <c r="O197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11974,11 +10790,11 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0198</t>
+          <t>FRC-SLM-7.0-E-21-0198</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -11990,12 +10806,6 @@
         <v>0</v>
       </c>
       <c r="M198" t="n">
-        <v>0</v>
-      </c>
-      <c r="N198" t="n">
-        <v>0</v>
-      </c>
-      <c r="O198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12033,11 +10843,11 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0199</t>
+          <t>FRC-SLM-7.0-E-21-0199</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
@@ -12049,12 +10859,6 @@
         <v>0</v>
       </c>
       <c r="M199" t="n">
-        <v>0</v>
-      </c>
-      <c r="N199" t="n">
-        <v>0</v>
-      </c>
-      <c r="O199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12092,11 +10896,11 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0200</t>
+          <t>FRC-SLM-7.0-E-21-0200</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>2688</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
@@ -12108,12 +10912,6 @@
         <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
-      </c>
-      <c r="N200" t="n">
-        <v>0</v>
-      </c>
-      <c r="O200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12151,11 +10949,11 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0201</t>
+          <t>FRC-SLM-7.0-E-21-0201</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -12167,12 +10965,6 @@
         <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>0</v>
-      </c>
-      <c r="N201" t="n">
-        <v>0</v>
-      </c>
-      <c r="O201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12210,11 +11002,11 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0202</t>
+          <t>FRC-SLM-7.0-E-21-0202</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -12226,12 +11018,6 @@
         <v>0</v>
       </c>
       <c r="M202" t="n">
-        <v>0</v>
-      </c>
-      <c r="N202" t="n">
-        <v>0</v>
-      </c>
-      <c r="O202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12269,11 +11055,11 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0203</t>
+          <t>FRC-SLM-7.0-E-21-0203</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -12285,12 +11071,6 @@
         <v>0</v>
       </c>
       <c r="M203" t="n">
-        <v>0</v>
-      </c>
-      <c r="N203" t="n">
-        <v>0</v>
-      </c>
-      <c r="O203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12328,11 +11108,11 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0204</t>
+          <t>FRC-SLM-7.0-E-21-0204</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>68880</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -12344,12 +11124,6 @@
         <v>0</v>
       </c>
       <c r="M204" t="n">
-        <v>0</v>
-      </c>
-      <c r="N204" t="n">
-        <v>0</v>
-      </c>
-      <c r="O204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12387,11 +11161,11 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0205</t>
+          <t>FRC-SLM-7.0-E-21-0205</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>157200</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
@@ -12403,12 +11177,6 @@
         <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>0</v>
-      </c>
-      <c r="N205" t="n">
-        <v>0</v>
-      </c>
-      <c r="O205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12446,11 +11214,11 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0206</t>
+          <t>FRC-SLM-7.0-E-21-0206</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -12462,12 +11230,6 @@
         <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>0</v>
-      </c>
-      <c r="N206" t="n">
-        <v>0</v>
-      </c>
-      <c r="O206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12505,11 +11267,11 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0207</t>
+          <t>FRC-SLM-7.0-E-21-0207</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>17872</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
@@ -12521,12 +11283,6 @@
         <v>0</v>
       </c>
       <c r="M207" t="n">
-        <v>0</v>
-      </c>
-      <c r="N207" t="n">
-        <v>0</v>
-      </c>
-      <c r="O207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12564,11 +11320,11 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0208</t>
+          <t>FRC-SLM-7.0-E-21-0208</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>41888</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
@@ -12580,12 +11336,6 @@
         <v>0</v>
       </c>
       <c r="M208" t="n">
-        <v>0</v>
-      </c>
-      <c r="N208" t="n">
-        <v>0</v>
-      </c>
-      <c r="O208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12623,11 +11373,11 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0209</t>
+          <t>FRC-SLM-7.0-E-21-0209</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
@@ -12639,12 +11389,6 @@
         <v>0</v>
       </c>
       <c r="M209" t="n">
-        <v>0</v>
-      </c>
-      <c r="N209" t="n">
-        <v>0</v>
-      </c>
-      <c r="O209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12682,11 +11426,11 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0210</t>
+          <t>FRC-SLM-7.0-E-21-0210</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>12540</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
@@ -12698,12 +11442,6 @@
         <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>0</v>
-      </c>
-      <c r="N210" t="n">
-        <v>0</v>
-      </c>
-      <c r="O210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12741,11 +11479,11 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0211</t>
+          <t>FRC-SLM-7.0-E-21-0211</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -12757,12 +11495,6 @@
         <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>0</v>
-      </c>
-      <c r="N211" t="n">
-        <v>0</v>
-      </c>
-      <c r="O211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12800,11 +11532,11 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0212</t>
+          <t>FRC-SLM-7.0-E-21-0212</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>4824</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -12816,12 +11548,6 @@
         <v>0</v>
       </c>
       <c r="M212" t="n">
-        <v>0</v>
-      </c>
-      <c r="N212" t="n">
-        <v>0</v>
-      </c>
-      <c r="O212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12859,11 +11585,11 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0213</t>
+          <t>FRC-SLM-7.0-E-21-0213</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -12875,12 +11601,6 @@
         <v>0</v>
       </c>
       <c r="M213" t="n">
-        <v>0</v>
-      </c>
-      <c r="N213" t="n">
-        <v>0</v>
-      </c>
-      <c r="O213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12918,11 +11638,11 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0214</t>
+          <t>FRC-SLM-7.0-E-21-0214</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
@@ -12934,12 +11654,6 @@
         <v>0</v>
       </c>
       <c r="M214" t="n">
-        <v>0</v>
-      </c>
-      <c r="N214" t="n">
-        <v>0</v>
-      </c>
-      <c r="O214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12977,11 +11691,11 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0215</t>
+          <t>FRC-SLM-7.0-E-21-0215</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>18560</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -12993,12 +11707,6 @@
         <v>0</v>
       </c>
       <c r="M215" t="n">
-        <v>0</v>
-      </c>
-      <c r="N215" t="n">
-        <v>0</v>
-      </c>
-      <c r="O215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13036,11 +11744,11 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0216</t>
+          <t>FRC-SLM-7.0-E-21-0216</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -13052,12 +11760,6 @@
         <v>0</v>
       </c>
       <c r="M216" t="n">
-        <v>0</v>
-      </c>
-      <c r="N216" t="n">
-        <v>0</v>
-      </c>
-      <c r="O216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13095,11 +11797,11 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0217</t>
+          <t>FRC-SLM-7.0-E-21-0217</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>63000</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -13111,12 +11813,6 @@
         <v>0</v>
       </c>
       <c r="M217" t="n">
-        <v>0</v>
-      </c>
-      <c r="N217" t="n">
-        <v>0</v>
-      </c>
-      <c r="O217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13154,11 +11850,11 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0218</t>
+          <t>FRC-SLM-7.0-E-21-0218</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -13170,12 +11866,6 @@
         <v>0</v>
       </c>
       <c r="M218" t="n">
-        <v>0</v>
-      </c>
-      <c r="N218" t="n">
-        <v>0</v>
-      </c>
-      <c r="O218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13213,11 +11903,11 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0219</t>
+          <t>FRC-SLM-7.0-E-21-0219</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
@@ -13229,12 +11919,6 @@
         <v>0</v>
       </c>
       <c r="M219" t="n">
-        <v>0</v>
-      </c>
-      <c r="N219" t="n">
-        <v>0</v>
-      </c>
-      <c r="O219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13272,11 +11956,11 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0220</t>
+          <t>FRC-SLM-7.0-E-21-0220</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>24400</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
@@ -13288,12 +11972,6 @@
         <v>0</v>
       </c>
       <c r="M220" t="n">
-        <v>0</v>
-      </c>
-      <c r="N220" t="n">
-        <v>0</v>
-      </c>
-      <c r="O220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13329,11 +12007,11 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0221</t>
+          <t>FRC-SLM-7.0-E-21-0221</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
@@ -13345,12 +12023,6 @@
         <v>0</v>
       </c>
       <c r="M221" t="n">
-        <v>0</v>
-      </c>
-      <c r="N221" t="n">
-        <v>0</v>
-      </c>
-      <c r="O221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13386,11 +12058,11 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0222</t>
+          <t>FRC-SLM-7.0-E-21-0222</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>10260</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
@@ -13402,12 +12074,6 @@
         <v>0</v>
       </c>
       <c r="M222" t="n">
-        <v>0</v>
-      </c>
-      <c r="N222" t="n">
-        <v>0</v>
-      </c>
-      <c r="O222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13443,11 +12109,11 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0223</t>
+          <t>FRC-SLM-7.0-E-21-0223</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>35100</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -13459,12 +12125,6 @@
         <v>0</v>
       </c>
       <c r="M223" t="n">
-        <v>0</v>
-      </c>
-      <c r="N223" t="n">
-        <v>0</v>
-      </c>
-      <c r="O223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13500,11 +12160,11 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0224</t>
+          <t>FRC-SLM-7.0-E-21-0224</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>24480</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
@@ -13516,12 +12176,6 @@
         <v>0</v>
       </c>
       <c r="M224" t="n">
-        <v>0</v>
-      </c>
-      <c r="N224" t="n">
-        <v>0</v>
-      </c>
-      <c r="O224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13557,11 +12211,11 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0225</t>
+          <t>FRC-SLM-7.0-E-21-0225</t>
         </is>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>3315</v>
       </c>
       <c r="J225" t="n">
         <v>0</v>
@@ -13573,12 +12227,6 @@
         <v>0</v>
       </c>
       <c r="M225" t="n">
-        <v>0</v>
-      </c>
-      <c r="N225" t="n">
-        <v>0</v>
-      </c>
-      <c r="O225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13614,11 +12262,11 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0226</t>
+          <t>FRC-SLM-7.0-E-21-0226</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>65100</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -13630,12 +12278,6 @@
         <v>0</v>
       </c>
       <c r="M226" t="n">
-        <v>0</v>
-      </c>
-      <c r="N226" t="n">
-        <v>0</v>
-      </c>
-      <c r="O226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13673,11 +12315,11 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0227</t>
+          <t>FRC-SLM-7.0-E-21-0227</t>
         </is>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>85600</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -13689,12 +12331,6 @@
         <v>0</v>
       </c>
       <c r="M227" t="n">
-        <v>0</v>
-      </c>
-      <c r="N227" t="n">
-        <v>0</v>
-      </c>
-      <c r="O227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13730,11 +12366,11 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0228</t>
+          <t>FRC-SLM-7.0-E-21-0228</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>13260</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -13746,12 +12382,6 @@
         <v>0</v>
       </c>
       <c r="M228" t="n">
-        <v>0</v>
-      </c>
-      <c r="N228" t="n">
-        <v>0</v>
-      </c>
-      <c r="O228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13787,11 +12417,11 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0229</t>
+          <t>FRC-SLM-7.0-E-21-0229</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>17600</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -13803,12 +12433,6 @@
         <v>0</v>
       </c>
       <c r="M229" t="n">
-        <v>0</v>
-      </c>
-      <c r="N229" t="n">
-        <v>0</v>
-      </c>
-      <c r="O229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13844,11 +12468,11 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0230</t>
+          <t>FRC-SLM-7.0-E-21-0230</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>11760</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -13860,12 +12484,6 @@
         <v>0</v>
       </c>
       <c r="M230" t="n">
-        <v>0</v>
-      </c>
-      <c r="N230" t="n">
-        <v>0</v>
-      </c>
-      <c r="O230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13901,11 +12519,11 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0231</t>
+          <t>FRC-SLM-7.0-E-21-0231</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -13917,12 +12535,6 @@
         <v>0</v>
       </c>
       <c r="M231" t="n">
-        <v>0</v>
-      </c>
-      <c r="N231" t="n">
-        <v>0</v>
-      </c>
-      <c r="O231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13958,11 +12570,11 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0232</t>
+          <t>FRC-SLM-7.0-E-21-0232</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>3116</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -13974,12 +12586,6 @@
         <v>0</v>
       </c>
       <c r="M232" t="n">
-        <v>0</v>
-      </c>
-      <c r="N232" t="n">
-        <v>0</v>
-      </c>
-      <c r="O232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14015,11 +12621,11 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0233</t>
+          <t>FRC-SLM-7.0-E-21-0233</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>45720</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -14031,12 +12637,6 @@
         <v>0</v>
       </c>
       <c r="M233" t="n">
-        <v>0</v>
-      </c>
-      <c r="N233" t="n">
-        <v>0</v>
-      </c>
-      <c r="O233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14072,11 +12672,11 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0234</t>
+          <t>FRC-SLM-7.0-E-21-0234</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
@@ -14088,12 +12688,6 @@
         <v>0</v>
       </c>
       <c r="M234" t="n">
-        <v>0</v>
-      </c>
-      <c r="N234" t="n">
-        <v>0</v>
-      </c>
-      <c r="O234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14129,11 +12723,11 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0235</t>
+          <t>FRC-SLM-7.0-E-21-0235</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -14145,12 +12739,6 @@
         <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>0</v>
-      </c>
-      <c r="N235" t="n">
-        <v>0</v>
-      </c>
-      <c r="O235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14186,11 +12774,11 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0236</t>
+          <t>FRC-SLM-7.0-E-21-0236</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>27600</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
@@ -14202,12 +12790,6 @@
         <v>0</v>
       </c>
       <c r="M236" t="n">
-        <v>0</v>
-      </c>
-      <c r="N236" t="n">
-        <v>0</v>
-      </c>
-      <c r="O236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14243,11 +12825,11 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0237</t>
+          <t>FRC-SLM-7.0-P-21-0237</t>
         </is>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>158374.125</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -14259,12 +12841,6 @@
         <v>0</v>
       </c>
       <c r="M237" t="n">
-        <v>0</v>
-      </c>
-      <c r="N237" t="n">
-        <v>0</v>
-      </c>
-      <c r="O237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14300,11 +12876,11 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0238</t>
+          <t>FRC-SLM-7.0-P-21-0238</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>29767.5</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
@@ -14316,12 +12892,6 @@
         <v>0</v>
       </c>
       <c r="M238" t="n">
-        <v>0</v>
-      </c>
-      <c r="N238" t="n">
-        <v>0</v>
-      </c>
-      <c r="O238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14357,11 +12927,11 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0239</t>
+          <t>FRC-SLM-7.0-P-21-0239</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>20475</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
@@ -14373,12 +12943,6 @@
         <v>0</v>
       </c>
       <c r="M239" t="n">
-        <v>0</v>
-      </c>
-      <c r="N239" t="n">
-        <v>0</v>
-      </c>
-      <c r="O239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14414,11 +12978,11 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0240</t>
+          <t>FRC-SLM-7.0-P-21-0240</t>
         </is>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>38892</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
@@ -14430,12 +12994,6 @@
         <v>0</v>
       </c>
       <c r="M240" t="n">
-        <v>0</v>
-      </c>
-      <c r="N240" t="n">
-        <v>0</v>
-      </c>
-      <c r="O240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14471,11 +13029,11 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0241</t>
+          <t>FRC-SLM-7.0-P-21-0241</t>
         </is>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>15669.5</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -14487,12 +13045,6 @@
         <v>0</v>
       </c>
       <c r="M241" t="n">
-        <v>0</v>
-      </c>
-      <c r="N241" t="n">
-        <v>0</v>
-      </c>
-      <c r="O241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14528,11 +13080,11 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0242</t>
+          <t>FRC-SLM-7.0-I-21-0242</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>49045.935</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -14544,12 +13096,6 @@
         <v>0</v>
       </c>
       <c r="M242" t="n">
-        <v>0</v>
-      </c>
-      <c r="N242" t="n">
-        <v>0</v>
-      </c>
-      <c r="O242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14585,11 +13131,11 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0243</t>
+          <t>FRC-SLM-7.0-I-21-0243</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>200558.775</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
@@ -14601,12 +13147,6 @@
         <v>0</v>
       </c>
       <c r="M243" t="n">
-        <v>0</v>
-      </c>
-      <c r="N243" t="n">
-        <v>0</v>
-      </c>
-      <c r="O243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14642,11 +13182,11 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0244</t>
+          <t>FRC-SLM-7.0-I-21-0244</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>120534.675</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -14658,12 +13198,6 @@
         <v>0</v>
       </c>
       <c r="M244" t="n">
-        <v>0</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0</v>
-      </c>
-      <c r="O244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14699,11 +13233,11 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0245</t>
+          <t>FRC-SLM-7.0-I-21-0245</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>180116.445</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -14715,12 +13249,6 @@
         <v>0</v>
       </c>
       <c r="M245" t="n">
-        <v>0</v>
-      </c>
-      <c r="N245" t="n">
-        <v>0</v>
-      </c>
-      <c r="O245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14756,11 +13284,11 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0246</t>
+          <t>FRC-SLM-7.0-I-21-0246</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>87875.03999999999</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
@@ -14772,12 +13300,6 @@
         <v>0</v>
       </c>
       <c r="M246" t="n">
-        <v>0</v>
-      </c>
-      <c r="N246" t="n">
-        <v>0</v>
-      </c>
-      <c r="O246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14813,11 +13335,11 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0247</t>
+          <t>FRC-SLM-7.0-I-21-0247</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>229743.78</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
@@ -14829,12 +13351,6 @@
         <v>0</v>
       </c>
       <c r="M247" t="n">
-        <v>0</v>
-      </c>
-      <c r="N247" t="n">
-        <v>0</v>
-      </c>
-      <c r="O247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14870,11 +13386,11 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0248</t>
+          <t>FRC-SLM-7.0-I-21-0248</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>49852.5</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -14886,12 +13402,6 @@
         <v>0</v>
       </c>
       <c r="M248" t="n">
-        <v>0</v>
-      </c>
-      <c r="N248" t="n">
-        <v>0</v>
-      </c>
-      <c r="O248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14927,11 +13437,11 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0249</t>
+          <t>FRC-SLM-7.0-I-21-0249</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
@@ -14943,12 +13453,6 @@
         <v>0</v>
       </c>
       <c r="M249" t="n">
-        <v>0</v>
-      </c>
-      <c r="N249" t="n">
-        <v>0</v>
-      </c>
-      <c r="O249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14984,11 +13488,11 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0250</t>
+          <t>FRC-SLM-7.0-I-21-0250</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>97879.58249999999</v>
       </c>
       <c r="J250" t="n">
         <v>0</v>
@@ -15000,12 +13504,6 @@
         <v>0</v>
       </c>
       <c r="M250" t="n">
-        <v>0</v>
-      </c>
-      <c r="N250" t="n">
-        <v>0</v>
-      </c>
-      <c r="O250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15041,11 +13539,11 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0251</t>
+          <t>FRC-SLM-7.0-I-21-0251</t>
         </is>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>44529.375</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -15057,12 +13555,6 @@
         <v>0</v>
       </c>
       <c r="M251" t="n">
-        <v>0</v>
-      </c>
-      <c r="N251" t="n">
-        <v>0</v>
-      </c>
-      <c r="O251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15098,11 +13590,11 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0252</t>
+          <t>FRC-SLM-7.0-I-21-0252</t>
         </is>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>24225</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -15114,12 +13606,6 @@
         <v>0</v>
       </c>
       <c r="M252" t="n">
-        <v>0</v>
-      </c>
-      <c r="N252" t="n">
-        <v>0</v>
-      </c>
-      <c r="O252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15155,11 +13641,11 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0253</t>
+          <t>FRC-SLM-7.0-I-21-0253</t>
         </is>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>58718</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
@@ -15171,12 +13657,6 @@
         <v>0</v>
       </c>
       <c r="M253" t="n">
-        <v>0</v>
-      </c>
-      <c r="N253" t="n">
-        <v>0</v>
-      </c>
-      <c r="O253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15212,11 +13692,11 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0254</t>
+          <t>FRC-SLM-7.0-I-21-0254</t>
         </is>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>602236.05</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -15228,12 +13708,6 @@
         <v>0</v>
       </c>
       <c r="M254" t="n">
-        <v>0</v>
-      </c>
-      <c r="N254" t="n">
-        <v>0</v>
-      </c>
-      <c r="O254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15269,11 +13743,11 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0255</t>
+          <t>FRC-SLM-7.0-I-21-0255</t>
         </is>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>408000</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
@@ -15285,12 +13759,6 @@
         <v>0</v>
       </c>
       <c r="M255" t="n">
-        <v>0</v>
-      </c>
-      <c r="N255" t="n">
-        <v>0</v>
-      </c>
-      <c r="O255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15326,11 +13794,11 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0256</t>
+          <t>FRC-SLM-7.0-I-21-0256</t>
         </is>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>507284.25</v>
       </c>
       <c r="J256" t="n">
         <v>0</v>
@@ -15342,12 +13810,6 @@
         <v>0</v>
       </c>
       <c r="M256" t="n">
-        <v>0</v>
-      </c>
-      <c r="N256" t="n">
-        <v>0</v>
-      </c>
-      <c r="O256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15383,11 +13845,11 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0257</t>
+          <t>FRC-SLM-7.0-I-21-0257</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>36645.9225</v>
       </c>
       <c r="J257" t="n">
         <v>0</v>
@@ -15399,12 +13861,6 @@
         <v>0</v>
       </c>
       <c r="M257" t="n">
-        <v>0</v>
-      </c>
-      <c r="N257" t="n">
-        <v>0</v>
-      </c>
-      <c r="O257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15440,11 +13896,11 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0258</t>
+          <t>FRC-SLM-7.0-I-21-0258</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>92820</v>
       </c>
       <c r="J258" t="n">
         <v>0</v>
@@ -15456,12 +13912,6 @@
         <v>0</v>
       </c>
       <c r="M258" t="n">
-        <v>0</v>
-      </c>
-      <c r="N258" t="n">
-        <v>0</v>
-      </c>
-      <c r="O258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15497,11 +13947,11 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0259</t>
+          <t>FRC-SLM-7.0-I-21-0259</t>
         </is>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>33468.75</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
@@ -15513,12 +13963,6 @@
         <v>0</v>
       </c>
       <c r="M259" t="n">
-        <v>0</v>
-      </c>
-      <c r="N259" t="n">
-        <v>0</v>
-      </c>
-      <c r="O259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15554,11 +13998,11 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0260</t>
+          <t>FRC-SLM-7.0-I-21-0260</t>
         </is>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>93712.5</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
@@ -15570,12 +14014,6 @@
         <v>0</v>
       </c>
       <c r="M260" t="n">
-        <v>0</v>
-      </c>
-      <c r="N260" t="n">
-        <v>0</v>
-      </c>
-      <c r="O260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15611,11 +14049,11 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0261</t>
+          <t>FRC-SLM-7.0-I-21-0261</t>
         </is>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>183468.675</v>
       </c>
       <c r="J261" t="n">
         <v>0</v>
@@ -15627,12 +14065,6 @@
         <v>0</v>
       </c>
       <c r="M261" t="n">
-        <v>0</v>
-      </c>
-      <c r="N261" t="n">
-        <v>0</v>
-      </c>
-      <c r="O261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15668,11 +14100,11 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0262</t>
+          <t>FRC-SLM-7.0-I-21-0262</t>
         </is>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>30929.5875</v>
       </c>
       <c r="J262" t="n">
         <v>0</v>
@@ -15684,12 +14116,6 @@
         <v>0</v>
       </c>
       <c r="M262" t="n">
-        <v>0</v>
-      </c>
-      <c r="N262" t="n">
-        <v>0</v>
-      </c>
-      <c r="O262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15725,11 +14151,11 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0263</t>
+          <t>FRC-SLM-7.0-I-21-0263</t>
         </is>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>73702.14</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
@@ -15741,12 +14167,6 @@
         <v>0</v>
       </c>
       <c r="M263" t="n">
-        <v>0</v>
-      </c>
-      <c r="N263" t="n">
-        <v>0</v>
-      </c>
-      <c r="O263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15782,11 +14202,11 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0264</t>
+          <t>FRC-SLM-7.0-I-21-0264</t>
         </is>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>213290.7975</v>
       </c>
       <c r="J264" t="n">
         <v>0</v>
@@ -15798,12 +14218,6 @@
         <v>0</v>
       </c>
       <c r="M264" t="n">
-        <v>0</v>
-      </c>
-      <c r="N264" t="n">
-        <v>0</v>
-      </c>
-      <c r="O264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15839,11 +14253,11 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0265</t>
+          <t>FRC-SLM-7.0-I-21-0265</t>
         </is>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>31683.75</v>
       </c>
       <c r="J265" t="n">
         <v>0</v>
@@ -15855,12 +14269,6 @@
         <v>0</v>
       </c>
       <c r="M265" t="n">
-        <v>0</v>
-      </c>
-      <c r="N265" t="n">
-        <v>0</v>
-      </c>
-      <c r="O265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15896,11 +14304,11 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0266</t>
+          <t>FRC-SLM-7.0-I-21-0266</t>
         </is>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>26922.9</v>
       </c>
       <c r="J266" t="n">
         <v>0</v>
@@ -15912,12 +14320,6 @@
         <v>0</v>
       </c>
       <c r="M266" t="n">
-        <v>0</v>
-      </c>
-      <c r="N266" t="n">
-        <v>0</v>
-      </c>
-      <c r="O266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15953,11 +14355,11 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0267</t>
+          <t>FRC-SLM-7.0-I-21-0267</t>
         </is>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>18275</v>
       </c>
       <c r="J267" t="n">
         <v>0</v>
@@ -15969,12 +14371,6 @@
         <v>0</v>
       </c>
       <c r="M267" t="n">
-        <v>0</v>
-      </c>
-      <c r="N267" t="n">
-        <v>0</v>
-      </c>
-      <c r="O267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16010,11 +14406,11 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0268</t>
+          <t>FRC-SLM-7.0-I-21-0268</t>
         </is>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>123250</v>
       </c>
       <c r="J268" t="n">
         <v>0</v>
@@ -16026,12 +14422,6 @@
         <v>0</v>
       </c>
       <c r="M268" t="n">
-        <v>0</v>
-      </c>
-      <c r="N268" t="n">
-        <v>0</v>
-      </c>
-      <c r="O268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16067,11 +14457,11 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0269</t>
+          <t>FRC-SLM-7.0-I-21-0269</t>
         </is>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>30827.12</v>
       </c>
       <c r="J269" t="n">
         <v>0</v>
@@ -16083,12 +14473,6 @@
         <v>0</v>
       </c>
       <c r="M269" t="n">
-        <v>0</v>
-      </c>
-      <c r="N269" t="n">
-        <v>0</v>
-      </c>
-      <c r="O269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16124,11 +14508,11 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0270</t>
+          <t>FRC-SLM-7.0-I-21-0270</t>
         </is>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>70720</v>
       </c>
       <c r="J270" t="n">
         <v>0</v>
@@ -16140,12 +14524,6 @@
         <v>0</v>
       </c>
       <c r="M270" t="n">
-        <v>0</v>
-      </c>
-      <c r="N270" t="n">
-        <v>0</v>
-      </c>
-      <c r="O270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16181,11 +14559,11 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0271</t>
+          <t>FRC-SLM-7.0-I-21-0271</t>
         </is>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>63537.5</v>
       </c>
       <c r="J271" t="n">
         <v>0</v>
@@ -16197,12 +14575,6 @@
         <v>0</v>
       </c>
       <c r="M271" t="n">
-        <v>0</v>
-      </c>
-      <c r="N271" t="n">
-        <v>0</v>
-      </c>
-      <c r="O271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16238,11 +14610,11 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0272</t>
+          <t>FRC-SLM-7.0-I-21-0272</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>119510</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
@@ -16254,12 +14626,6 @@
         <v>0</v>
       </c>
       <c r="M272" t="n">
-        <v>0</v>
-      </c>
-      <c r="N272" t="n">
-        <v>0</v>
-      </c>
-      <c r="O272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16295,11 +14661,11 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0273</t>
+          <t>FRC-SLM-7.0-I-21-0273</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>114058.3125</v>
       </c>
       <c r="J273" t="n">
         <v>0</v>
@@ -16311,12 +14677,6 @@
         <v>0</v>
       </c>
       <c r="M273" t="n">
-        <v>0</v>
-      </c>
-      <c r="N273" t="n">
-        <v>0</v>
-      </c>
-      <c r="O273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16352,11 +14712,11 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0274</t>
+          <t>FRC-SLM-7.0-I-21-0274</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>3315</v>
       </c>
       <c r="J274" t="n">
         <v>0</v>
@@ -16368,12 +14728,6 @@
         <v>0</v>
       </c>
       <c r="M274" t="n">
-        <v>0</v>
-      </c>
-      <c r="N274" t="n">
-        <v>0</v>
-      </c>
-      <c r="O274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16409,11 +14763,11 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0275</t>
+          <t>FRC-SLM-7.0-F-21-0275</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="J275" t="n">
         <v>0</v>
@@ -16425,12 +14779,6 @@
         <v>0</v>
       </c>
       <c r="M275" t="n">
-        <v>0</v>
-      </c>
-      <c r="N275" t="n">
-        <v>0</v>
-      </c>
-      <c r="O275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16466,11 +14814,11 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0276</t>
+          <t>FRC-SLM-7.0-F-21-0276</t>
         </is>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>93600</v>
       </c>
       <c r="J276" t="n">
         <v>0</v>
@@ -16482,12 +14830,6 @@
         <v>0</v>
       </c>
       <c r="M276" t="n">
-        <v>0</v>
-      </c>
-      <c r="N276" t="n">
-        <v>0</v>
-      </c>
-      <c r="O276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16523,11 +14865,11 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0277</t>
+          <t>FRC-SLM-7.0-F-21-0277</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>132000</v>
       </c>
       <c r="J277" t="n">
         <v>0</v>
@@ -16539,12 +14881,6 @@
         <v>0</v>
       </c>
       <c r="M277" t="n">
-        <v>0</v>
-      </c>
-      <c r="N277" t="n">
-        <v>0</v>
-      </c>
-      <c r="O277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16580,11 +14916,11 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0278</t>
+          <t>FRC-SLM-7.0-F-21-0278</t>
         </is>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="J278" t="n">
         <v>0</v>
@@ -16596,12 +14932,6 @@
         <v>0</v>
       </c>
       <c r="M278" t="n">
-        <v>0</v>
-      </c>
-      <c r="N278" t="n">
-        <v>0</v>
-      </c>
-      <c r="O278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16637,11 +14967,11 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0279</t>
+          <t>FRC-SLM-7.0-F-21-0279</t>
         </is>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>58800</v>
       </c>
       <c r="J279" t="n">
         <v>0</v>
@@ -16653,12 +14983,6 @@
         <v>0</v>
       </c>
       <c r="M279" t="n">
-        <v>0</v>
-      </c>
-      <c r="N279" t="n">
-        <v>0</v>
-      </c>
-      <c r="O279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16694,11 +15018,11 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0280</t>
+          <t>FRC-SLM-7.0-F-21-0280</t>
         </is>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>40640</v>
       </c>
       <c r="J280" t="n">
         <v>0</v>
@@ -16710,12 +15034,6 @@
         <v>0</v>
       </c>
       <c r="M280" t="n">
-        <v>0</v>
-      </c>
-      <c r="N280" t="n">
-        <v>0</v>
-      </c>
-      <c r="O280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16751,11 +15069,11 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0281</t>
+          <t>FRC-SLM-7.0-F-21-0281</t>
         </is>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>37600</v>
       </c>
       <c r="J281" t="n">
         <v>0</v>
@@ -16767,12 +15085,6 @@
         <v>0</v>
       </c>
       <c r="M281" t="n">
-        <v>0</v>
-      </c>
-      <c r="N281" t="n">
-        <v>0</v>
-      </c>
-      <c r="O281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16808,11 +15120,11 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0282</t>
+          <t>FRC-SLM-7.0-F-21-0282</t>
         </is>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>76800</v>
       </c>
       <c r="J282" t="n">
         <v>0</v>
@@ -16824,12 +15136,6 @@
         <v>0</v>
       </c>
       <c r="M282" t="n">
-        <v>0</v>
-      </c>
-      <c r="N282" t="n">
-        <v>0</v>
-      </c>
-      <c r="O282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16865,11 +15171,11 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0283</t>
+          <t>FRC-SLM-7.0-F-21-0283</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>176640</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
@@ -16881,12 +15187,6 @@
         <v>0</v>
       </c>
       <c r="M283" t="n">
-        <v>0</v>
-      </c>
-      <c r="N283" t="n">
-        <v>0</v>
-      </c>
-      <c r="O283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16924,11 +15224,11 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0284</t>
+          <t>FRC-SLM-7.0-F-21-0284</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
@@ -16940,12 +15240,6 @@
         <v>0</v>
       </c>
       <c r="M284" t="n">
-        <v>0</v>
-      </c>
-      <c r="N284" t="n">
-        <v>0</v>
-      </c>
-      <c r="O284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16983,11 +15277,11 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0285</t>
+          <t>FRC-SLM-7.0-F-21-0285</t>
         </is>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>69600</v>
       </c>
       <c r="J285" t="n">
         <v>0</v>
@@ -16999,12 +15293,6 @@
         <v>0</v>
       </c>
       <c r="M285" t="n">
-        <v>0</v>
-      </c>
-      <c r="N285" t="n">
-        <v>0</v>
-      </c>
-      <c r="O285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17042,11 +15330,11 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0286</t>
+          <t>FRC-SLM-7.0-F-21-0286</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>112000</v>
       </c>
       <c r="J286" t="n">
         <v>0</v>
@@ -17058,12 +15346,6 @@
         <v>0</v>
       </c>
       <c r="M286" t="n">
-        <v>0</v>
-      </c>
-      <c r="N286" t="n">
-        <v>0</v>
-      </c>
-      <c r="O286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17099,11 +15381,11 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0287</t>
+          <t>FRC-SLM-7.0-F-21-0287</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="J287" t="n">
         <v>0</v>
@@ -17115,12 +15397,6 @@
         <v>0</v>
       </c>
       <c r="M287" t="n">
-        <v>0</v>
-      </c>
-      <c r="N287" t="n">
-        <v>0</v>
-      </c>
-      <c r="O287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17158,11 +15434,11 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0288</t>
+          <t>FRC-SLM-7.0-F-21-0288</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
@@ -17174,12 +15450,6 @@
         <v>0</v>
       </c>
       <c r="M288" t="n">
-        <v>0</v>
-      </c>
-      <c r="N288" t="n">
-        <v>0</v>
-      </c>
-      <c r="O288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17217,11 +15487,11 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0289</t>
+          <t>FRC-SLM-7.0-F-21-0289</t>
         </is>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>338000</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
@@ -17233,12 +15503,6 @@
         <v>0</v>
       </c>
       <c r="M289" t="n">
-        <v>0</v>
-      </c>
-      <c r="N289" t="n">
-        <v>0</v>
-      </c>
-      <c r="O289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17276,11 +15540,11 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0290</t>
+          <t>FRC-SLM-7.0-F-21-0290</t>
         </is>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>6760</v>
       </c>
       <c r="J290" t="n">
         <v>0</v>
@@ -17292,12 +15556,6 @@
         <v>0</v>
       </c>
       <c r="M290" t="n">
-        <v>0</v>
-      </c>
-      <c r="N290" t="n">
-        <v>0</v>
-      </c>
-      <c r="O290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17335,11 +15593,11 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0291</t>
+          <t>FRC-SLM-7.0-F-21-0291</t>
         </is>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="J291" t="n">
         <v>0</v>
@@ -17351,12 +15609,6 @@
         <v>0</v>
       </c>
       <c r="M291" t="n">
-        <v>0</v>
-      </c>
-      <c r="N291" t="n">
-        <v>0</v>
-      </c>
-      <c r="O291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17394,11 +15646,11 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0292</t>
+          <t>FRC-SLM-7.0-F-21-0292</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>18720</v>
       </c>
       <c r="J292" t="n">
         <v>0</v>
@@ -17410,12 +15662,6 @@
         <v>0</v>
       </c>
       <c r="M292" t="n">
-        <v>0</v>
-      </c>
-      <c r="N292" t="n">
-        <v>0</v>
-      </c>
-      <c r="O292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17453,11 +15699,11 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0293</t>
+          <t>FRC-SLM-7.0-F-21-0293</t>
         </is>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>94744</v>
       </c>
       <c r="J293" t="n">
         <v>0</v>
@@ -17469,12 +15715,6 @@
         <v>0</v>
       </c>
       <c r="M293" t="n">
-        <v>0</v>
-      </c>
-      <c r="N293" t="n">
-        <v>0</v>
-      </c>
-      <c r="O293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17512,11 +15752,11 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0294</t>
+          <t>FRC-SLM-7.0-F-21-0294</t>
         </is>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>7150</v>
       </c>
       <c r="J294" t="n">
         <v>0</v>
@@ -17528,12 +15768,6 @@
         <v>0</v>
       </c>
       <c r="M294" t="n">
-        <v>0</v>
-      </c>
-      <c r="N294" t="n">
-        <v>0</v>
-      </c>
-      <c r="O294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17571,11 +15805,11 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0295</t>
+          <t>FRC-SLM-7.0-F-21-0295</t>
         </is>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="J295" t="n">
         <v>0</v>
@@ -17587,12 +15821,6 @@
         <v>0</v>
       </c>
       <c r="M295" t="n">
-        <v>0</v>
-      </c>
-      <c r="N295" t="n">
-        <v>0</v>
-      </c>
-      <c r="O295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17628,11 +15856,11 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0296</t>
+          <t>FRC-SLM-7.0-F-21-0296</t>
         </is>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>945888</v>
       </c>
       <c r="J296" t="n">
         <v>0</v>
@@ -17644,12 +15872,6 @@
         <v>0</v>
       </c>
       <c r="M296" t="n">
-        <v>0</v>
-      </c>
-      <c r="N296" t="n">
-        <v>0</v>
-      </c>
-      <c r="O296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17685,11 +15907,11 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0297</t>
+          <t>FRC-SLM-7.0-F-21-0297</t>
         </is>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>96000</v>
       </c>
       <c r="J297" t="n">
         <v>0</v>
@@ -17701,12 +15923,6 @@
         <v>0</v>
       </c>
       <c r="M297" t="n">
-        <v>0</v>
-      </c>
-      <c r="N297" t="n">
-        <v>0</v>
-      </c>
-      <c r="O297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17742,11 +15958,11 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0298</t>
+          <t>FRC-SLM-7.0-F-21-0298</t>
         </is>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>63040</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
@@ -17758,12 +15974,6 @@
         <v>0</v>
       </c>
       <c r="M298" t="n">
-        <v>0</v>
-      </c>
-      <c r="N298" t="n">
-        <v>0</v>
-      </c>
-      <c r="O298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17799,11 +16009,11 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0299</t>
+          <t>FRC-SLM-7.0-F-21-0299</t>
         </is>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>40080</v>
       </c>
       <c r="J299" t="n">
         <v>0</v>
@@ -17815,12 +16025,6 @@
         <v>0</v>
       </c>
       <c r="M299" t="n">
-        <v>0</v>
-      </c>
-      <c r="N299" t="n">
-        <v>0</v>
-      </c>
-      <c r="O299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17856,11 +16060,11 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0300</t>
+          <t>FRC-SLM-7.0-F-21-0300</t>
         </is>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>150400</v>
       </c>
       <c r="J300" t="n">
         <v>0</v>
@@ -17872,12 +16076,6 @@
         <v>0</v>
       </c>
       <c r="M300" t="n">
-        <v>0</v>
-      </c>
-      <c r="N300" t="n">
-        <v>0</v>
-      </c>
-      <c r="O300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17913,11 +16111,11 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0301</t>
+          <t>FRC-SLM-7.0-F-21-0301</t>
         </is>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>36400</v>
       </c>
       <c r="J301" t="n">
         <v>0</v>
@@ -17929,12 +16127,6 @@
         <v>0</v>
       </c>
       <c r="M301" t="n">
-        <v>0</v>
-      </c>
-      <c r="N301" t="n">
-        <v>0</v>
-      </c>
-      <c r="O301" t="n">
         <v>0</v>
       </c>
     </row>

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-12184.71428571428</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-12184.71428571428</v>
+        <v>16246.28571428572</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>-11520</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-9043.739635514017</v>
+        <v>-0.003074766353165614</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>-8100</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-4050</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>-12064.28571428572</v>
+        <v>16085.71428571428</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>-45642.85714285713</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>-3870</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>-14464.5</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>-23196</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>34034</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>-71571.42857142858</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>-165021.4285714285</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>-35970</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>-17106.3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>-4136.937142857145</v>
+        <v>0.002857142853827099</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>-1965</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>-8213.700000000001</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>-17220</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>-10866</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>-2020.839999999997</v>
+        <v>28291.76</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>-27000</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>-14094</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>-93350.39999999998</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>-18144</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>-4200</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>-144672</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>-79878.85714285714</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>-160317.8571428571</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>-20534.4</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>-10773</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>-6750</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>-29400</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>-14661</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-12184.71428571428</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16246.28571428572</v>
+        <v>4061.571428571431</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-0.003074766353165614</v>
+        <v>3014.578121495326</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>16085.71428571428</v>
+        <v>4021.428571428565</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>15214.28571428571</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>4821.5</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>34034</v>
+        <v>19448</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>23857.14285714286</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>55007.14285714284</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>11990</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>5702.099999999999</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.002857142853827099</v>
+        <v>1378.981224489794</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2737.900000000001</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>28291.76</v>
+        <v>22229.24</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>31116.8</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>6048</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>48224</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>26626.28571428572</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>53439.28571428571</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>6844.800000000001</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-12184.71428571428</v>
+        <v>16246.28571428572</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16246.28571428572</v>
+        <v>4061.571428571431</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16246.28571428572</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-0.003074766353165614</v>
+        <v>3014.578121495326</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>16085.71428571428</v>
+        <v>4021.428571428565</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>15214.28571428571</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>4821.5</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>34034</v>
+        <v>19448</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>23857.14285714286</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>55007.14285714284</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>11990</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>5702.099999999999</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.002857142853827099</v>
+        <v>1378.981224489794</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2737.900000000001</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>5740</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>28291.76</v>
+        <v>22229.24</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>31116.8</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>6048</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>48224</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>26626.28571428572</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>53439.28571428571</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>6844.800000000001</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/deda4c959a5c5fd1/Desktop/AFAR/afar_project/csv_path/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_14DD37815B10527EF71A3E11595ED87656CE7166" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D976E44-9D5B-43BE-AC5F-1591F890F442}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_7A41D79D5B605922DFFB2D11595ED87656CE5191" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D851A733-50DB-4E7B-9FC9-AEAB80276B19}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2610,7 +2610,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,13 +2685,13 @@
         <v>3.637978807091713E-12</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L2">
-        <v>3.637978807091713E-12</v>
+        <v>50000</v>
       </c>
       <c r="M2">
         <v>0</v>

--- a/afar_project/csv_path/sample/Impairment_data.xlsx
+++ b/afar_project/csv_path/sample/Impairment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/deda4c959a5c5fd1/Desktop/AFAR/afar_project/csv_path/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7A41D79D5B605922DFFB2D11595ED87656CE5191" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D851A733-50DB-4E7B-9FC9-AEAB80276B19}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_79C5578F5B30D5002B9A3D11595ED87656CE22A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F0B542B-B8DF-47EA-9686-0DFD0EE80758}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,52 +76,52 @@
     <t>Rubel/Local</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0001</t>
+    <t>FRC-HQ-SLM-O-17-0001</t>
   </si>
   <si>
     <t>Sider Extension</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0002</t>
+    <t>FRC-HQ-SLM-O-17-0002</t>
   </si>
   <si>
     <t>Executive Table</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0003</t>
+    <t>FRC-HQ-SLM-O-17-0003</t>
   </si>
   <si>
     <t>Drawer Unit</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0004</t>
+    <t>FRC-HQ-SLM-O-17-0004</t>
   </si>
   <si>
     <t>Swivel Chair</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0005</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-O-17-0006</t>
+    <t>FRC-HQ-SLM-O-17-0005</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-O-17-0006</t>
   </si>
   <si>
     <t>Center Table</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0007</t>
+    <t>FRC-HQ-SLM-O-17-0007</t>
   </si>
   <si>
     <t>Curtain Fabric</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0008</t>
+    <t>FRC-HQ-SLM-O-17-0008</t>
   </si>
   <si>
     <t>Carpet</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0009</t>
+    <t>FRC-HQ-SLM-O-17-0009</t>
   </si>
   <si>
     <t>2017-03-10 00:00:00</t>
@@ -133,19 +133,19 @@
     <t>Computer (Desktop)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-17-0010</t>
+    <t>FRC-HQ-SLM-C-17-0010</t>
   </si>
   <si>
     <t>Computer(laptop)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-17-0011</t>
+    <t>FRC-HQ-SLM-C-17-0011</t>
   </si>
   <si>
     <t xml:space="preserve">Crokeries </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0012</t>
+    <t>FRC-HQ-SLM-O-17-0012</t>
   </si>
   <si>
     <t>Fridge</t>
@@ -154,7 +154,7 @@
     <t>Samsung</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0013</t>
+    <t>FRC-HQ-SLM-O-17-0013</t>
   </si>
   <si>
     <t>27/12/2017</t>
@@ -166,7 +166,7 @@
     <t>Hatil</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0014</t>
+    <t>FRC-HQ-SLM-F-17-0014</t>
   </si>
   <si>
     <t>Microwave Oven</t>
@@ -175,7 +175,7 @@
     <t>Sharp</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0015</t>
+    <t>FRC-HQ-SLM-O-17-0015</t>
   </si>
   <si>
     <t>2017-09-10 00:00:00</t>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">vertical Curtain </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0016</t>
+    <t>FRC-HQ-SLM-O-17-0016</t>
   </si>
   <si>
     <t>2018-05-04 00:00:00</t>
@@ -196,13 +196,13 @@
     <t>KDK</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0017</t>
+    <t>FRC-HQ-SLM-F-17-0017</t>
   </si>
   <si>
     <t>Ceiling Fan</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0018</t>
+    <t>FRC-HQ-SLM-O-17-0018</t>
   </si>
   <si>
     <t>31/10/2017</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">Ceiling fan </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0019</t>
+    <t>FRC-HQ-SLM-F-17-0019</t>
   </si>
   <si>
     <t>2017-05-11 00:00:00</t>
@@ -223,7 +223,7 @@
     <t>Jamuna</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0020</t>
+    <t>FRC-HQ-SLM-F-17-0020</t>
   </si>
   <si>
     <t>15/11/2017</t>
@@ -232,19 +232,19 @@
     <t>Curtain Sewing cost</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0021</t>
+    <t>FRC-HQ-SLM-O-17-0021</t>
   </si>
   <si>
     <t>22/11/2017</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0022</t>
+    <t>FRC-HQ-SLM-O-17-0022</t>
   </si>
   <si>
     <t>2017-06-12 00:00:00</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0023</t>
+    <t>FRC-HQ-SLM-O-17-0023</t>
   </si>
   <si>
     <t>20/12/2017</t>
@@ -256,25 +256,25 @@
     <t>Palash Furniture</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0024</t>
+    <t>FRC-HQ-SLM-F-17-0024</t>
   </si>
   <si>
     <t>Side Table</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0025</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-F-17-0026</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-F-17-0027</t>
+    <t>FRC-HQ-SLM-F-17-0025</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-F-17-0026</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-F-17-0027</t>
   </si>
   <si>
     <t>Office File Cabinet</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0028</t>
+    <t>FRC-HQ-SLM-O-17-0028</t>
   </si>
   <si>
     <t>31/12/2017</t>
@@ -283,19 +283,19 @@
     <t xml:space="preserve">Conference Table </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0029</t>
+    <t>FRC-HQ-SLM-F-17-0029</t>
   </si>
   <si>
     <t>Sofa</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0030</t>
+    <t>FRC-HQ-SLM-F-17-0030</t>
   </si>
   <si>
     <t>Party Febric</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0031</t>
+    <t>FRC-HQ-SLM-F-17-0031</t>
   </si>
   <si>
     <t>13/02/2018</t>
@@ -307,7 +307,7 @@
     <t>TOA</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0032</t>
+    <t>FRC-HQ-SLM-O-17-0032</t>
   </si>
   <si>
     <t>19/02/2018</t>
@@ -319,7 +319,7 @@
     <t>Sharmin/Local</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0033</t>
+    <t>FRC-HQ-SLM-F-17-0033</t>
   </si>
   <si>
     <t>2018-01-03 00:00:00</t>
@@ -328,7 +328,7 @@
     <t>Crystal Chandelier</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0034</t>
+    <t>FRC-HQ-SLM-O-17-0034</t>
   </si>
   <si>
     <t>2018-12-03 00:00:00</t>
@@ -340,13 +340,13 @@
     <t>Akhter Furniture</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0035</t>
+    <t>FRC-HQ-SLM-F-17-0035</t>
   </si>
   <si>
     <t>13/03/2018</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0036</t>
+    <t>FRC-HQ-SLM-O-17-0036</t>
   </si>
   <si>
     <t>Air conditioner 1.5 tons</t>
@@ -355,7 +355,7 @@
     <t>General</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0037</t>
+    <t>FRC-HQ-SLM-O-17-0037</t>
   </si>
   <si>
     <t>Photo Copy Matachin (Imaging System)</t>
@@ -364,7 +364,7 @@
     <t>Canon</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0038</t>
+    <t>FRC-HQ-SLM-O-17-0038</t>
   </si>
   <si>
     <t>14/03/2018</t>
@@ -376,7 +376,7 @@
     <t>Brother furniture</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0039</t>
+    <t>FRC-HQ-SLM-F-17-0039</t>
   </si>
   <si>
     <t>20/03/2018</t>
@@ -388,7 +388,7 @@
     <t>Nadia</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0040</t>
+    <t>FRC-HQ-SLM-F-17-0040</t>
   </si>
   <si>
     <t>28/03/2018</t>
@@ -397,7 +397,7 @@
     <t>Glass paper Pasting</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0041</t>
+    <t>FRC-HQ-SLM-O-17-0041</t>
   </si>
   <si>
     <t>19/10/2017</t>
@@ -409,7 +409,7 @@
     <t>Otobi</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0042</t>
+    <t>FRC-HQ-SLM-F-17-0042</t>
   </si>
   <si>
     <t>Vacuum cleaner</t>
@@ -418,7 +418,7 @@
     <t>Teful</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0043</t>
+    <t>FRC-HQ-SLM-F-17-0043</t>
   </si>
   <si>
     <t>Multi-plug</t>
@@ -427,7 +427,7 @@
     <t>energypack</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0044</t>
+    <t>FRC-HQ-SLM-F-17-0044</t>
   </si>
   <si>
     <t>Telecommunications</t>
@@ -436,7 +436,7 @@
     <t>Telephone Set</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-T-17-0045</t>
+    <t>FRC-HQ-SLM-T-17-0045</t>
   </si>
   <si>
     <t>2018-09-04 00:00:00</t>
@@ -445,37 +445,37 @@
     <t>PABX set</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-T-17-0046</t>
+    <t>FRC-HQ-SLM-T-17-0046</t>
   </si>
   <si>
     <t>Book Shelf</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0047</t>
+    <t>FRC-HQ-SLM-F-17-0047</t>
   </si>
   <si>
     <t xml:space="preserve">Director Table </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0048</t>
+    <t>FRC-HQ-SLM-O-17-0048</t>
   </si>
   <si>
     <t>Table</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0049</t>
+    <t>FRC-HQ-SLM-F-17-0049</t>
   </si>
   <si>
     <t>Air Conditioner 1.5 ton</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0050</t>
+    <t>FRC-HQ-SLM-O-17-0050</t>
   </si>
   <si>
     <t>Air conditioner 2.0 ton</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-17-0051</t>
+    <t>FRC-HQ-SLM-O-17-0051</t>
   </si>
   <si>
     <t>26/10/2017</t>
@@ -484,13 +484,13 @@
     <t>sofa 1 + 2 seater</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0052</t>
+    <t>FRC-HQ-SLM-F-17-0052</t>
   </si>
   <si>
     <t>Computer Chair</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-17-0053</t>
+    <t>FRC-HQ-SLM-F-17-0053</t>
   </si>
   <si>
     <t>2018-2019</t>
@@ -505,13 +505,13 @@
     <t>otobi</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0054</t>
+    <t>FRC-HQ-SLM-F-18-0054</t>
   </si>
   <si>
     <t>30/08/2018</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0055</t>
+    <t>FRC-HQ-SLM-F-18-0055</t>
   </si>
   <si>
     <t>29/11/2018</t>
@@ -520,7 +520,7 @@
     <t>Chair</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0056</t>
+    <t>FRC-HQ-SLM-F-18-0056</t>
   </si>
   <si>
     <t>2018-05-12 00:00:00</t>
@@ -529,7 +529,7 @@
     <t>JAF/Local</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0057</t>
+    <t>FRC-HQ-SLM-F-18-0057</t>
   </si>
   <si>
     <t>26/09/2018</t>
@@ -538,7 +538,7 @@
     <t>blue bell sofa 1 Seater</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0058</t>
+    <t>FRC-HQ-SLM-F-18-0058</t>
   </si>
   <si>
     <t>29/07/2018</t>
@@ -547,7 +547,7 @@
     <t>File  Cabinate</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0059</t>
+    <t>FRC-HQ-SLM-F-18-0059</t>
   </si>
   <si>
     <t>2018-09-07 00:00:00</t>
@@ -556,13 +556,13 @@
     <t>Computer Desktop</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0060</t>
+    <t>FRC-HQ-SLM-C-18-0060</t>
   </si>
   <si>
     <t>2018-10-07 00:00:00</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0061</t>
+    <t>FRC-HQ-SLM-C-18-0061</t>
   </si>
   <si>
     <t>15/07/2018</t>
@@ -574,19 +574,19 @@
     <t>Pure it</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0062</t>
+    <t>FRC-HQ-SLM-O-18-0062</t>
   </si>
   <si>
     <t>OTOBI</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0063</t>
+    <t>FRC-HQ-SLM-F-18-0063</t>
   </si>
   <si>
     <t>13/08/2018</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0064</t>
+    <t>FRC-HQ-SLM-F-18-0064</t>
   </si>
   <si>
     <t>2018-07-08 00:00:00</t>
@@ -598,34 +598,34 @@
     <t>Asus</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0065</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-C-18-0066</t>
+    <t>FRC-HQ-SLM-C-18-0065</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-C-18-0066</t>
   </si>
   <si>
     <t>Book Shelf Cabinet</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0067</t>
+    <t>FRC-HQ-SLM-F-18-0067</t>
   </si>
   <si>
     <t>Side table</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0068</t>
+    <t>FRC-HQ-SLM-F-18-0068</t>
   </si>
   <si>
     <t>blue bell sofa 2 seater</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0069</t>
+    <t>FRC-HQ-SLM-F-18-0069</t>
   </si>
   <si>
     <t>Computer Table</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0070</t>
+    <t>FRC-HQ-SLM-F-18-0070</t>
   </si>
   <si>
     <t>18/09/2018</t>
@@ -634,7 +634,7 @@
     <t>Computer Equipements</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0071</t>
+    <t>FRC-HQ-SLM-C-18-0071</t>
   </si>
   <si>
     <t>23/09/2018</t>
@@ -643,22 +643,22 @@
     <t>Director Table Drawer Unit</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0072</t>
+    <t>FRC-HQ-SLM-F-18-0072</t>
   </si>
   <si>
     <t>Megazine trolly</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0073</t>
+    <t>FRC-HQ-SLM-F-18-0073</t>
   </si>
   <si>
     <t>27/09/2018</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0074</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-F-18-0075</t>
+    <t>FRC-HQ-SLM-F-18-0074</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-F-18-0075</t>
   </si>
   <si>
     <t>2018-07-11 00:00:00</t>
@@ -670,13 +670,13 @@
     <t>Engineering Telecom Systems</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-T-18-0076</t>
+    <t>FRC-HQ-SLM-T-18-0076</t>
   </si>
   <si>
     <t>30/09/2019</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0077</t>
+    <t>FRC-HQ-SLM-F-18-0077</t>
   </si>
   <si>
     <t>2018-11-10 00:00:00</t>
@@ -685,13 +685,13 @@
     <t>PABX Cabinet</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0078</t>
+    <t>FRC-HQ-SLM-F-18-0078</t>
   </si>
   <si>
     <t>Filter Tool</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0079</t>
+    <t>FRC-HQ-SLM-F-18-0079</t>
   </si>
   <si>
     <t>22/10/2018</t>
@@ -703,7 +703,7 @@
     <t>Hitachi</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0080</t>
+    <t>FRC-HQ-SLM-C-18-0080</t>
   </si>
   <si>
     <t>Screen</t>
@@ -712,7 +712,7 @@
     <t>Xtreme</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0081</t>
+    <t>FRC-HQ-SLM-C-18-0081</t>
   </si>
   <si>
     <t>Printer</t>
@@ -721,7 +721,7 @@
     <t>HP</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0082</t>
+    <t>FRC-HQ-SLM-C-18-0082</t>
   </si>
   <si>
     <t>29/10/2018</t>
@@ -730,22 +730,22 @@
     <t xml:space="preserve">Scanner </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0083</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-O-18-0084</t>
+    <t>FRC-HQ-SLM-C-18-0083</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-O-18-0084</t>
   </si>
   <si>
     <t>Epson</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0085</t>
+    <t>FRC-HQ-SLM-C-18-0085</t>
   </si>
   <si>
     <t>Toner</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0086</t>
+    <t>FRC-HQ-SLM-C-18-0086</t>
   </si>
   <si>
     <t>18/11/2018</t>
@@ -754,7 +754,7 @@
     <t>Dinner Plate + Coffee Mug</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0087</t>
+    <t>FRC-HQ-SLM-O-18-0087</t>
   </si>
   <si>
     <t>19/11/2018</t>
@@ -763,7 +763,7 @@
     <t>Tolley Speaker</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0088</t>
+    <t>FRC-HQ-SLM-C-18-0088</t>
   </si>
   <si>
     <t>2018-04-12 00:00:00</t>
@@ -772,31 +772,31 @@
     <t>Dell</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0089</t>
+    <t>FRC-HQ-SLM-C-18-0089</t>
   </si>
   <si>
     <t>Charcoal</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-18-0090</t>
+    <t>FRC-HQ-SLM-C-18-0090</t>
   </si>
   <si>
     <t>Cubical work station</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0091</t>
+    <t>FRC-HQ-SLM-F-18-0091</t>
   </si>
   <si>
     <t>Table top</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0092</t>
+    <t>FRC-HQ-SLM-F-18-0092</t>
   </si>
   <si>
     <t>Keyboard tray</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0093</t>
+    <t>FRC-HQ-SLM-F-18-0093</t>
   </si>
   <si>
     <t>2019-09-05 00:00:00</t>
@@ -805,7 +805,7 @@
     <t>AC 1.5 ton</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0094</t>
+    <t>FRC-HQ-SLM-O-18-0094</t>
   </si>
   <si>
     <t>2018-11-12 00:00:00</t>
@@ -814,7 +814,7 @@
     <t>Design Bill</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0095</t>
+    <t>FRC-HQ-SLM-F-18-0095</t>
   </si>
   <si>
     <t>14/01/2019</t>
@@ -823,7 +823,7 @@
     <t>Murcury Glasses and Top white glasses</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0096</t>
+    <t>FRC-HQ-SLM-O-18-0096</t>
   </si>
   <si>
     <t>13/01/2019</t>
@@ -835,7 +835,7 @@
     <t>Panasonic</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-T-18-0097</t>
+    <t>FRC-HQ-SLM-T-18-0097</t>
   </si>
   <si>
     <t>30/1/2019</t>
@@ -850,7 +850,7 @@
     <t>Honda City</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-M-18-0098</t>
+    <t>FRC-HQ-SLM-M-18-0098</t>
   </si>
   <si>
     <t>17/2/2019</t>
@@ -862,7 +862,7 @@
     <t>Mitsubishi</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-M-18-0099</t>
+    <t>FRC-HQ-SLM-M-18-0099</t>
   </si>
   <si>
     <t>2019-07-03 00:00:00</t>
@@ -871,7 +871,7 @@
     <t>Plate+Tea Cup+Sugar Pot</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0100</t>
+    <t>FRC-HQ-SLM-O-18-0100</t>
   </si>
   <si>
     <t>2019-02-04 00:00:00</t>
@@ -880,7 +880,7 @@
     <t>ceramic Crokeries (Glass + Fruit Baul+Cutlery)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0101</t>
+    <t>FRC-HQ-SLM-O-18-0101</t>
   </si>
   <si>
     <t>15/04/2019</t>
@@ -889,7 +889,7 @@
     <t>Fork</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0102</t>
+    <t>FRC-HQ-SLM-O-18-0102</t>
   </si>
   <si>
     <t>AC 2 ton</t>
@@ -898,13 +898,13 @@
     <t xml:space="preserve">Samsung </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0103</t>
+    <t>FRC-HQ-SLM-O-18-0103</t>
   </si>
   <si>
     <t>installation cost  for AC</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0104</t>
+    <t>FRC-HQ-SLM-O-18-0104</t>
   </si>
   <si>
     <t>23/05/2019</t>
@@ -916,7 +916,7 @@
     <t xml:space="preserve">Ofitech </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0105</t>
+    <t>FRC-HQ-SLM-O-18-0105</t>
   </si>
   <si>
     <t>2018-11-11 00:00:00</t>
@@ -925,7 +925,7 @@
     <t>Air conditioner 2 ton + Installation</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0106</t>
+    <t>FRC-HQ-SLM-O-18-0106</t>
   </si>
   <si>
     <t>19/06/2019</t>
@@ -934,25 +934,25 @@
     <t>Photocopy Machine (Imaging System)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0107</t>
+    <t>FRC-HQ-SLM-O-18-0107</t>
   </si>
   <si>
     <t>Metal Pedestal</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0108</t>
+    <t>FRC-HQ-SLM-O-18-0108</t>
   </si>
   <si>
     <t>Cofee Mug</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-18-0109</t>
+    <t>FRC-HQ-SLM-O-18-0109</t>
   </si>
   <si>
     <t>2019-03-06 00:00:00</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-18-0110</t>
+    <t>FRC-HQ-SLM-F-18-0110</t>
   </si>
   <si>
     <t>2019-2020</t>
@@ -964,7 +964,7 @@
     <t>Blue bell sofa 1 seater</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-19-0111</t>
+    <t>FRC-HQ-SLM-F-19-0111</t>
   </si>
   <si>
     <t>19/02/2020</t>
@@ -976,7 +976,7 @@
     <t xml:space="preserve">Nadia </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-19-0112</t>
+    <t>FRC-HQ-SLM-F-19-0112</t>
   </si>
   <si>
     <t>2019-06-08 00:00:00</t>
@@ -988,16 +988,16 @@
     <t>JAF</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-19-0113</t>
+    <t>FRC-HQ-SLM-F-19-0113</t>
   </si>
   <si>
     <t xml:space="preserve">File Cabinet </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-19-0114</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-F-19-0115</t>
+    <t>FRC-HQ-SLM-F-19-0114</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-F-19-0115</t>
   </si>
   <si>
     <t>22/08/2019</t>
@@ -1006,31 +1006,31 @@
     <t>Television</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-19-0116</t>
+    <t>FRC-HQ-SLM-O-19-0116</t>
   </si>
   <si>
     <t>Blue bell sofa 2 seater</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-19-0117</t>
+    <t>FRC-HQ-SLM-F-19-0117</t>
   </si>
   <si>
     <t>Magazine Trolly</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-19-0118</t>
+    <t>FRC-HQ-SLM-F-19-0118</t>
   </si>
   <si>
     <t>29/08/2019</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-19-0119</t>
+    <t>FRC-HQ-SLM-O-19-0119</t>
   </si>
   <si>
     <t>2019-11-09 00:00:00</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-19-0120</t>
+    <t>FRC-HQ-SLM-O-19-0120</t>
   </si>
   <si>
     <t>2019-05-11 00:00:00</t>
@@ -1039,7 +1039,7 @@
     <t>Swing Chair</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-19-0121</t>
+    <t>FRC-HQ-SLM-F-19-0121</t>
   </si>
   <si>
     <t>31/12/2019</t>
@@ -1048,7 +1048,7 @@
     <t>Desktop Computer</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-19-0122</t>
+    <t>FRC-HQ-SLM-C-19-0122</t>
   </si>
   <si>
     <t>Laptop</t>
@@ -1057,34 +1057,34 @@
     <t>Dell inspiron</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-19-0123</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-C-19-0124</t>
+    <t>FRC-HQ-SLM-C-19-0123</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-C-19-0124</t>
   </si>
   <si>
     <t xml:space="preserve">UPS,Mouse,Pendrive and Multiplug </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-19-0125</t>
+    <t>FRC-HQ-SLM-C-19-0125</t>
   </si>
   <si>
     <t>20/01/2020</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-19-0126</t>
+    <t>FRC-HQ-SLM-F-19-0126</t>
   </si>
   <si>
     <t>Open Book shelf Cabinet</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-19-0127</t>
+    <t>FRC-HQ-SLM-F-19-0127</t>
   </si>
   <si>
     <t>Corner side table</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-19-0128</t>
+    <t>FRC-HQ-SLM-F-19-0128</t>
   </si>
   <si>
     <t>2020-2021</t>
@@ -1093,10 +1093,10 @@
     <t>22/11/2020</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-20-0129</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-C-20-0130</t>
+    <t>FRC-HQ-SLM-C-20-0129</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-C-20-0130</t>
   </si>
   <si>
     <t>Camera</t>
@@ -1105,13 +1105,13 @@
     <t>Nikon</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-20-0131</t>
+    <t>FRC-HQ-SLM-C-20-0131</t>
   </si>
   <si>
     <t>Camera bag and SD card</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-20-0132</t>
+    <t>FRC-HQ-SLM-C-20-0132</t>
   </si>
   <si>
     <t>13/12/2020</t>
@@ -1120,22 +1120,22 @@
     <t>Penasonic</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-T-20-0133</t>
+    <t>FRC-HQ-SLM-T-20-0133</t>
   </si>
   <si>
     <t>2021-11-01 00:00:00</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-20-0134</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-C-20-0135</t>
+    <t>FRC-HQ-SLM-C-20-0134</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-C-20-0135</t>
   </si>
   <si>
     <t>UPS,Mouse,Pendrive,headphone,Webcam, Keyboard and Multiplug</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-20-0136</t>
+    <t>FRC-HQ-SLM-C-20-0136</t>
   </si>
   <si>
     <t>Computer Laptop</t>
@@ -1144,7 +1144,7 @@
     <t>Brand Asus</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-20-0137</t>
+    <t>FRC-HQ-SLM-C-20-0137</t>
   </si>
   <si>
     <t>18/01/2021</t>
@@ -1156,13 +1156,13 @@
     <t>Nadia/ Akhter</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-20-0138</t>
+    <t>FRC-HQ-SLM-F-20-0138</t>
   </si>
   <si>
     <t>15/02/2021</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-20-0139</t>
+    <t>FRC-HQ-SLM-C-20-0139</t>
   </si>
   <si>
     <t>23/02/2021`</t>
@@ -1171,7 +1171,7 @@
     <t>Tender Box</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-20-0140</t>
+    <t>FRC-HQ-SLM-F-20-0140</t>
   </si>
   <si>
     <t>24/03/2021</t>
@@ -1180,13 +1180,13 @@
     <t>Global Brand</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-20-0141</t>
+    <t>FRC-HQ-SLM-C-20-0141</t>
   </si>
   <si>
     <t>23/03/2021</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-20-0142</t>
+    <t>FRC-HQ-SLM-C-20-0142</t>
   </si>
   <si>
     <t>2021-2022</t>
@@ -1198,7 +1198,7 @@
     <t>Sedan</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-M-21-0143</t>
+    <t>FRC-HQ-SLM-M-21-0143</t>
   </si>
   <si>
     <t>30/12/2021</t>
@@ -1207,7 +1207,7 @@
     <t>car accessories</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-M-21-0144</t>
+    <t>FRC-HQ-SLM-M-21-0144</t>
   </si>
   <si>
     <t>2022-09-02 00:00:00</t>
@@ -1219,16 +1219,16 @@
     <t>Amecon</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-21-0145</t>
+    <t>FRC-HQ-SLM-O-21-0145</t>
   </si>
   <si>
     <t>27/2/2022</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0146</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-C-21-0147</t>
+    <t>FRC-HQ-SLM-C-21-0146</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-C-21-0147</t>
   </si>
   <si>
     <t>2022-09-05 00:00:00</t>
@@ -1237,7 +1237,7 @@
     <t>Seat cover</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-M-21-0148</t>
+    <t>FRC-HQ-SLM-M-21-0148</t>
   </si>
   <si>
     <t>2022-09-06 00:00:00</t>
@@ -1249,7 +1249,7 @@
     <t>Walton</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0149</t>
+    <t>FRC-HQ-SLM-F-21-0149</t>
   </si>
   <si>
     <t>23/6/2022</t>
@@ -1258,7 +1258,7 @@
     <t>Table Glass</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-O-21-0150</t>
+    <t>FRC-HQ-SLM-O-21-0150</t>
   </si>
   <si>
     <t>30/06/2022</t>
@@ -1270,61 +1270,61 @@
     <t>BREAKING  of FLOOR TILES &amp; OTHERS</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0152</t>
+    <t>FRC-HQ-SLM-C-21-0152</t>
   </si>
   <si>
     <t xml:space="preserve">FLOOR CLEANING &amp; GARBAGE TRANSFER WORK     </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0153</t>
+    <t>FRC-HQ-SLM-C-21-0153</t>
   </si>
   <si>
     <t xml:space="preserve">125 MM BRICK WORK  </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0154</t>
+    <t>FRC-HQ-SLM-C-21-0154</t>
   </si>
   <si>
     <t>PLASTER WORK</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0155</t>
+    <t>FRC-HQ-SLM-C-21-0155</t>
   </si>
   <si>
     <t>RCC works</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0156</t>
+    <t>FRC-HQ-SLM-C-21-0156</t>
   </si>
   <si>
     <t>Floor Demolition</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0157</t>
+    <t>FRC-HQ-SLM-C-21-0157</t>
   </si>
   <si>
     <t>TOILET FLOOR TILES SUPPLYING ,FITTING &amp; FIXING</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0158</t>
+    <t>FRC-HQ-SLM-C-21-0158</t>
   </si>
   <si>
     <t xml:space="preserve">LINTELS WORKS   </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0159</t>
+    <t>FRC-HQ-SLM-C-21-0159</t>
   </si>
   <si>
     <t>TOILET WALL TILES SUPPLYING ,FITTING &amp; FIXING</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0160</t>
+    <t>FRC-HQ-SLM-C-21-0160</t>
   </si>
   <si>
     <t xml:space="preserve">GRANITE &amp; MARBLE </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-C-21-0161</t>
+    <t>FRC-HQ-SLM-C-21-0161</t>
   </si>
   <si>
     <t xml:space="preserve">Internet and PABX System </t>
@@ -1333,50 +1333,50 @@
     <t>CAT6 CABLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0162</t>
+    <t>FRC-HQ-SLM-I-21-0162</t>
   </si>
   <si>
     <t xml:space="preserve">FACE PLATE WITH MODULAR ( 2 WAY)  Dintek   </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0163</t>
+    <t>FRC-HQ-SLM-I-21-0163</t>
   </si>
   <si>
     <t>MODULAR (DINTEK)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0164</t>
+    <t>FRC-HQ-SLM-I-21-0164</t>
   </si>
   <si>
     <t>PATCH CORT 3 METER</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0165</t>
+    <t>FRC-HQ-SLM-I-21-0165</t>
   </si>
   <si>
     <t>CAT6 CONNECTOR</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0166</t>
+    <t>FRC-HQ-SLM-I-21-0166</t>
   </si>
   <si>
     <t>INSTALLATION, TESTING &amp; COMMISSIONING</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0167</t>
+    <t>FRC-HQ-SLM-I-21-0167</t>
   </si>
   <si>
     <t>LABOR CHARGE FOR CABLE WORKS</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0168</t>
+    <t>FRC-HQ-SLM-I-21-0168</t>
   </si>
   <si>
     <t>ACCESSORIES : ITEM AS PER REQUIREMENT OF
  NETWORKING WORK</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0169</t>
+    <t>FRC-HQ-SLM-I-21-0169</t>
   </si>
   <si>
     <t>FLOOR MOUNTED 42U SERVER RACK WITH GLASS.</t>
@@ -1385,13 +1385,13 @@
     <t>TOTEN</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0170</t>
+    <t>FRC-HQ-SLM-I-21-0170</t>
   </si>
   <si>
     <t xml:space="preserve">24 PORT RACK MOUNTED SWITCH </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0171</t>
+    <t>FRC-HQ-SLM-I-21-0171</t>
   </si>
   <si>
     <t xml:space="preserve">WIRELESS ACCESS POINT </t>
@@ -1400,7 +1400,7 @@
     <t>CISCO/ EQUIVALENT</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0172</t>
+    <t>FRC-HQ-SLM-I-21-0172</t>
   </si>
   <si>
     <t>Sanitary Fittings</t>
@@ -1412,7 +1412,7 @@
     <t>COTTO/TOTO</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0173</t>
+    <t>FRC-HQ-SLM-S-21-0173</t>
   </si>
   <si>
     <t xml:space="preserve">BASIN CABINET       </t>
@@ -1421,37 +1421,37 @@
     <t>Partex</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0174</t>
+    <t>FRC-HQ-SLM-S-21-0174</t>
   </si>
   <si>
     <t xml:space="preserve">PUSH SHOWER  </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0175</t>
+    <t>FRC-HQ-SLM-S-21-0175</t>
   </si>
   <si>
     <t xml:space="preserve">STEEL SINK        </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0176</t>
+    <t>FRC-HQ-SLM-S-21-0176</t>
   </si>
   <si>
     <t xml:space="preserve">TOWEL RAIL  </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0177</t>
+    <t>FRC-HQ-SLM-S-21-0177</t>
   </si>
   <si>
     <t xml:space="preserve">TOILET PAPER HOLDER   </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0178</t>
+    <t>FRC-HQ-SLM-S-21-0178</t>
   </si>
   <si>
     <t xml:space="preserve">ANGLE STOP COCK SUPPLYING, FITTING &amp; FIXING      </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0179</t>
+    <t>FRC-HQ-SLM-S-21-0179</t>
   </si>
   <si>
     <t>AUTOMATED HAND DRYER</t>
@@ -1460,62 +1460,62 @@
     <t>HAIBALI/ SIMILAR</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0180</t>
+    <t>FRC-HQ-SLM-S-21-0180</t>
   </si>
   <si>
     <t xml:space="preserve">MIRROR SUPPLY     </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0181</t>
+    <t>FRC-HQ-SLM-S-21-0181</t>
   </si>
   <si>
     <t xml:space="preserve">SS GRATING </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0182</t>
+    <t>FRC-HQ-SLM-S-21-0182</t>
   </si>
   <si>
     <t>WALL HUNG LIQUID SOAP DISPENSER</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0183</t>
+    <t>FRC-HQ-SLM-S-21-0183</t>
   </si>
   <si>
     <t>FAUCET (Push Pillar Cock) SUPPLY FITTING,
 FIXING OF FAUCET (Push pillar cock)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0184</t>
+    <t>FRC-HQ-SLM-S-21-0184</t>
   </si>
   <si>
     <t>BIB COCK. BRAND: NAZMA/ SHARIF</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0185</t>
+    <t>FRC-HQ-SLM-S-21-0185</t>
   </si>
   <si>
     <t>EXHAUST FAN</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0186</t>
+    <t>FRC-HQ-SLM-S-21-0186</t>
   </si>
   <si>
     <t>BASIN WASTE PIPE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0187</t>
+    <t>FRC-HQ-SLM-S-21-0187</t>
   </si>
   <si>
     <t>COAT HANGER</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0188</t>
+    <t>FRC-HQ-SLM-S-21-0188</t>
   </si>
   <si>
     <t>SANITARY WIRING &amp; LABOUR CHARGE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0189</t>
+    <t>FRC-HQ-SLM-S-21-0189</t>
   </si>
   <si>
     <t>Basin Pillar Cock</t>
@@ -1524,7 +1524,7 @@
     <t>Cotto, Thailand</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0190</t>
+    <t>FRC-HQ-SLM-S-21-0190</t>
   </si>
   <si>
     <t>Double towel Bar</t>
@@ -1533,13 +1533,13 @@
     <t xml:space="preserve"> Cotto, Thailand</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0191</t>
+    <t>FRC-HQ-SLM-S-21-0191</t>
   </si>
   <si>
     <t>Sink Cock</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0192</t>
+    <t>FRC-HQ-SLM-S-21-0192</t>
   </si>
   <si>
     <t>Speaker System</t>
@@ -1551,31 +1551,31 @@
     <t>BOSH</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0193</t>
+    <t>FRC-HQ-SLM-S-21-0193</t>
   </si>
   <si>
     <t>MIXER POWER AMPLIFIER SUPPLY &amp; INSTALLATION</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0194</t>
+    <t>FRC-HQ-SLM-S-21-0194</t>
   </si>
   <si>
     <t>PODIUM MICRO PHONE SUPPLY &amp; INSTALLATION</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0195</t>
+    <t>FRC-HQ-SLM-S-21-0195</t>
   </si>
   <si>
     <t>WIRELESS HAND HALL MICRO PHONE SUPPLY &amp;  INSTALLATION</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0196</t>
+    <t>FRC-HQ-SLM-S-21-0196</t>
   </si>
   <si>
     <t>INSTALLATION CHARGE OTHER ACCESSORIES</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-S-21-0197</t>
+    <t>FRC-HQ-SLM-S-21-0197</t>
   </si>
   <si>
     <t>Electrical Wire and Fittings</t>
@@ -1587,37 +1587,37 @@
     <t>BOSHUNDHORA/ RFL/ SIMILAR</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0198</t>
+    <t>FRC-HQ-SLM-E-21-0198</t>
   </si>
   <si>
     <t>1'' DIA PVC</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0199</t>
+    <t>FRC-HQ-SLM-E-21-0199</t>
   </si>
   <si>
     <t>2'' DIA PVC</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0200</t>
+    <t>FRC-HQ-SLM-E-21-0200</t>
   </si>
   <si>
     <t>3/4'' DIA FLEXIBLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0201</t>
+    <t>FRC-HQ-SLM-E-21-0201</t>
   </si>
   <si>
     <t>1'' DIA FLEXIBLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0202</t>
+    <t>FRC-HQ-SLM-E-21-0202</t>
   </si>
   <si>
     <t>2'' DIA FLEXIBLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0203</t>
+    <t>FRC-HQ-SLM-E-21-0203</t>
   </si>
   <si>
     <t>1.5 mm (BYA) FRLS CABLE</t>
@@ -1626,31 +1626,31 @@
     <t>BRB/ BBS/ PARADISE/ SIMILAR</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0204</t>
+    <t>FRC-HQ-SLM-E-21-0204</t>
   </si>
   <si>
     <t>2.5 mm (BYA) FRLS CABLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0205</t>
+    <t>FRC-HQ-SLM-E-21-0205</t>
   </si>
   <si>
     <t>4.0 mm (BYA) FRLS CABLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0206</t>
+    <t>FRC-HQ-SLM-E-21-0206</t>
   </si>
   <si>
     <t>RJ-6 COAXIAL CABLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0207</t>
+    <t>FRC-HQ-SLM-E-21-0207</t>
   </si>
   <si>
     <t>1.5 mm (BYA) ECC FRLS CABLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0208</t>
+    <t>FRC-HQ-SLM-E-21-0208</t>
   </si>
   <si>
     <t>6A SP MCB BREAKER</t>
@@ -1659,13 +1659,13 @@
     <t>LEGRAND/ ABB/SIEMENS</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0209</t>
+    <t>FRC-HQ-SLM-E-21-0209</t>
   </si>
   <si>
     <t>10 to 32 A SP C</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0210</t>
+    <t>FRC-HQ-SLM-E-21-0210</t>
   </si>
   <si>
     <t>2 GANG (1 WAY)  SWITCH</t>
@@ -1674,25 +1674,25 @@
     <t>LEGRAND/ SIMILAR</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0211</t>
+    <t>FRC-HQ-SLM-E-21-0211</t>
   </si>
   <si>
     <t>3 GANG (1 WAY)  SWITCH</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0212</t>
+    <t>FRC-HQ-SLM-E-21-0212</t>
   </si>
   <si>
     <t>4 GANG (1 WAY)  SWITCH</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0213</t>
+    <t>FRC-HQ-SLM-E-21-0213</t>
   </si>
   <si>
     <t>TELEVISION SOCKET</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0214</t>
+    <t>FRC-HQ-SLM-E-21-0214</t>
   </si>
   <si>
     <t>2'*2' PANEL LIGHT</t>
@@ -1701,19 +1701,19 @@
     <t>ENERGY PLUS/ OSRAM/ WIPRO/MICROSHINE/ PHILIPS</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0215</t>
+    <t>FRC-HQ-SLM-E-21-0215</t>
   </si>
   <si>
     <t>18W SPOT LIGHT 3'' DIA</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0216</t>
+    <t>FRC-HQ-SLM-E-21-0216</t>
   </si>
   <si>
     <t>4' LED LIGHT</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0217</t>
+    <t>FRC-HQ-SLM-E-21-0217</t>
   </si>
   <si>
     <t>76''  LED TV</t>
@@ -1722,52 +1722,52 @@
     <t xml:space="preserve">SONY </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0218</t>
+    <t>FRC-HQ-SLM-E-21-0218</t>
   </si>
   <si>
     <t>55''  LED TV</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0219</t>
+    <t>FRC-HQ-SLM-E-21-0219</t>
   </si>
   <si>
     <t>MULTIMEDIA PROJECTOR</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0220</t>
+    <t>FRC-HQ-SLM-E-21-0220</t>
   </si>
   <si>
     <t>70''*70'' ELECTRIC PROJECTOR SCREEN</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0221</t>
+    <t>FRC-HQ-SLM-E-21-0221</t>
   </si>
   <si>
     <t>Exhaust Ducting Pipe works</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0222</t>
+    <t>FRC-HQ-SLM-E-21-0222</t>
   </si>
   <si>
     <t>Cable Tray</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0223</t>
+    <t>FRC-HQ-SLM-E-21-0223</t>
   </si>
   <si>
     <t>Cables Works : (for AC outdoor)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0224</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-E-21-0225</t>
+    <t>FRC-HQ-SLM-E-21-0224</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-E-21-0225</t>
   </si>
   <si>
     <t>Electrical Socket</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0226</t>
+    <t>FRC-HQ-SLM-E-21-0226</t>
   </si>
   <si>
     <t>Suspendend Linear Pendent</t>
@@ -1776,58 +1776,58 @@
     <t>PRC (Fixture) Lamp OSRAM</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0227</t>
+    <t>FRC-HQ-SLM-E-21-0227</t>
   </si>
   <si>
     <t>Cuttaset Light</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0228</t>
+    <t>FRC-HQ-SLM-E-21-0228</t>
   </si>
   <si>
     <t>Silinder light for cable tray bottom</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0229</t>
+    <t>FRC-HQ-SLM-E-21-0229</t>
   </si>
   <si>
     <t>Silinder light for dinning room</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0230</t>
+    <t>FRC-HQ-SLM-E-21-0230</t>
   </si>
   <si>
     <t>20A DP Switch for Gyser</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0231</t>
+    <t>FRC-HQ-SLM-E-21-0231</t>
   </si>
   <si>
     <t>2G Steel MK Box</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0232</t>
+    <t>FRC-HQ-SLM-E-21-0232</t>
   </si>
   <si>
     <t>Track Light</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0233</t>
+    <t>FRC-HQ-SLM-E-21-0233</t>
   </si>
   <si>
     <t>2 metre track Channel</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0234</t>
+    <t>FRC-HQ-SLM-E-21-0234</t>
   </si>
   <si>
     <t>Round Fabric Laight</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-E-21-0235</t>
-  </si>
-  <si>
-    <t>FRC-SLM-7.0-E-21-0236</t>
+    <t>FRC-HQ-SLM-E-21-0235</t>
+  </si>
+  <si>
+    <t>FRC-HQ-SLM-E-21-0236</t>
   </si>
   <si>
     <t>Paint Works</t>
@@ -1836,31 +1836,31 @@
     <t xml:space="preserve">PLASTIC PAINTING  </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-P-21-0237</t>
+    <t>FRC-HQ-SLM-P-21-0237</t>
   </si>
   <si>
     <t>HAND POLISH PAINT WORK</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-P-21-0238</t>
+    <t>FRC-HQ-SLM-P-21-0238</t>
   </si>
   <si>
     <t>DOCU PAINT ( KANGAROO)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-P-21-0239</t>
+    <t>FRC-HQ-SLM-P-21-0239</t>
   </si>
   <si>
     <t>LACQUER PAINT WORK</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-P-21-0240</t>
+    <t>FRC-HQ-SLM-P-21-0240</t>
   </si>
   <si>
     <t>Enamel Paint</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-P-21-0241</t>
+    <t>FRC-HQ-SLM-P-21-0241</t>
   </si>
   <si>
     <t>Interior Fit-out Works</t>
@@ -1869,199 +1869,199 @@
     <t>G I FRAME WORKS FOR PARTITIONS</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0242</t>
+    <t>FRC-HQ-SLM-I-21-0242</t>
   </si>
   <si>
     <t>CLADDING OF DOUBLE LAYER BOARD</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0243</t>
+    <t>FRC-HQ-SLM-I-21-0243</t>
   </si>
   <si>
     <t>CLADDING OF DOUBLE LAYER OF PLY BOARD (P2)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0244</t>
+    <t>FRC-HQ-SLM-I-21-0244</t>
   </si>
   <si>
     <t>CLADDING OF DOUBLE LAYER OF 12MM GYPSUM ON BOTH SIDE: (P3)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0245</t>
+    <t>FRC-HQ-SLM-I-21-0245</t>
   </si>
   <si>
     <t>CLADDING OF 12MM PLY</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0246</t>
+    <t>FRC-HQ-SLM-I-21-0246</t>
   </si>
   <si>
     <t>CLADDING OF 12MM COMMERCIAL PARTICLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0247</t>
+    <t>FRC-HQ-SLM-I-21-0247</t>
   </si>
   <si>
     <t>Pelmet for blinds</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0248</t>
+    <t>FRC-HQ-SLM-I-21-0248</t>
   </si>
   <si>
     <t>Pelmet for Projector screen</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0249</t>
+    <t>FRC-HQ-SLM-I-21-0249</t>
   </si>
   <si>
     <t>LAMINATE CLADDING  with Merino/Greenlamp Laminate</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0250</t>
+    <t>FRC-HQ-SLM-I-21-0250</t>
   </si>
   <si>
     <t>GLASS MARKER BOARD BOARD/COLOUR LACQUER GLASS</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0251</t>
+    <t>FRC-HQ-SLM-I-21-0251</t>
   </si>
   <si>
     <t>ALUMINIUM U PROFILE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0252</t>
+    <t>FRC-HQ-SLM-I-21-0252</t>
   </si>
   <si>
     <t>SKIRTING</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0253</t>
+    <t>FRC-HQ-SLM-I-21-0253</t>
   </si>
   <si>
     <t>DEKO 1090 GV SERIES (DOUBLE) ACOUSTIC GLAZED PARTITIONS</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0254</t>
+    <t>FRC-HQ-SLM-I-21-0254</t>
   </si>
   <si>
     <t>SINGLE LEAF GLAZED DOOR WITH PROPRIETARY ALUMINIUM  FRAME &amp; STILE GLAZED SHUTTER (DEKO-GV1090)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0255</t>
+    <t>FRC-HQ-SLM-I-21-0255</t>
   </si>
   <si>
     <t xml:space="preserve">JOINTLESS GYPSUM PLAIN CEILING </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0256</t>
+    <t>FRC-HQ-SLM-I-21-0256</t>
   </si>
   <si>
     <t>WOODEN DROP CEILING</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0257</t>
+    <t>FRC-HQ-SLM-I-21-0257</t>
   </si>
   <si>
     <t xml:space="preserve">TEMPERED GLASS DOOR ( 8'-0''*3'-0'')          </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0258</t>
+    <t>FRC-HQ-SLM-I-21-0258</t>
   </si>
   <si>
     <t>4' GLASS DOOR HANDLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0259</t>
+    <t>FRC-HQ-SLM-I-21-0259</t>
   </si>
   <si>
     <t>FLUSH DOOR SHUTTER WITH FRAME</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0260</t>
+    <t>FRC-HQ-SLM-I-21-0260</t>
   </si>
   <si>
     <t xml:space="preserve">FULL HEIGHT DRY WALL PARTITION                           </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0261</t>
+    <t>FRC-HQ-SLM-I-21-0261</t>
   </si>
   <si>
     <t xml:space="preserve">PVC BOARD PASTING </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0262</t>
+    <t>FRC-HQ-SLM-I-21-0262</t>
   </si>
   <si>
     <t xml:space="preserve">ACOUSTIC PANELING      </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0263</t>
+    <t>FRC-HQ-SLM-I-21-0263</t>
   </si>
   <si>
     <t xml:space="preserve">ROLLER BLINDS                                                                   </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0264</t>
+    <t>FRC-HQ-SLM-I-21-0264</t>
   </si>
   <si>
     <t xml:space="preserve">INJECT PRINT WITH PASTING   </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0265</t>
+    <t>FRC-HQ-SLM-I-21-0265</t>
   </si>
   <si>
     <t>FROSTED PAPER SUPPLY &amp; PASTING</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0266</t>
+    <t>FRC-HQ-SLM-I-21-0266</t>
   </si>
   <si>
     <t>LOGO WORKS</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0267</t>
+    <t>FRC-HQ-SLM-I-21-0267</t>
   </si>
   <si>
     <t>AC RE- ARRANGE INSTALLATION CHARGE &amp; COOPER PIPE, DRAIN WATER PIPE &amp; OTHER ACCESSOROES</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0268</t>
+    <t>FRC-HQ-SLM-I-21-0268</t>
   </si>
   <si>
     <t xml:space="preserve">PVC FLOOR </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0269</t>
+    <t>FRC-HQ-SLM-I-21-0269</t>
   </si>
   <si>
     <t>VINEER BOARD LOUVER CEILING</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0270</t>
+    <t>FRC-HQ-SLM-I-21-0270</t>
   </si>
   <si>
     <t>Commercial Board Louver</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0271</t>
+    <t>FRC-HQ-SLM-I-21-0271</t>
   </si>
   <si>
     <t>Router Cutting Board to cahairman sir room</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0272</t>
+    <t>FRC-HQ-SLM-I-21-0272</t>
   </si>
   <si>
     <t>DECORATIVE  WALL PANELING</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0273</t>
+    <t>FRC-HQ-SLM-I-21-0273</t>
   </si>
   <si>
     <t>PVC Board Cladding</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-I-21-0274</t>
+    <t>FRC-HQ-SLM-I-21-0274</t>
   </si>
   <si>
     <t>Furniture (Leasehold)</t>
@@ -2070,55 +2070,55 @@
     <t>OPEN SPACE - WORKSTATION (WS1)</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0275</t>
+    <t>FRC-HQ-SLM-F-21-0275</t>
   </si>
   <si>
     <t>Fabric/Divider Partition on Work station.</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0276</t>
+    <t>FRC-HQ-SLM-F-21-0276</t>
   </si>
   <si>
     <t>Table top, Tri_com understructure, Wire Management</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0277</t>
+    <t>FRC-HQ-SLM-F-21-0277</t>
   </si>
   <si>
     <t>COLLABORATION TABLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0278</t>
+    <t>FRC-HQ-SLM-F-21-0278</t>
   </si>
   <si>
     <t>COLLABORATION HIGH TABLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0279</t>
+    <t>FRC-HQ-SLM-F-21-0279</t>
   </si>
   <si>
     <t>COLLABORATION HIGH CHAIR</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0280</t>
+    <t>FRC-HQ-SLM-F-21-0280</t>
   </si>
   <si>
     <t>DINING FIXED TABLE</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0281</t>
+    <t>FRC-HQ-SLM-F-21-0281</t>
   </si>
   <si>
     <t>DINING CHAIR</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0282</t>
+    <t>FRC-HQ-SLM-F-21-0282</t>
   </si>
   <si>
     <t>MS STRUCTURE WITH OPEN DISPLAY UNIT</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0283</t>
+    <t>FRC-HQ-SLM-F-21-0283</t>
   </si>
   <si>
     <t>RECEPTION TABLE WITH SIDE TABLE</t>
@@ -2127,7 +2127,7 @@
     <t xml:space="preserve">Victory/Equivalent </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0284</t>
+    <t>FRC-HQ-SLM-F-21-0284</t>
   </si>
   <si>
     <t xml:space="preserve">CENTRAL COFFEE TABLE  Central Coffee Table </t>
@@ -2136,7 +2136,7 @@
     <t>Rainbow /Equivalent</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0285</t>
+    <t>FRC-HQ-SLM-F-21-0285</t>
   </si>
   <si>
     <t>DIRECTOR TABLE WITH SIDE TABLE</t>
@@ -2145,13 +2145,13 @@
     <t>Victory/Equivalent</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0286</t>
+    <t>FRC-HQ-SLM-F-21-0286</t>
   </si>
   <si>
     <t xml:space="preserve">CHAIRMAN TABLE WITH SIDE TABLE     </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0287</t>
+    <t>FRC-HQ-SLM-F-21-0287</t>
   </si>
   <si>
     <t xml:space="preserve">HEAD OF DEPARTMENT TABLE </t>
@@ -2160,7 +2160,7 @@
     <t xml:space="preserve"> Victory/Equivalent </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0288</t>
+    <t>FRC-HQ-SLM-F-21-0288</t>
   </si>
   <si>
     <t xml:space="preserve">EXECUTIVE CHAIR                                              </t>
@@ -2169,19 +2169,19 @@
     <t>Merry fair/Rainbow/Equivalent</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0289</t>
+    <t>FRC-HQ-SLM-F-21-0289</t>
   </si>
   <si>
     <t xml:space="preserve">RECEPTION CHAIR         </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0290</t>
+    <t>FRC-HQ-SLM-F-21-0290</t>
   </si>
   <si>
     <t xml:space="preserve">VISITOR CHAIR      </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0291</t>
+    <t>FRC-HQ-SLM-F-21-0291</t>
   </si>
   <si>
     <t xml:space="preserve">FULL HEIGHT CABINET  </t>
@@ -2190,61 +2190,61 @@
     <t>Partex/Similar</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0292</t>
+    <t>FRC-HQ-SLM-F-21-0292</t>
   </si>
   <si>
     <t xml:space="preserve">LOW HEIGHT CABINET                                                     </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0293</t>
+    <t>FRC-HQ-SLM-F-21-0293</t>
   </si>
   <si>
     <t xml:space="preserve">BASIN CABINET                                                                      </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0294</t>
+    <t>FRC-HQ-SLM-F-21-0294</t>
   </si>
   <si>
     <t>MOVABLE DRAWER UNIT</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0295</t>
+    <t>FRC-HQ-SLM-F-21-0295</t>
   </si>
   <si>
     <t xml:space="preserve">SYNTHETIC MODULAR CARPET                                          </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0296</t>
+    <t>FRC-HQ-SLM-F-21-0296</t>
   </si>
   <si>
     <t xml:space="preserve">ED Visitor Chair </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0297</t>
+    <t>FRC-HQ-SLM-F-21-0297</t>
   </si>
   <si>
     <t xml:space="preserve">Director Chair </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0298</t>
+    <t>FRC-HQ-SLM-F-21-0298</t>
   </si>
   <si>
     <t>IT,Accounts,Head of Admin Chair</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0299</t>
+    <t>FRC-HQ-SLM-F-21-0299</t>
   </si>
   <si>
     <t>Executive Director Double Seater Sofa</t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0300</t>
+    <t>FRC-HQ-SLM-F-21-0300</t>
   </si>
   <si>
     <t xml:space="preserve">Open Collaboration </t>
   </si>
   <si>
-    <t>FRC-SLM-7.0-F-21-0301</t>
+    <t>FRC-HQ-SLM-F-21-0301</t>
   </si>
 </sst>
 </file>
@@ -2610,7 +2610,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2694,7 @@
         <v>50000</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
